--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -11,11 +11,13 @@
     <sheet name="Supermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AI$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AI$254</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AI$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AI$253</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="805">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2349,22 +2351,26 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">210
-213
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">211
+212
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">213
 216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Min faces Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов кока-кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211
-212</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -2383,9 +2389,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 door cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
   </si>
   <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
@@ -2432,9 +2435,6 @@
   </si>
   <si>
     <t xml:space="preserve">each SKU hits facings target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -2693,7 +2693,7 @@
     <numFmt numFmtId="172" formatCode="#,##0"/>
     <numFmt numFmtId="173" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2737,6 +2737,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2759,8 +2764,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2772,13 +2777,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFCC9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2825,7 +2830,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2926,6 +2931,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2934,11 +2943,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2979,7 +2988,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2997,7 +3006,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -3023,51 +3032,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM254"/>
+  <dimension ref="A1:AM65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F216" activeCellId="0" sqref="F216"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.0890688259109"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -20951,7 +20960,7 @@
       <c r="AK226" s="6" t="n">
         <v>209</v>
       </c>
-      <c r="AL226" s="11" t="s">
+      <c r="AL226" s="25" t="s">
         <v>709</v>
       </c>
       <c r="AM226" s="23" t="n">
@@ -20960,7 +20969,7 @@
     </row>
     <row r="227" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>39</v>
@@ -20979,21 +20988,31 @@
         <v>711</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>86</v>
+        <v>619</v>
       </c>
       <c r="I227" s="6"/>
-      <c r="J227" s="6"/>
+      <c r="J227" s="6" t="n">
+        <v>0.4</v>
+      </c>
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
-      <c r="M227" s="6"/>
-      <c r="N227" s="9"/>
+      <c r="M227" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="N227" s="9" t="s">
+        <v>713</v>
+      </c>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
-      <c r="Q227" s="9"/>
+      <c r="Q227" s="9" t="s">
+        <v>713</v>
+      </c>
       <c r="R227" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S227" s="6"/>
+      <c r="S227" s="6" t="s">
+        <v>714</v>
+      </c>
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
       <c r="V227" s="6"/>
@@ -21001,19 +21020,21 @@
       <c r="X227" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="Y227" s="6"/>
+      <c r="Y227" s="6" t="s">
+        <v>715</v>
+      </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
       <c r="AB227" s="6"/>
       <c r="AC227" s="6"/>
       <c r="AD227" s="6" t="s">
-        <v>97</v>
+        <v>708</v>
       </c>
       <c r="AE227" s="8"/>
-      <c r="AF227" s="21"/>
+      <c r="AF227" s="6"/>
       <c r="AG227" s="6"/>
       <c r="AH227" s="6" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="AI227" s="6" t="s">
         <v>691</v>
@@ -21022,18 +21043,16 @@
         <v>3</v>
       </c>
       <c r="AK227" s="6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AL227" s="11" t="s">
-        <v>713</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AL227" s="6"/>
       <c r="AM227" s="6" t="n">
         <v>209</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>39</v>
@@ -21046,36 +21065,36 @@
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="14" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>619</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
       <c r="Q228" s="9" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S228" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
@@ -21085,7 +21104,7 @@
         <v>688</v>
       </c>
       <c r="Y228" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
@@ -21098,25 +21117,25 @@
       <c r="AF228" s="6"/>
       <c r="AG228" s="6"/>
       <c r="AH228" s="6" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="AI228" s="6" t="s">
         <v>691</v>
       </c>
       <c r="AJ228" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK228" s="6" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL228" s="6"/>
       <c r="AM228" s="6" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>39</v>
@@ -21129,37 +21148,29 @@
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="14" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G229" s="14" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>619</v>
+        <v>517</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="6" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
-      <c r="M229" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="N229" s="9" t="s">
-        <v>717</v>
-      </c>
+      <c r="M229" s="6"/>
+      <c r="N229" s="9"/>
       <c r="O229" s="9"/>
       <c r="P229" s="9"/>
-      <c r="Q229" s="9" t="s">
-        <v>717</v>
-      </c>
+      <c r="Q229" s="9"/>
       <c r="R229" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S229" s="6" t="s">
-        <v>718</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="S229" s="6"/>
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="6"/>
@@ -21167,9 +21178,7 @@
       <c r="X229" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="Y229" s="6" t="s">
-        <v>723</v>
-      </c>
+      <c r="Y229" s="6"/>
       <c r="Z229" s="6"/>
       <c r="AA229" s="6"/>
       <c r="AB229" s="6"/>
@@ -21181,25 +21190,27 @@
       <c r="AF229" s="6"/>
       <c r="AG229" s="6"/>
       <c r="AH229" s="6" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="AI229" s="6" t="s">
         <v>691</v>
       </c>
       <c r="AJ229" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK229" s="6" t="n">
-        <v>212</v>
-      </c>
-      <c r="AL229" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="AL229" s="11" t="s">
+        <v>721</v>
+      </c>
       <c r="AM229" s="6" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>39</v>
@@ -21212,29 +21223,37 @@
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="14" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G230" s="14" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>624</v>
+        <v>91</v>
       </c>
       <c r="I230" s="6"/>
       <c r="J230" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
-      <c r="M230" s="6"/>
-      <c r="N230" s="9"/>
+      <c r="M230" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="N230" s="9" t="s">
+        <v>713</v>
+      </c>
       <c r="O230" s="9"/>
       <c r="P230" s="9"/>
-      <c r="Q230" s="9"/>
+      <c r="Q230" s="9" t="s">
+        <v>713</v>
+      </c>
       <c r="R230" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="S230" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="S230" s="6" t="s">
+        <v>714</v>
+      </c>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
       <c r="V230" s="6"/>
@@ -21246,33 +21265,35 @@
       <c r="Z230" s="6"/>
       <c r="AA230" s="6"/>
       <c r="AB230" s="6"/>
-      <c r="AC230" s="6"/>
+      <c r="AC230" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="AD230" s="6" t="s">
-        <v>708</v>
+        <v>97</v>
       </c>
       <c r="AE230" s="8"/>
       <c r="AF230" s="6"/>
       <c r="AG230" s="6"/>
-      <c r="AH230" s="6"/>
+      <c r="AH230" s="6" t="s">
+        <v>702</v>
+      </c>
       <c r="AI230" s="6" t="s">
         <v>691</v>
       </c>
       <c r="AJ230" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK230" s="6" t="n">
+        <v>214</v>
+      </c>
+      <c r="AL230" s="6"/>
+      <c r="AM230" s="6" t="n">
         <v>213</v>
-      </c>
-      <c r="AL230" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="AM230" s="6" t="n">
-        <v>209</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>39</v>
@@ -21285,10 +21306,10 @@
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="14" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G231" s="14" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>91</v>
@@ -21300,21 +21321,21 @@
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="6" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="N231" s="9" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
       <c r="Q231" s="9" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="R231" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S231" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
@@ -21337,7 +21358,7 @@
       <c r="AF231" s="6"/>
       <c r="AG231" s="6"/>
       <c r="AH231" s="6" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="AI231" s="6" t="s">
         <v>691</v>
@@ -21346,7 +21367,7 @@
         <v>4</v>
       </c>
       <c r="AK231" s="6" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL231" s="6"/>
       <c r="AM231" s="6" t="n">
@@ -21355,7 +21376,7 @@
     </row>
     <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>39</v>
@@ -21368,36 +21389,34 @@
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="G232" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="G232" s="14" t="s">
+      <c r="H232" s="24" t="s">
         <v>730</v>
-      </c>
-      <c r="H232" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="I232" s="6"/>
       <c r="J232" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
       <c r="M232" s="6" t="s">
-        <v>731</v>
+        <v>478</v>
       </c>
       <c r="N232" s="9" t="s">
-        <v>732</v>
+        <v>554</v>
       </c>
       <c r="O232" s="9"/>
       <c r="P232" s="9"/>
-      <c r="Q232" s="9" t="s">
-        <v>732</v>
-      </c>
+      <c r="Q232" s="9"/>
       <c r="R232" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S232" s="6" t="s">
-        <v>718</v>
+        <v>556</v>
       </c>
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
@@ -21410,9 +21429,7 @@
       <c r="Z232" s="6"/>
       <c r="AA232" s="6"/>
       <c r="AB232" s="6"/>
-      <c r="AC232" s="6" t="s">
-        <v>625</v>
-      </c>
+      <c r="AC232" s="6"/>
       <c r="AD232" s="6" t="s">
         <v>97</v>
       </c>
@@ -21420,25 +21437,25 @@
       <c r="AF232" s="6"/>
       <c r="AG232" s="6"/>
       <c r="AH232" s="6" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="AI232" s="6" t="s">
         <v>691</v>
       </c>
       <c r="AJ232" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK232" s="6" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL232" s="6"/>
       <c r="AM232" s="6" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>39</v>
@@ -21449,34 +21466,30 @@
       <c r="D233" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E233" s="6"/>
-      <c r="F233" s="14" t="s">
+      <c r="E233" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="H233" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="G233" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="H233" s="24" t="s">
-        <v>735</v>
-      </c>
       <c r="I233" s="6"/>
-      <c r="J233" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
-      <c r="M233" s="6" t="s">
-        <v>478</v>
-      </c>
+      <c r="M233" s="6"/>
       <c r="N233" s="9" t="s">
         <v>554</v>
       </c>
       <c r="O233" s="9"/>
       <c r="P233" s="9"/>
       <c r="Q233" s="9"/>
-      <c r="R233" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="R233" s="6"/>
       <c r="S233" s="6" t="s">
         <v>556</v>
       </c>
@@ -21484,7 +21497,7 @@
       <c r="U233" s="6"/>
       <c r="V233" s="6"/>
       <c r="W233" s="6"/>
-      <c r="X233" s="6" t="s">
+      <c r="X233" s="22" t="s">
         <v>688</v>
       </c>
       <c r="Y233" s="6"/>
@@ -21493,31 +21506,33 @@
       <c r="AB233" s="6"/>
       <c r="AC233" s="6"/>
       <c r="AD233" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE233" s="8"/>
+        <v>621</v>
+      </c>
+      <c r="AE233" s="8" t="n">
+        <v>0.01625</v>
+      </c>
       <c r="AF233" s="6"/>
       <c r="AG233" s="6"/>
       <c r="AH233" s="6" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="AI233" s="6" t="s">
         <v>691</v>
       </c>
       <c r="AJ233" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK233" s="6" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL233" s="6"/>
-      <c r="AM233" s="6" t="n">
-        <v>209</v>
+      <c r="AM233" s="23" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>39</v>
@@ -21526,41 +21541,41 @@
         <v>40</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E234" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E234" s="23" t="s">
         <v>495</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>739</v>
+        <v>686</v>
       </c>
       <c r="I234" s="6"/>
-      <c r="J234" s="6"/>
+      <c r="J234" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
-      <c r="N234" s="9" t="s">
-        <v>554</v>
-      </c>
+      <c r="N234" s="9"/>
       <c r="O234" s="9"/>
       <c r="P234" s="9"/>
       <c r="Q234" s="9"/>
-      <c r="R234" s="6"/>
-      <c r="S234" s="6" t="s">
-        <v>556</v>
-      </c>
+      <c r="R234" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S234" s="6"/>
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
       <c r="V234" s="6"/>
       <c r="W234" s="6"/>
       <c r="X234" s="22" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
@@ -21571,30 +21586,28 @@
         <v>621</v>
       </c>
       <c r="AE234" s="8" t="n">
-        <v>0.01625</v>
+        <v>0.03</v>
       </c>
       <c r="AF234" s="6"/>
       <c r="AG234" s="6"/>
-      <c r="AH234" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="AI234" s="6" t="s">
-        <v>691</v>
-      </c>
+      <c r="AH234" s="6"/>
+      <c r="AI234" s="6"/>
       <c r="AJ234" s="6" t="n">
         <v>2</v>
       </c>
       <c r="AK234" s="6" t="n">
-        <v>217</v>
-      </c>
-      <c r="AL234" s="6"/>
-      <c r="AM234" s="23" t="n">
-        <v>312</v>
+        <v>218</v>
+      </c>
+      <c r="AL234" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="AM234" s="26" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>39</v>
@@ -21609,35 +21622,43 @@
         <v>495</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>686</v>
+        <v>739</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K235" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="K235" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="L235" s="6"/>
-      <c r="M235" s="6"/>
-      <c r="N235" s="9"/>
+      <c r="M235" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="N235" s="9" t="s">
+        <v>554</v>
+      </c>
       <c r="O235" s="9"/>
       <c r="P235" s="9"/>
       <c r="Q235" s="9"/>
       <c r="R235" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S235" s="6"/>
+      <c r="S235" s="6" t="s">
+        <v>556</v>
+      </c>
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
       <c r="V235" s="6"/>
       <c r="W235" s="6"/>
       <c r="X235" s="22" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
@@ -21645,31 +21666,29 @@
       <c r="AB235" s="6"/>
       <c r="AC235" s="6"/>
       <c r="AD235" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="AE235" s="8" t="n">
-        <v>0.03</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="AE235" s="8"/>
       <c r="AF235" s="6"/>
       <c r="AG235" s="6"/>
-      <c r="AH235" s="6"/>
+      <c r="AH235" s="6" t="s">
+        <v>741</v>
+      </c>
       <c r="AI235" s="6"/>
       <c r="AJ235" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK235" s="6" t="n">
+        <v>219</v>
+      </c>
+      <c r="AL235" s="6"/>
+      <c r="AM235" s="6" t="n">
         <v>218</v>
-      </c>
-      <c r="AL235" s="17" t="s">
-        <v>742</v>
-      </c>
-      <c r="AM235" s="25" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>39</v>
@@ -21680,77 +21699,61 @@
       <c r="D236" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E236" s="23" t="s">
-        <v>495</v>
-      </c>
+      <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G236" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="G236" s="6" t="s">
-        <v>744</v>
-      </c>
       <c r="H236" s="6" t="s">
-        <v>745</v>
+        <v>86</v>
       </c>
       <c r="I236" s="6"/>
-      <c r="J236" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K236" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
       <c r="L236" s="6"/>
-      <c r="M236" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="N236" s="9" t="s">
-        <v>554</v>
-      </c>
+      <c r="M236" s="6"/>
+      <c r="N236" s="9"/>
       <c r="O236" s="9"/>
       <c r="P236" s="9"/>
-      <c r="Q236" s="9"/>
-      <c r="R236" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S236" s="6" t="s">
-        <v>556</v>
-      </c>
+      <c r="Q236" s="6"/>
+      <c r="R236" s="6"/>
+      <c r="S236" s="6"/>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
       <c r="V236" s="6"/>
       <c r="W236" s="6"/>
-      <c r="X236" s="22" t="s">
-        <v>740</v>
-      </c>
+      <c r="X236" s="6"/>
       <c r="Y236" s="6"/>
       <c r="Z236" s="6"/>
-      <c r="AA236" s="6"/>
+      <c r="AA236" s="17"/>
       <c r="AB236" s="6"/>
       <c r="AC236" s="6"/>
       <c r="AD236" s="6" t="s">
-        <v>746</v>
+        <v>87</v>
       </c>
       <c r="AE236" s="8"/>
       <c r="AF236" s="6"/>
       <c r="AG236" s="6"/>
-      <c r="AH236" s="6" t="s">
-        <v>747</v>
-      </c>
+      <c r="AH236" s="6"/>
       <c r="AI236" s="6"/>
       <c r="AJ236" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK236" s="6" t="n">
-        <v>219</v>
-      </c>
-      <c r="AL236" s="6"/>
-      <c r="AM236" s="6" t="n">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="AL236" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="AM236" s="23" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>39</v>
@@ -21761,61 +21764,73 @@
       <c r="D237" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E237" s="6"/>
+      <c r="E237" s="6" t="s">
+        <v>745</v>
+      </c>
       <c r="F237" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="H237" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="G237" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="H237" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="I237" s="6"/>
-      <c r="J237" s="6"/>
+      <c r="J237" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
-      <c r="N237" s="9"/>
+      <c r="N237" s="6" t="s">
+        <v>749</v>
+      </c>
       <c r="O237" s="9"/>
       <c r="P237" s="9"/>
       <c r="Q237" s="6"/>
-      <c r="R237" s="6"/>
-      <c r="S237" s="6"/>
+      <c r="R237" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S237" s="6" t="s">
+        <v>700</v>
+      </c>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="6"/>
       <c r="W237" s="6"/>
       <c r="X237" s="6"/>
-      <c r="Y237" s="6"/>
+      <c r="Y237" s="14" t="s">
+        <v>749</v>
+      </c>
       <c r="Z237" s="6"/>
       <c r="AA237" s="17"/>
       <c r="AB237" s="6"/>
       <c r="AC237" s="6"/>
       <c r="AD237" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE237" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="AE237" s="8" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AF237" s="6"/>
       <c r="AG237" s="6"/>
       <c r="AH237" s="6"/>
       <c r="AI237" s="6"/>
       <c r="AJ237" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK237" s="6" t="n">
+        <v>221</v>
+      </c>
+      <c r="AL237" s="6"/>
+      <c r="AM237" s="6" t="n">
         <v>220</v>
-      </c>
-      <c r="AL237" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="AM237" s="23" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>39</v>
@@ -21827,16 +21842,16 @@
         <v>490</v>
       </c>
       <c r="E238" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G238" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="F238" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="G238" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="H238" s="6" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="6" t="n">
@@ -21846,7 +21861,7 @@
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
       <c r="N238" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="O238" s="9"/>
       <c r="P238" s="9"/>
@@ -21862,8 +21877,8 @@
       <c r="V238" s="6"/>
       <c r="W238" s="6"/>
       <c r="X238" s="6"/>
-      <c r="Y238" s="14" t="s">
-        <v>755</v>
+      <c r="Y238" s="6" t="s">
+        <v>752</v>
       </c>
       <c r="Z238" s="6"/>
       <c r="AA238" s="17"/>
@@ -21883,7 +21898,7 @@
         <v>3</v>
       </c>
       <c r="AK238" s="6" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL238" s="6"/>
       <c r="AM238" s="6" t="n">
@@ -21892,7 +21907,7 @@
     </row>
     <row r="239" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>39</v>
@@ -21904,16 +21919,16 @@
         <v>490</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6" t="n">
@@ -21922,8 +21937,8 @@
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
-      <c r="N239" s="6" t="s">
-        <v>758</v>
+      <c r="N239" s="14" t="s">
+        <v>755</v>
       </c>
       <c r="O239" s="9"/>
       <c r="P239" s="9"/>
@@ -21940,7 +21955,7 @@
       <c r="W239" s="6"/>
       <c r="X239" s="6"/>
       <c r="Y239" s="6" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="Z239" s="6"/>
       <c r="AA239" s="17"/>
@@ -21960,7 +21975,7 @@
         <v>3</v>
       </c>
       <c r="AK239" s="6" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL239" s="6"/>
       <c r="AM239" s="6" t="n">
@@ -21969,7 +21984,7 @@
     </row>
     <row r="240" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>39</v>
@@ -21978,75 +21993,63 @@
         <v>40</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="F240" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E240" s="23" t="s">
+        <v>757</v>
+      </c>
+      <c r="F240" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="G240" s="23" t="s">
         <v>759</v>
       </c>
-      <c r="G240" s="6" t="s">
+      <c r="H240" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="H240" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="I240" s="6"/>
-      <c r="J240" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I240" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
-      <c r="N240" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="O240" s="9"/>
-      <c r="P240" s="9"/>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
-      <c r="R240" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="R240" s="6"/>
       <c r="S240" s="6" t="s">
-        <v>700</v>
+        <v>762</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
       <c r="V240" s="6"/>
       <c r="W240" s="6"/>
       <c r="X240" s="6"/>
-      <c r="Y240" s="6" t="s">
-        <v>761</v>
-      </c>
+      <c r="Y240" s="6"/>
       <c r="Z240" s="6"/>
-      <c r="AA240" s="17"/>
+      <c r="AA240" s="6"/>
       <c r="AB240" s="6"/>
       <c r="AC240" s="6"/>
-      <c r="AD240" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE240" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="AD240" s="6"/>
+      <c r="AE240" s="8"/>
       <c r="AF240" s="6"/>
       <c r="AG240" s="6"/>
       <c r="AH240" s="6"/>
       <c r="AI240" s="6"/>
-      <c r="AJ240" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AJ240" s="6"/>
       <c r="AK240" s="6" t="n">
-        <v>223</v>
-      </c>
-      <c r="AL240" s="6"/>
-      <c r="AM240" s="6" t="n">
-        <v>220</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="AL240" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="AM240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>39</v>
@@ -22055,22 +22058,22 @@
         <v>40</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="E241" s="23" t="s">
-        <v>763</v>
-      </c>
-      <c r="F241" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="E241" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="G241" s="23" t="s">
+      <c r="F241" s="6" t="s">
         <v>765</v>
       </c>
+      <c r="G241" s="20" t="s">
+        <v>766</v>
+      </c>
       <c r="H241" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
@@ -22082,7 +22085,7 @@
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -22102,16 +22105,16 @@
       <c r="AI241" s="6"/>
       <c r="AJ241" s="6"/>
       <c r="AK241" s="6" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL241" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AM241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>39</v>
@@ -22120,34 +22123,36 @@
         <v>40</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="E242" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E242" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="F242" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="G242" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="F242" s="6" t="s">
+      <c r="H242" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="G242" s="20" t="s">
+      <c r="I242" s="6" t="s">
         <v>772</v>
-      </c>
-      <c r="H242" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="I242" s="6" t="s">
-        <v>767</v>
       </c>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
-      <c r="N242" s="6"/>
+      <c r="N242" s="11" t="s">
+        <v>773</v>
+      </c>
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -22167,16 +22172,16 @@
       <c r="AI242" s="6"/>
       <c r="AJ242" s="6"/>
       <c r="AK242" s="6" t="n">
-        <v>225</v>
-      </c>
-      <c r="AL242" s="11" t="s">
-        <v>773</v>
+        <v>226</v>
+      </c>
+      <c r="AL242" s="6" t="n">
+        <v>220</v>
       </c>
       <c r="AM242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>39</v>
@@ -22185,7 +22190,7 @@
         <v>40</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E243" s="23" t="s">
         <v>774</v>
@@ -22206,15 +22211,13 @@
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
-      <c r="N243" s="11" t="s">
-        <v>779</v>
-      </c>
+      <c r="N243" s="6"/>
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -22234,16 +22237,16 @@
       <c r="AI243" s="6"/>
       <c r="AJ243" s="6"/>
       <c r="AK243" s="6" t="n">
-        <v>226</v>
-      </c>
-      <c r="AL243" s="6" t="n">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="AL243" s="11" t="s">
+        <v>779</v>
       </c>
       <c r="AM243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>39</v>
@@ -22252,7 +22255,7 @@
         <v>40</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E244" s="23" t="s">
         <v>780</v>
@@ -22267,7 +22270,7 @@
         <v>783</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
@@ -22279,7 +22282,7 @@
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
@@ -22299,16 +22302,16 @@
       <c r="AI244" s="6"/>
       <c r="AJ244" s="6"/>
       <c r="AK244" s="6" t="n">
-        <v>228</v>
-      </c>
-      <c r="AL244" s="11" t="s">
-        <v>785</v>
+        <v>229</v>
+      </c>
+      <c r="AL244" s="6" t="n">
+        <v>218</v>
       </c>
       <c r="AM244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>39</v>
@@ -22317,34 +22320,36 @@
         <v>40</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E245" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="F245" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="G245" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="F245" s="23" t="s">
+      <c r="H245" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="G245" s="23" t="s">
-        <v>788</v>
-      </c>
-      <c r="H245" s="6" t="s">
-        <v>789</v>
-      </c>
       <c r="I245" s="6" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
-      <c r="N245" s="6"/>
+      <c r="N245" s="6" t="s">
+        <v>788</v>
+      </c>
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
       <c r="S245" s="6" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
@@ -22364,16 +22369,14 @@
       <c r="AI245" s="6"/>
       <c r="AJ245" s="6"/>
       <c r="AK245" s="6" t="n">
-        <v>229</v>
-      </c>
-      <c r="AL245" s="6" t="n">
-        <v>218</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="AL245" s="6"/>
       <c r="AM245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>39</v>
@@ -22382,7 +22385,7 @@
         <v>40</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E246" s="23" t="s">
         <v>790</v>
@@ -22397,7 +22400,7 @@
         <v>793</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
@@ -22411,7 +22414,7 @@
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
       <c r="S246" s="6" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
@@ -22431,14 +22434,14 @@
       <c r="AI246" s="6"/>
       <c r="AJ246" s="6"/>
       <c r="AK246" s="6" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL246" s="6"/>
       <c r="AM246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>39</v>
@@ -22447,36 +22450,38 @@
         <v>40</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E247" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="F247" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="F247" s="23" t="s">
+      <c r="G247" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="G247" s="23" t="s">
-        <v>798</v>
-      </c>
       <c r="H247" s="6" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
-      <c r="M247" s="6"/>
-      <c r="N247" s="6" t="s">
-        <v>800</v>
+      <c r="M247" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="N247" s="11" t="s">
+        <v>799</v>
       </c>
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
       <c r="S247" s="6" t="s">
-        <v>795</v>
+        <v>762</v>
       </c>
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
@@ -22496,14 +22501,16 @@
       <c r="AI247" s="6"/>
       <c r="AJ247" s="6"/>
       <c r="AK247" s="6" t="n">
-        <v>231</v>
-      </c>
-      <c r="AL247" s="6"/>
+        <v>233</v>
+      </c>
+      <c r="AL247" s="6" t="n">
+        <v>131</v>
+      </c>
       <c r="AM247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>39</v>
@@ -22512,38 +22519,38 @@
         <v>40</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E248" s="23" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F248" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G248" s="23" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="6" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="N248" s="11" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
       <c r="S248" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
@@ -22563,16 +22570,16 @@
       <c r="AI248" s="6"/>
       <c r="AJ248" s="6"/>
       <c r="AK248" s="6" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL248" s="6" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AM248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>39</v>
@@ -22581,38 +22588,38 @@
         <v>40</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E249" s="23" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F249" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G249" s="23" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="6" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="N249" s="11" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
       <c r="S249" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
@@ -22632,16 +22639,16 @@
       <c r="AI249" s="6"/>
       <c r="AJ249" s="6"/>
       <c r="AK249" s="6" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL249" s="6" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AM249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>39</v>
@@ -22650,38 +22657,38 @@
         <v>40</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E250" s="23" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F250" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G250" s="23" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="N250" s="11" t="s">
-        <v>805</v>
+        <v>798</v>
+      </c>
+      <c r="N250" s="27" t="s">
+        <v>800</v>
       </c>
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
       <c r="R250" s="6"/>
       <c r="S250" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
@@ -22701,16 +22708,16 @@
       <c r="AI250" s="6"/>
       <c r="AJ250" s="6"/>
       <c r="AK250" s="6" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL250" s="6" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AM250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>39</v>
@@ -22719,38 +22726,38 @@
         <v>40</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E251" s="23" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F251" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G251" s="23" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
       <c r="M251" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="N251" s="26" t="s">
-        <v>806</v>
+        <v>798</v>
+      </c>
+      <c r="N251" s="27" t="s">
+        <v>801</v>
       </c>
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
       <c r="R251" s="6"/>
       <c r="S251" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
@@ -22770,16 +22777,14 @@
       <c r="AI251" s="6"/>
       <c r="AJ251" s="6"/>
       <c r="AK251" s="6" t="n">
-        <v>236</v>
-      </c>
-      <c r="AL251" s="6" t="n">
-        <v>155</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="AL251" s="28"/>
       <c r="AM251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>39</v>
@@ -22788,38 +22793,38 @@
         <v>40</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E252" s="23" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F252" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G252" s="23" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="N252" s="26" t="s">
-        <v>807</v>
+        <v>798</v>
+      </c>
+      <c r="N252" s="11" t="s">
+        <v>802</v>
       </c>
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
       <c r="S252" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
@@ -22839,14 +22844,16 @@
       <c r="AI252" s="6"/>
       <c r="AJ252" s="6"/>
       <c r="AK252" s="6" t="n">
-        <v>237</v>
-      </c>
-      <c r="AL252" s="27"/>
+        <v>238</v>
+      </c>
+      <c r="AL252" s="11" t="s">
+        <v>803</v>
+      </c>
       <c r="AM252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>39</v>
@@ -22855,38 +22862,38 @@
         <v>40</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E253" s="23" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G253" s="23" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
       <c r="M253" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="N253" s="11" t="s">
         <v>804</v>
-      </c>
-      <c r="N253" s="11" t="s">
-        <v>808</v>
       </c>
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
       <c r="S253" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>
@@ -22906,84 +22913,16 @@
       <c r="AI253" s="6"/>
       <c r="AJ253" s="6"/>
       <c r="AK253" s="6" t="n">
-        <v>238</v>
-      </c>
-      <c r="AL253" s="11" t="s">
-        <v>809</v>
+        <v>239</v>
+      </c>
+      <c r="AL253" s="29" t="n">
+        <v>178</v>
       </c>
       <c r="AM253" s="6"/>
     </row>
-    <row r="254" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="6" t="n">
-        <v>239</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="E254" s="23" t="s">
-        <v>801</v>
-      </c>
-      <c r="F254" s="23" t="s">
-        <v>802</v>
-      </c>
-      <c r="G254" s="23" t="s">
-        <v>803</v>
-      </c>
-      <c r="H254" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="I254" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="J254" s="6"/>
-      <c r="K254" s="6"/>
-      <c r="L254" s="6"/>
-      <c r="M254" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="N254" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="O254" s="6"/>
-      <c r="P254" s="6"/>
-      <c r="Q254" s="6"/>
-      <c r="R254" s="6"/>
-      <c r="S254" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="T254" s="6"/>
-      <c r="U254" s="6"/>
-      <c r="V254" s="6"/>
-      <c r="W254" s="6"/>
-      <c r="X254" s="6"/>
-      <c r="Y254" s="6"/>
-      <c r="Z254" s="6"/>
-      <c r="AA254" s="6"/>
-      <c r="AB254" s="6"/>
-      <c r="AC254" s="6"/>
-      <c r="AD254" s="6"/>
-      <c r="AE254" s="8"/>
-      <c r="AF254" s="6"/>
-      <c r="AG254" s="6"/>
-      <c r="AH254" s="6"/>
-      <c r="AI254" s="6"/>
-      <c r="AJ254" s="6"/>
-      <c r="AK254" s="6" t="n">
-        <v>239</v>
-      </c>
-      <c r="AL254" s="28" t="n">
-        <v>178</v>
-      </c>
-      <c r="AM254" s="6"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AM254"/>
+  <autoFilter ref="A1:AM253"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -12,12 +12,6 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AI$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AI$253</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="804">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2327,7 +2321,7 @@
     <t xml:space="preserve">NUM_SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Regular checkouts, 1/3 of the Store, Food and beverage prep area, Bakery</t>
+    <t xml:space="preserve">Regular checkouts, 1/3 of the Store, Food and beverage prep area, Bakery, Entrance of SSD section</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
@@ -2349,28 +2343,6 @@
   </si>
   <si>
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">211
-212
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">213
-216</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -2422,10 +2394,10 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Barnd: Fuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze</t>
+    <t xml:space="preserve">Barnd: Fuzetea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzetea</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
@@ -2693,7 +2665,7 @@
     <numFmt numFmtId="172" formatCode="#,##0"/>
     <numFmt numFmtId="173" formatCode="0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2737,25 +2709,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2778,6 +2738,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFCC9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -2835,8 +2801,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2923,16 +2889,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2943,11 +2913,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3011,7 +2977,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -3032,58 +2998,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM65536"/>
+  <dimension ref="A1:AM253"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.0890688259109"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8259109311741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.7894736842105"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="77.1983805668016"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>240</v>
       </c>
@@ -3263,7 +3230,7 @@
       </c>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>241</v>
       </c>
@@ -3324,7 +3291,7 @@
       </c>
       <c r="AM3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>242</v>
       </c>
@@ -3387,7 +3354,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>243</v>
       </c>
@@ -3450,7 +3417,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>244</v>
       </c>
@@ -3511,7 +3478,7 @@
       </c>
       <c r="AM6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>245</v>
       </c>
@@ -3574,7 +3541,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>246</v>
       </c>
@@ -3637,7 +3604,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>247</v>
       </c>
@@ -3698,7 +3665,7 @@
       </c>
       <c r="AM9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>248</v>
       </c>
@@ -3761,7 +3728,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>249</v>
       </c>
@@ -3824,7 +3791,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>250</v>
       </c>
@@ -3887,7 +3854,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>185</v>
       </c>
@@ -3950,7 +3917,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>186</v>
       </c>
@@ -4013,7 +3980,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>187</v>
       </c>
@@ -4076,7 +4043,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>188</v>
       </c>
@@ -4137,7 +4104,7 @@
       </c>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>242</v>
       </c>
@@ -4200,7 +4167,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>1</v>
       </c>
@@ -4267,7 +4234,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>2</v>
       </c>
@@ -4349,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>3</v>
       </c>
@@ -4431,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>4</v>
       </c>
@@ -4513,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>5</v>
       </c>
@@ -4595,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>6</v>
       </c>
@@ -4677,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>7</v>
       </c>
@@ -4759,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>8</v>
       </c>
@@ -4841,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>9</v>
       </c>
@@ -4923,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>10</v>
       </c>
@@ -5005,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>11</v>
       </c>
@@ -5087,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>12</v>
       </c>
@@ -5169,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>13</v>
       </c>
@@ -5251,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>14</v>
       </c>
@@ -5333,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>15</v>
       </c>
@@ -5415,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>16</v>
       </c>
@@ -5497,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>17</v>
       </c>
@@ -5579,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>18</v>
       </c>
@@ -5661,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>19</v>
       </c>
@@ -5743,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>20</v>
       </c>
@@ -5825,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>21</v>
       </c>
@@ -5907,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>22</v>
       </c>
@@ -5989,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>23</v>
       </c>
@@ -6071,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>24</v>
       </c>
@@ -6153,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>25</v>
       </c>
@@ -6235,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>26</v>
       </c>
@@ -6317,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>27</v>
       </c>
@@ -6399,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>28</v>
       </c>
@@ -6481,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>29</v>
       </c>
@@ -6563,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>30</v>
       </c>
@@ -6645,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>31</v>
       </c>
@@ -6727,7 +6694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>32</v>
       </c>
@@ -6809,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>33</v>
       </c>
@@ -6891,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>34</v>
       </c>
@@ -6973,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>35</v>
       </c>
@@ -7055,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>36</v>
       </c>
@@ -7137,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>37</v>
       </c>
@@ -7219,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>38</v>
       </c>
@@ -7301,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>39</v>
       </c>
@@ -7383,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>40</v>
       </c>
@@ -7465,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>41</v>
       </c>
@@ -7532,7 +7499,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>42</v>
       </c>
@@ -7614,7 +7581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>43</v>
       </c>
@@ -7696,7 +7663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>44</v>
       </c>
@@ -7778,7 +7745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>45</v>
       </c>
@@ -7860,7 +7827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>46</v>
       </c>
@@ -7942,7 +7909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>47</v>
       </c>
@@ -8024,7 +7991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>48</v>
       </c>
@@ -8106,7 +8073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>49</v>
       </c>
@@ -8188,7 +8155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>50</v>
       </c>
@@ -8270,7 +8237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>51</v>
       </c>
@@ -8352,7 +8319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>52</v>
       </c>
@@ -8419,7 +8386,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>53</v>
       </c>
@@ -8501,7 +8468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>54</v>
       </c>
@@ -8583,7 +8550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>55</v>
       </c>
@@ -8665,7 +8632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>56</v>
       </c>
@@ -8747,7 +8714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>57</v>
       </c>
@@ -8829,7 +8796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>58</v>
       </c>
@@ -8911,7 +8878,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>59</v>
       </c>
@@ -8993,7 +8960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>60</v>
       </c>
@@ -9074,7 +9041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>61</v>
       </c>
@@ -9141,7 +9108,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>62</v>
       </c>
@@ -9223,7 +9190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>63</v>
       </c>
@@ -9305,7 +9272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>64</v>
       </c>
@@ -9387,7 +9354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>65</v>
       </c>
@@ -9469,7 +9436,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>66</v>
       </c>
@@ -9551,7 +9518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>67</v>
       </c>
@@ -9633,7 +9600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>68</v>
       </c>
@@ -9715,7 +9682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>69</v>
       </c>
@@ -9797,7 +9764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>70</v>
       </c>
@@ -9879,7 +9846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>71</v>
       </c>
@@ -9961,7 +9928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>72</v>
       </c>
@@ -10028,7 +9995,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>73</v>
       </c>
@@ -10110,7 +10077,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>74</v>
       </c>
@@ -10192,7 +10159,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>75</v>
       </c>
@@ -10274,7 +10241,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>76</v>
       </c>
@@ -10356,7 +10323,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>77</v>
       </c>
@@ -10438,7 +10405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>78</v>
       </c>
@@ -10520,7 +10487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>79</v>
       </c>
@@ -10602,7 +10569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>80</v>
       </c>
@@ -10684,7 +10651,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>81</v>
       </c>
@@ -10766,7 +10733,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>82</v>
       </c>
@@ -10848,7 +10815,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>83</v>
       </c>
@@ -10930,7 +10897,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>84</v>
       </c>
@@ -11012,7 +10979,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>85</v>
       </c>
@@ -11094,7 +11061,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>86</v>
       </c>
@@ -11176,7 +11143,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>87</v>
       </c>
@@ -11258,7 +11225,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>88</v>
       </c>
@@ -11340,7 +11307,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>89</v>
       </c>
@@ -11422,7 +11389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>90</v>
       </c>
@@ -11504,7 +11471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>91</v>
       </c>
@@ -11586,7 +11553,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>92</v>
       </c>
@@ -11668,7 +11635,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>93</v>
       </c>
@@ -11750,7 +11717,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>94</v>
       </c>
@@ -11832,7 +11799,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>95</v>
       </c>
@@ -11914,7 +11881,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>96</v>
       </c>
@@ -11996,7 +11963,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>97</v>
       </c>
@@ -12078,7 +12045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>98</v>
       </c>
@@ -12160,7 +12127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>99</v>
       </c>
@@ -12242,7 +12209,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>100</v>
       </c>
@@ -12324,7 +12291,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>101</v>
       </c>
@@ -12406,7 +12373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>102</v>
       </c>
@@ -12488,7 +12455,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>103</v>
       </c>
@@ -12570,7 +12537,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>104</v>
       </c>
@@ -12652,7 +12619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>105</v>
       </c>
@@ -12734,7 +12701,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>106</v>
       </c>
@@ -12816,7 +12783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>107</v>
       </c>
@@ -12898,7 +12865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>108</v>
       </c>
@@ -12980,7 +12947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>109</v>
       </c>
@@ -13062,7 +13029,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>110</v>
       </c>
@@ -13144,7 +13111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>111</v>
       </c>
@@ -13226,7 +13193,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>112</v>
       </c>
@@ -13308,7 +13275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>113</v>
       </c>
@@ -13390,7 +13357,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>114</v>
       </c>
@@ -13472,7 +13439,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>115</v>
       </c>
@@ -13554,7 +13521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>116</v>
       </c>
@@ -13636,7 +13603,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>117</v>
       </c>
@@ -13718,7 +13685,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>118</v>
       </c>
@@ -13800,7 +13767,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>119</v>
       </c>
@@ -13882,7 +13849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>120</v>
       </c>
@@ -13964,7 +13931,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>121</v>
       </c>
@@ -14046,7 +14013,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>122</v>
       </c>
@@ -14128,7 +14095,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>123</v>
       </c>
@@ -14210,7 +14177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>124</v>
       </c>
@@ -14292,7 +14259,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>125</v>
       </c>
@@ -14374,7 +14341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>126</v>
       </c>
@@ -14456,7 +14423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>127</v>
       </c>
@@ -14538,7 +14505,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>128</v>
       </c>
@@ -14620,7 +14587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>129</v>
       </c>
@@ -14702,7 +14669,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>130</v>
       </c>
@@ -14784,7 +14751,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>131</v>
       </c>
@@ -14861,7 +14828,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>132</v>
       </c>
@@ -14942,7 +14909,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>133</v>
       </c>
@@ -15019,7 +14986,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>134</v>
       </c>
@@ -15100,7 +15067,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>135</v>
       </c>
@@ -15179,7 +15146,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>136</v>
       </c>
@@ -15258,7 +15225,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>137</v>
       </c>
@@ -15337,7 +15304,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>138</v>
       </c>
@@ -15416,7 +15383,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>139</v>
       </c>
@@ -15495,7 +15462,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>140</v>
       </c>
@@ -15572,7 +15539,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>141</v>
       </c>
@@ -15653,7 +15620,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>142</v>
       </c>
@@ -15730,7 +15697,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>143</v>
       </c>
@@ -15805,7 +15772,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>144</v>
       </c>
@@ -15884,7 +15851,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>145</v>
       </c>
@@ -15963,7 +15930,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>146</v>
       </c>
@@ -16044,7 +16011,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>147</v>
       </c>
@@ -16123,7 +16090,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>148</v>
       </c>
@@ -16202,7 +16169,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>149</v>
       </c>
@@ -16281,7 +16248,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>150</v>
       </c>
@@ -16360,7 +16327,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>151</v>
       </c>
@@ -16437,7 +16404,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>152</v>
       </c>
@@ -16518,7 +16485,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>153</v>
       </c>
@@ -16595,7 +16562,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
         <v>154</v>
       </c>
@@ -16676,7 +16643,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
         <v>155</v>
       </c>
@@ -16751,7 +16718,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="n">
         <v>156</v>
       </c>
@@ -16832,7 +16799,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="n">
         <v>157</v>
       </c>
@@ -16907,7 +16874,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="n">
         <v>158</v>
       </c>
@@ -16980,7 +16947,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="n">
         <v>159</v>
       </c>
@@ -17057,7 +17024,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="n">
         <v>160</v>
       </c>
@@ -17134,7 +17101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="n">
         <v>161</v>
       </c>
@@ -17211,7 +17178,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="n">
         <v>162</v>
       </c>
@@ -17288,7 +17255,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="n">
         <v>163</v>
       </c>
@@ -17369,7 +17336,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="n">
         <v>164</v>
       </c>
@@ -17446,7 +17413,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="n">
         <v>165</v>
       </c>
@@ -17521,7 +17488,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="n">
         <v>166</v>
       </c>
@@ -17602,7 +17569,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="n">
         <v>167</v>
       </c>
@@ -17679,7 +17646,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>168</v>
       </c>
@@ -17760,7 +17727,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="n">
         <v>169</v>
       </c>
@@ -17837,7 +17804,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="n">
         <v>170</v>
       </c>
@@ -17918,7 +17885,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="n">
         <v>171</v>
       </c>
@@ -17993,7 +17960,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="n">
         <v>172</v>
       </c>
@@ -18072,7 +18039,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="n">
         <v>173</v>
       </c>
@@ -18147,7 +18114,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="n">
         <v>174</v>
       </c>
@@ -18220,7 +18187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="n">
         <v>175</v>
       </c>
@@ -18297,7 +18264,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="n">
         <v>176</v>
       </c>
@@ -18374,7 +18341,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="n">
         <v>177</v>
       </c>
@@ -18451,7 +18418,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="n">
         <v>178</v>
       </c>
@@ -18528,7 +18495,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="n">
         <v>179</v>
       </c>
@@ -18607,7 +18574,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="n">
         <v>180</v>
       </c>
@@ -18684,7 +18651,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="n">
         <v>181</v>
       </c>
@@ -18763,7 +18730,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="n">
         <v>182</v>
       </c>
@@ -18842,7 +18809,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="n">
         <v>183</v>
       </c>
@@ -18921,7 +18888,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="n">
         <v>184</v>
       </c>
@@ -19000,7 +18967,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="n">
         <v>185</v>
       </c>
@@ -19079,7 +19046,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="n">
         <v>186</v>
       </c>
@@ -19158,7 +19125,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="n">
         <v>187</v>
       </c>
@@ -19237,7 +19204,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="n">
         <v>188</v>
       </c>
@@ -19316,7 +19283,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="n">
         <v>189</v>
       </c>
@@ -19395,7 +19362,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="n">
         <v>190</v>
       </c>
@@ -19472,7 +19439,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="n">
         <v>191</v>
       </c>
@@ -19551,7 +19518,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="n">
         <v>192</v>
       </c>
@@ -19630,7 +19597,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="n">
         <v>193</v>
       </c>
@@ -19709,7 +19676,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="n">
         <v>194</v>
       </c>
@@ -19788,7 +19755,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="n">
         <v>195</v>
       </c>
@@ -19867,7 +19834,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="n">
         <v>196</v>
       </c>
@@ -19946,7 +19913,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="n">
         <v>197</v>
       </c>
@@ -20023,7 +19990,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="n">
         <v>198</v>
       </c>
@@ -20102,7 +20069,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="n">
         <v>199</v>
       </c>
@@ -20181,7 +20148,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="n">
         <v>200</v>
       </c>
@@ -20258,7 +20225,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="n">
         <v>201</v>
       </c>
@@ -20337,7 +20304,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="n">
         <v>202</v>
       </c>
@@ -20416,7 +20383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="n">
         <v>203</v>
       </c>
@@ -20495,7 +20462,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="n">
         <v>204</v>
       </c>
@@ -20570,7 +20537,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="n">
         <v>205</v>
       </c>
@@ -20647,7 +20614,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="n">
         <v>206</v>
       </c>
@@ -20722,7 +20689,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="n">
         <v>207</v>
       </c>
@@ -20764,7 +20731,7 @@
       </c>
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
-      <c r="V224" s="6" t="s">
+      <c r="V224" s="23" t="s">
         <v>701</v>
       </c>
       <c r="W224" s="6"/>
@@ -20797,11 +20764,11 @@
         <v>207</v>
       </c>
       <c r="AL224" s="6"/>
-      <c r="AM224" s="23" t="n">
+      <c r="AM224" s="24" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="n">
         <v>208</v>
       </c>
@@ -20823,7 +20790,7 @@
       <c r="G225" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="H225" s="24" t="s">
+      <c r="H225" s="25" t="s">
         <v>705</v>
       </c>
       <c r="I225" s="6"/>
@@ -20882,11 +20849,11 @@
         <v>208</v>
       </c>
       <c r="AL225" s="6"/>
-      <c r="AM225" s="23" t="n">
+      <c r="AM225" s="24" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="n">
         <v>209</v>
       </c>
@@ -20960,14 +20927,12 @@
       <c r="AK226" s="6" t="n">
         <v>209</v>
       </c>
-      <c r="AL226" s="25" t="s">
-        <v>709</v>
-      </c>
-      <c r="AM226" s="23" t="n">
+      <c r="AL226" s="11"/>
+      <c r="AM226" s="24" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="n">
         <v>211</v>
       </c>
@@ -20982,10 +20947,10 @@
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="G227" s="14" t="s">
         <v>710</v>
-      </c>
-      <c r="G227" s="14" t="s">
-        <v>711</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>619</v>
@@ -20997,21 +20962,21 @@
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
       <c r="M227" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="N227" s="9" t="s">
         <v>712</v>
-      </c>
-      <c r="N227" s="9" t="s">
-        <v>713</v>
       </c>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
       <c r="Q227" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S227" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
@@ -21021,7 +20986,7 @@
         <v>688</v>
       </c>
       <c r="Y227" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
@@ -21050,7 +21015,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="n">
         <v>212</v>
       </c>
@@ -21065,10 +21030,10 @@
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="G228" s="14" t="s">
         <v>716</v>
-      </c>
-      <c r="G228" s="14" t="s">
-        <v>717</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>619</v>
@@ -21080,21 +21045,21 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="N228" s="9" t="s">
         <v>712</v>
-      </c>
-      <c r="N228" s="9" t="s">
-        <v>713</v>
       </c>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
       <c r="Q228" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S228" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
@@ -21104,7 +21069,7 @@
         <v>688</v>
       </c>
       <c r="Y228" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
@@ -21133,7 +21098,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="n">
         <v>213</v>
       </c>
@@ -21148,10 +21113,10 @@
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="G229" s="14" t="s">
         <v>719</v>
-      </c>
-      <c r="G229" s="14" t="s">
-        <v>720</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>517</v>
@@ -21202,13 +21167,13 @@
         <v>213</v>
       </c>
       <c r="AL229" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AM229" s="6" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="n">
         <v>214</v>
       </c>
@@ -21223,10 +21188,10 @@
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="G230" s="14" t="s">
         <v>722</v>
-      </c>
-      <c r="G230" s="14" t="s">
-        <v>723</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>91</v>
@@ -21238,21 +21203,21 @@
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
       <c r="M230" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="N230" s="9" t="s">
         <v>712</v>
-      </c>
-      <c r="N230" s="9" t="s">
-        <v>713</v>
       </c>
       <c r="O230" s="9"/>
       <c r="P230" s="9"/>
       <c r="Q230" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="R230" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S230" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
@@ -21291,7 +21256,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="n">
         <v>215</v>
       </c>
@@ -21306,10 +21271,10 @@
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="G231" s="14" t="s">
         <v>724</v>
-      </c>
-      <c r="G231" s="14" t="s">
-        <v>725</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>91</v>
@@ -21320,22 +21285,22 @@
       </c>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
-      <c r="M231" s="6" t="s">
+      <c r="M231" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="N231" s="26" t="s">
         <v>726</v>
-      </c>
-      <c r="N231" s="9" t="s">
-        <v>727</v>
       </c>
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
-      <c r="Q231" s="9" t="s">
-        <v>727</v>
+      <c r="Q231" s="26" t="s">
+        <v>726</v>
       </c>
       <c r="R231" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S231" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
@@ -21374,7 +21339,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="n">
         <v>216</v>
       </c>
@@ -21389,13 +21354,13 @@
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="G232" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="G232" s="14" t="s">
+      <c r="H232" s="25" t="s">
         <v>729</v>
-      </c>
-      <c r="H232" s="24" t="s">
-        <v>730</v>
       </c>
       <c r="I232" s="6"/>
       <c r="J232" s="6" t="n">
@@ -21453,7 +21418,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="n">
         <v>217</v>
       </c>
@@ -21470,13 +21435,13 @@
         <v>495</v>
       </c>
       <c r="F233" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="G233" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="G233" s="6" t="s">
+      <c r="H233" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="H233" s="6" t="s">
-        <v>733</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
@@ -21526,11 +21491,11 @@
         <v>217</v>
       </c>
       <c r="AL233" s="6"/>
-      <c r="AM233" s="23" t="n">
+      <c r="AM233" s="24" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="n">
         <v>218</v>
       </c>
@@ -21543,14 +21508,14 @@
       <c r="D234" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E234" s="23" t="s">
+      <c r="E234" s="24" t="s">
         <v>495</v>
       </c>
       <c r="F234" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="G234" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="G234" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="H234" s="6" t="s">
         <v>686</v>
@@ -21575,7 +21540,7 @@
       <c r="V234" s="6"/>
       <c r="W234" s="6"/>
       <c r="X234" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
@@ -21599,13 +21564,13 @@
         <v>218</v>
       </c>
       <c r="AL234" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="AM234" s="26" t="n">
+        <v>735</v>
+      </c>
+      <c r="AM234" s="27" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="n">
         <v>219</v>
       </c>
@@ -21618,17 +21583,17 @@
       <c r="D235" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E235" s="23" t="s">
+      <c r="E235" s="24" t="s">
         <v>495</v>
       </c>
       <c r="F235" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G235" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="G235" s="6" t="s">
+      <c r="H235" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="H235" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6" t="n">
@@ -21658,7 +21623,7 @@
       <c r="V235" s="6"/>
       <c r="W235" s="6"/>
       <c r="X235" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
@@ -21666,13 +21631,13 @@
       <c r="AB235" s="6"/>
       <c r="AC235" s="6"/>
       <c r="AD235" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AE235" s="8"/>
       <c r="AF235" s="6"/>
       <c r="AG235" s="6"/>
       <c r="AH235" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AI235" s="6"/>
       <c r="AJ235" s="6" t="n">
@@ -21686,7 +21651,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="n">
         <v>220</v>
       </c>
@@ -21701,10 +21666,10 @@
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="G236" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>743</v>
       </c>
       <c r="H236" s="6" t="s">
         <v>86</v>
@@ -21745,13 +21710,13 @@
         <v>220</v>
       </c>
       <c r="AL236" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="AM236" s="23" t="n">
+        <v>743</v>
+      </c>
+      <c r="AM236" s="24" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="n">
         <v>221</v>
       </c>
@@ -21765,16 +21730,16 @@
         <v>490</v>
       </c>
       <c r="E237" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="F237" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="F237" s="6" t="s">
+      <c r="G237" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="G237" s="6" t="s">
+      <c r="H237" s="6" t="s">
         <v>747</v>
-      </c>
-      <c r="H237" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="6" t="n">
@@ -21784,7 +21749,7 @@
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
       <c r="N237" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O237" s="9"/>
       <c r="P237" s="9"/>
@@ -21801,7 +21766,7 @@
       <c r="W237" s="6"/>
       <c r="X237" s="6"/>
       <c r="Y237" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Z237" s="6"/>
       <c r="AA237" s="17"/>
@@ -21828,7 +21793,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="n">
         <v>222</v>
       </c>
@@ -21842,16 +21807,16 @@
         <v>490</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F238" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="G238" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="G238" s="6" t="s">
-        <v>751</v>
-      </c>
       <c r="H238" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="6" t="n">
@@ -21861,7 +21826,7 @@
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
       <c r="N238" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O238" s="9"/>
       <c r="P238" s="9"/>
@@ -21878,7 +21843,7 @@
       <c r="W238" s="6"/>
       <c r="X238" s="6"/>
       <c r="Y238" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Z238" s="6"/>
       <c r="AA238" s="17"/>
@@ -21905,7 +21870,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="n">
         <v>223</v>
       </c>
@@ -21919,16 +21884,16 @@
         <v>490</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F239" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G239" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="G239" s="6" t="s">
-        <v>754</v>
-      </c>
       <c r="H239" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6" t="n">
@@ -21938,7 +21903,7 @@
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
       <c r="N239" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O239" s="9"/>
       <c r="P239" s="9"/>
@@ -21955,7 +21920,7 @@
       <c r="W239" s="6"/>
       <c r="X239" s="6"/>
       <c r="Y239" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Z239" s="6"/>
       <c r="AA239" s="17"/>
@@ -21982,7 +21947,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="n">
         <v>224</v>
       </c>
@@ -21993,22 +21958,22 @@
         <v>40</v>
       </c>
       <c r="D240" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="E240" s="24" t="s">
         <v>756</v>
       </c>
-      <c r="E240" s="23" t="s">
+      <c r="F240" s="24" t="s">
         <v>757</v>
       </c>
-      <c r="F240" s="23" t="s">
+      <c r="G240" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="G240" s="23" t="s">
+      <c r="H240" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="H240" s="6" t="s">
+      <c r="I240" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="I240" s="6" t="s">
-        <v>761</v>
       </c>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
@@ -22020,7 +21985,7 @@
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
       <c r="S240" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -22043,11 +22008,11 @@
         <v>224</v>
       </c>
       <c r="AL240" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AM240" s="6"/>
     </row>
-    <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="n">
         <v>225</v>
       </c>
@@ -22058,22 +22023,22 @@
         <v>40</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E241" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F241" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="F241" s="6" t="s">
+      <c r="G241" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="G241" s="20" t="s">
-        <v>766</v>
-      </c>
       <c r="H241" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="I241" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="I241" s="6" t="s">
-        <v>761</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
@@ -22085,7 +22050,7 @@
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -22108,11 +22073,11 @@
         <v>225</v>
       </c>
       <c r="AL241" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AM241" s="6"/>
     </row>
-    <row r="242" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="n">
         <v>226</v>
       </c>
@@ -22123,36 +22088,36 @@
         <v>40</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E242" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E242" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F242" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="F242" s="23" t="s">
+      <c r="G242" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="G242" s="23" t="s">
+      <c r="H242" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="H242" s="6" t="s">
+      <c r="I242" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="I242" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
       <c r="N242" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -22179,7 +22144,7 @@
       </c>
       <c r="AM242" s="6"/>
     </row>
-    <row r="243" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="n">
         <v>228</v>
       </c>
@@ -22190,22 +22155,22 @@
         <v>40</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E243" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E243" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="F243" s="24" t="s">
         <v>774</v>
       </c>
-      <c r="F243" s="23" t="s">
+      <c r="G243" s="24" t="s">
         <v>775</v>
       </c>
-      <c r="G243" s="23" t="s">
+      <c r="H243" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="H243" s="6" t="s">
+      <c r="I243" s="6" t="s">
         <v>777</v>
-      </c>
-      <c r="I243" s="6" t="s">
-        <v>778</v>
       </c>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
@@ -22217,7 +22182,7 @@
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -22240,11 +22205,11 @@
         <v>228</v>
       </c>
       <c r="AL243" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AM243" s="6"/>
     </row>
-    <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="n">
         <v>229</v>
       </c>
@@ -22255,22 +22220,22 @@
         <v>40</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E244" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E244" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="F244" s="24" t="s">
         <v>780</v>
       </c>
-      <c r="F244" s="23" t="s">
+      <c r="G244" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="G244" s="23" t="s">
+      <c r="H244" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="H244" s="6" t="s">
-        <v>783</v>
-      </c>
       <c r="I244" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
@@ -22282,7 +22247,7 @@
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
@@ -22309,7 +22274,7 @@
       </c>
       <c r="AM244" s="6"/>
     </row>
-    <row r="245" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="n">
         <v>230</v>
       </c>
@@ -22320,36 +22285,36 @@
         <v>40</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E245" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E245" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="F245" s="24" t="s">
         <v>784</v>
       </c>
-      <c r="F245" s="23" t="s">
+      <c r="G245" s="24" t="s">
         <v>785</v>
       </c>
-      <c r="G245" s="23" t="s">
+      <c r="H245" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="H245" s="6" t="s">
-        <v>787</v>
-      </c>
       <c r="I245" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
       <c r="N245" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
       <c r="S245" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
@@ -22374,7 +22339,7 @@
       <c r="AL245" s="6"/>
       <c r="AM245" s="6"/>
     </row>
-    <row r="246" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="n">
         <v>231</v>
       </c>
@@ -22385,36 +22350,36 @@
         <v>40</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E246" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E246" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="F246" s="24" t="s">
         <v>790</v>
       </c>
-      <c r="F246" s="23" t="s">
+      <c r="G246" s="24" t="s">
         <v>791</v>
       </c>
-      <c r="G246" s="23" t="s">
+      <c r="H246" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="H246" s="6" t="s">
-        <v>793</v>
-      </c>
       <c r="I246" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
       <c r="N246" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
       <c r="S246" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
@@ -22439,7 +22404,7 @@
       <c r="AL246" s="6"/>
       <c r="AM246" s="6"/>
     </row>
-    <row r="247" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="n">
         <v>233</v>
       </c>
@@ -22450,38 +22415,38 @@
         <v>40</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E247" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E247" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F247" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="F247" s="23" t="s">
+      <c r="G247" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="G247" s="23" t="s">
-        <v>797</v>
-      </c>
       <c r="H247" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="I247" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="I247" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
       <c r="M247" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="N247" s="11" t="s">
         <v>798</v>
-      </c>
-      <c r="N247" s="11" t="s">
-        <v>799</v>
       </c>
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
       <c r="S247" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
@@ -22508,7 +22473,7 @@
       </c>
       <c r="AM247" s="6"/>
     </row>
-    <row r="248" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="n">
         <v>234</v>
       </c>
@@ -22519,38 +22484,38 @@
         <v>40</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E248" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E248" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F248" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="F248" s="23" t="s">
+      <c r="G248" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="G248" s="23" t="s">
-        <v>797</v>
-      </c>
       <c r="H248" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="I248" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="I248" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="N248" s="11" t="s">
         <v>798</v>
-      </c>
-      <c r="N248" s="11" t="s">
-        <v>799</v>
       </c>
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
       <c r="S248" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
@@ -22577,7 +22542,7 @@
       </c>
       <c r="AM248" s="6"/>
     </row>
-    <row r="249" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="n">
         <v>235</v>
       </c>
@@ -22588,38 +22553,38 @@
         <v>40</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E249" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E249" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F249" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="F249" s="23" t="s">
+      <c r="G249" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="G249" s="23" t="s">
-        <v>797</v>
-      </c>
       <c r="H249" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="I249" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="I249" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="N249" s="11" t="s">
         <v>798</v>
-      </c>
-      <c r="N249" s="11" t="s">
-        <v>799</v>
       </c>
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
       <c r="S249" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
@@ -22646,7 +22611,7 @@
       </c>
       <c r="AM249" s="6"/>
     </row>
-    <row r="250" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="n">
         <v>236</v>
       </c>
@@ -22657,38 +22622,38 @@
         <v>40</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E250" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E250" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F250" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="F250" s="23" t="s">
+      <c r="G250" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="G250" s="23" t="s">
-        <v>797</v>
-      </c>
       <c r="H250" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="I250" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="I250" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="N250" s="27" t="s">
-        <v>800</v>
+        <v>797</v>
+      </c>
+      <c r="N250" s="28" t="s">
+        <v>799</v>
       </c>
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
       <c r="R250" s="6"/>
       <c r="S250" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
@@ -22715,7 +22680,7 @@
       </c>
       <c r="AM250" s="6"/>
     </row>
-    <row r="251" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="n">
         <v>237</v>
       </c>
@@ -22726,38 +22691,38 @@
         <v>40</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E251" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E251" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F251" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="F251" s="23" t="s">
+      <c r="G251" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="G251" s="23" t="s">
-        <v>797</v>
-      </c>
       <c r="H251" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="I251" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="I251" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
       <c r="M251" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="N251" s="27" t="s">
-        <v>801</v>
+        <v>797</v>
+      </c>
+      <c r="N251" s="28" t="s">
+        <v>800</v>
       </c>
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
       <c r="R251" s="6"/>
       <c r="S251" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
@@ -22779,10 +22744,10 @@
       <c r="AK251" s="6" t="n">
         <v>237</v>
       </c>
-      <c r="AL251" s="28"/>
+      <c r="AL251" s="29"/>
       <c r="AM251" s="6"/>
     </row>
-    <row r="252" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="n">
         <v>238</v>
       </c>
@@ -22793,38 +22758,38 @@
         <v>40</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E252" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E252" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F252" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="F252" s="23" t="s">
+      <c r="G252" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="G252" s="23" t="s">
-        <v>797</v>
-      </c>
       <c r="H252" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="I252" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="I252" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="N252" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
       <c r="S252" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
@@ -22847,11 +22812,11 @@
         <v>238</v>
       </c>
       <c r="AL252" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AM252" s="6"/>
     </row>
-    <row r="253" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="n">
         <v>239</v>
       </c>
@@ -22862,38 +22827,38 @@
         <v>40</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E253" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E253" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F253" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="F253" s="23" t="s">
+      <c r="G253" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="G253" s="23" t="s">
-        <v>797</v>
-      </c>
       <c r="H253" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="I253" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="I253" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
       <c r="M253" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="N253" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
       <c r="S253" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>
@@ -22920,7 +22885,6 @@
       </c>
       <c r="AM253" s="6"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AM253"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="805">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2343,6 +2344,12 @@
   </si>
   <si>
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211
+212
+213
+216</t>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -3001,53 +3008,52 @@
   <dimension ref="A1:AM253"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="AL226" activeCellId="0" sqref="AL226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8259109311741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.7894736842105"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="77.1983805668016"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="77.8744939271255"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20927,7 +20933,9 @@
       <c r="AK226" s="6" t="n">
         <v>209</v>
       </c>
-      <c r="AL226" s="11"/>
+      <c r="AL226" s="11" t="s">
+        <v>709</v>
+      </c>
       <c r="AM226" s="24" t="n">
         <v>312</v>
       </c>
@@ -20947,10 +20955,10 @@
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G227" s="14" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>619</v>
@@ -20962,21 +20970,21 @@
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
       <c r="M227" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N227" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
       <c r="Q227" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S227" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
@@ -20986,7 +20994,7 @@
         <v>688</v>
       </c>
       <c r="Y227" s="6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
@@ -21030,10 +21038,10 @@
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="14" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>619</v>
@@ -21045,21 +21053,21 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
       <c r="Q228" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S228" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
@@ -21069,7 +21077,7 @@
         <v>688</v>
       </c>
       <c r="Y228" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
@@ -21113,10 +21121,10 @@
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="14" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G229" s="14" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H229" s="6" t="s">
         <v>517</v>
@@ -21167,7 +21175,7 @@
         <v>213</v>
       </c>
       <c r="AL229" s="11" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AM229" s="6" t="n">
         <v>209</v>
@@ -21188,10 +21196,10 @@
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="14" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G230" s="14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>91</v>
@@ -21203,21 +21211,21 @@
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
       <c r="M230" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N230" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="O230" s="9"/>
       <c r="P230" s="9"/>
       <c r="Q230" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R230" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S230" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
@@ -21271,10 +21279,10 @@
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G231" s="14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>91</v>
@@ -21286,21 +21294,21 @@
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N231" s="26" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
       <c r="Q231" s="26" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="R231" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S231" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
@@ -21354,13 +21362,13 @@
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G232" s="14" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H232" s="25" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="I232" s="6"/>
       <c r="J232" s="6" t="n">
@@ -21435,13 +21443,13 @@
         <v>495</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
@@ -21512,10 +21520,10 @@
         <v>495</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H234" s="6" t="s">
         <v>686</v>
@@ -21540,7 +21548,7 @@
       <c r="V234" s="6"/>
       <c r="W234" s="6"/>
       <c r="X234" s="22" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
@@ -21564,7 +21572,7 @@
         <v>218</v>
       </c>
       <c r="AL234" s="17" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AM234" s="27" t="n">
         <v>301</v>
@@ -21587,13 +21595,13 @@
         <v>495</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6" t="n">
@@ -21623,7 +21631,7 @@
       <c r="V235" s="6"/>
       <c r="W235" s="6"/>
       <c r="X235" s="22" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
@@ -21631,13 +21639,13 @@
       <c r="AB235" s="6"/>
       <c r="AC235" s="6"/>
       <c r="AD235" s="6" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AE235" s="8"/>
       <c r="AF235" s="6"/>
       <c r="AG235" s="6"/>
       <c r="AH235" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AI235" s="6"/>
       <c r="AJ235" s="6" t="n">
@@ -21666,10 +21674,10 @@
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H236" s="6" t="s">
         <v>86</v>
@@ -21710,7 +21718,7 @@
         <v>220</v>
       </c>
       <c r="AL236" s="11" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AM236" s="24" t="n">
         <v>400</v>
@@ -21730,16 +21738,16 @@
         <v>490</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="6" t="n">
@@ -21749,7 +21757,7 @@
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
       <c r="N237" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O237" s="9"/>
       <c r="P237" s="9"/>
@@ -21766,7 +21774,7 @@
       <c r="W237" s="6"/>
       <c r="X237" s="6"/>
       <c r="Y237" s="14" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Z237" s="6"/>
       <c r="AA237" s="17"/>
@@ -21807,16 +21815,16 @@
         <v>490</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="6" t="n">
@@ -21826,7 +21834,7 @@
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
       <c r="N238" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O238" s="9"/>
       <c r="P238" s="9"/>
@@ -21843,7 +21851,7 @@
       <c r="W238" s="6"/>
       <c r="X238" s="6"/>
       <c r="Y238" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Z238" s="6"/>
       <c r="AA238" s="17"/>
@@ -21884,16 +21892,16 @@
         <v>490</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6" t="n">
@@ -21903,7 +21911,7 @@
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
       <c r="N239" s="14" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="O239" s="9"/>
       <c r="P239" s="9"/>
@@ -21920,7 +21928,7 @@
       <c r="W239" s="6"/>
       <c r="X239" s="6"/>
       <c r="Y239" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Z239" s="6"/>
       <c r="AA239" s="17"/>
@@ -21958,22 +21966,22 @@
         <v>40</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E240" s="24" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F240" s="24" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G240" s="24" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
@@ -21985,7 +21993,7 @@
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
       <c r="S240" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -22008,7 +22016,7 @@
         <v>224</v>
       </c>
       <c r="AL240" s="11" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AM240" s="6"/>
     </row>
@@ -22023,22 +22031,22 @@
         <v>40</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G241" s="20" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
@@ -22050,7 +22058,7 @@
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -22073,7 +22081,7 @@
         <v>225</v>
       </c>
       <c r="AL241" s="11" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AM241" s="6"/>
     </row>
@@ -22088,36 +22096,36 @@
         <v>40</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E242" s="24" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F242" s="24" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G242" s="24" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
       <c r="N242" s="11" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -22155,22 +22163,22 @@
         <v>40</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E243" s="24" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F243" s="24" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G243" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
@@ -22182,7 +22190,7 @@
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -22205,7 +22213,7 @@
         <v>228</v>
       </c>
       <c r="AL243" s="11" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AM243" s="6"/>
     </row>
@@ -22220,22 +22228,22 @@
         <v>40</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E244" s="24" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F244" s="24" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G244" s="24" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
@@ -22247,7 +22255,7 @@
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
@@ -22285,36 +22293,36 @@
         <v>40</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E245" s="24" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F245" s="24" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G245" s="24" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
       <c r="N245" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
       <c r="S245" s="6" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
@@ -22350,36 +22358,36 @@
         <v>40</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E246" s="24" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F246" s="24" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G246" s="24" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
       <c r="N246" s="6" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
       <c r="S246" s="6" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
@@ -22415,38 +22423,38 @@
         <v>40</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E247" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G247" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
       <c r="M247" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N247" s="11" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
       <c r="S247" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
@@ -22484,38 +22492,38 @@
         <v>40</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E248" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F248" s="24" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G248" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N248" s="11" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
       <c r="S248" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
@@ -22553,38 +22561,38 @@
         <v>40</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E249" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F249" s="24" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G249" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N249" s="11" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
       <c r="S249" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
@@ -22622,38 +22630,38 @@
         <v>40</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E250" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F250" s="24" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G250" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N250" s="28" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
       <c r="R250" s="6"/>
       <c r="S250" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
@@ -22691,38 +22699,38 @@
         <v>40</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E251" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F251" s="24" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G251" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
       <c r="M251" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N251" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
       <c r="R251" s="6"/>
       <c r="S251" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
@@ -22758,38 +22766,38 @@
         <v>40</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E252" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F252" s="24" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G252" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N252" s="11" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
       <c r="S252" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
@@ -22812,7 +22820,7 @@
         <v>238</v>
       </c>
       <c r="AL252" s="11" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AM252" s="6"/>
     </row>
@@ -22827,38 +22835,38 @@
         <v>40</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E253" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F253" s="24" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G253" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
       <c r="M253" s="6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N253" s="11" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
       <c r="S253" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="805">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2731,8 +2731,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2743,14 +2743,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFCC9900"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -2809,119 +2809,119 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="173" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2958,7 +2958,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2979,7 +2979,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFCC9900"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -3008,55 +3008,55 @@
   <dimension ref="A1:AM253"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AL226" activeCellId="0" sqref="AL226"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.2712550607288"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="77.8744939271255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.4534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="78.5182186234818"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>240</v>
       </c>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>241</v>
       </c>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="AM3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>242</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>243</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>244</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="AM6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>245</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>246</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>247</v>
       </c>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="AM9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>248</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>249</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>250</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>185</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>186</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>187</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>188</v>
       </c>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>242</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>1</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>2</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>3</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>4</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>5</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>6</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>7</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>8</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>9</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>10</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>11</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>12</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>13</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>14</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>15</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>16</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>17</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>18</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>19</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>20</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>21</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>22</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>23</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>24</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>25</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>26</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>27</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>28</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>29</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>30</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>31</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>32</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>33</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>34</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>35</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>36</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>37</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>38</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>39</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>40</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>41</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>42</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>43</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>44</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>45</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>46</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>47</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>48</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>49</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>50</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>51</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>52</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>53</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>54</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>55</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>56</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>57</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>58</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>59</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>60</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>61</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>62</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>63</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>64</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>65</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>66</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>67</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>68</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>69</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>70</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>71</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>72</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>73</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>74</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>75</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>76</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>77</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>78</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>79</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>80</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>81</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>82</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>83</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>84</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>85</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>86</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>87</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>88</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>89</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>90</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>91</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>92</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>93</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>94</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>95</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>96</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>97</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>98</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>99</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>100</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>101</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>102</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>103</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>104</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>105</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>106</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>107</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>108</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>109</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>110</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>111</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>112</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>113</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>114</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>115</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>116</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>117</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>118</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>119</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>120</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>121</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>122</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>123</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>124</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>125</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>126</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>127</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>128</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>129</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>130</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>131</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>132</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>133</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>134</v>
       </c>
@@ -15024,8 +15024,8 @@
       <c r="M151" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N151" s="9" t="n">
-        <v>5449000000286</v>
+      <c r="N151" s="20" t="n">
+        <v>5449000000439</v>
       </c>
       <c r="O151" s="9" t="s">
         <v>479</v>
@@ -15073,7 +15073,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>135</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>136</v>
       </c>
@@ -15186,8 +15186,8 @@
       <c r="M153" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N153" s="9" t="n">
-        <v>5449000000286</v>
+      <c r="N153" s="20" t="n">
+        <v>5449000000439</v>
       </c>
       <c r="O153" s="9"/>
       <c r="P153" s="9"/>
@@ -15231,7 +15231,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>137</v>
       </c>
@@ -15265,8 +15265,8 @@
       <c r="M154" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N154" s="9" t="n">
-        <v>5449000004864</v>
+      <c r="N154" s="20" t="n">
+        <v>5449000012203</v>
       </c>
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
@@ -15310,7 +15310,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>138</v>
       </c>
@@ -15341,11 +15341,11 @@
       </c>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
-      <c r="M155" s="20" t="s">
+      <c r="M155" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="N155" s="9" t="n">
-        <v>5449000131843</v>
+      <c r="N155" s="20" t="n">
+        <v>5449000133335</v>
       </c>
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
@@ -15389,7 +15389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>139</v>
       </c>
@@ -15423,8 +15423,8 @@
       <c r="M156" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N156" s="9" t="n">
-        <v>5449000004840</v>
+      <c r="N156" s="20" t="n">
+        <v>5449000052926</v>
       </c>
       <c r="O156" s="9"/>
       <c r="P156" s="9"/>
@@ -15468,7 +15468,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>140</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>141</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>142</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>143</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>144</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>145</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>146</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>147</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>148</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>149</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>150</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>151</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>152</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>153</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
         <v>154</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
         <v>155</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="n">
         <v>156</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="n">
         <v>157</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="n">
         <v>158</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="n">
         <v>159</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="n">
         <v>160</v>
       </c>
@@ -17062,7 +17062,7 @@
       <c r="M177" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N177" s="21" t="s">
+      <c r="N177" s="22" t="s">
         <v>289</v>
       </c>
       <c r="O177" s="9"/>
@@ -17107,7 +17107,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="n">
         <v>161</v>
       </c>
@@ -17139,7 +17139,7 @@
       <c r="M178" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N178" s="21" t="s">
+      <c r="N178" s="22" t="s">
         <v>219</v>
       </c>
       <c r="O178" s="9"/>
@@ -17184,7 +17184,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="n">
         <v>162</v>
       </c>
@@ -17228,9 +17228,7 @@
       <c r="U179" s="6"/>
       <c r="V179" s="18"/>
       <c r="W179" s="6"/>
-      <c r="X179" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X179" s="23"/>
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
       <c r="AA179" s="6" t="n">
@@ -17261,7 +17259,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="n">
         <v>163</v>
       </c>
@@ -17313,9 +17311,7 @@
       <c r="U180" s="6"/>
       <c r="V180" s="18"/>
       <c r="W180" s="6"/>
-      <c r="X180" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X180" s="23"/>
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
       <c r="AA180" s="6" t="n">
@@ -17342,7 +17338,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="n">
         <v>164</v>
       </c>
@@ -17390,9 +17386,7 @@
         <v>580</v>
       </c>
       <c r="W181" s="6"/>
-      <c r="X181" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X181" s="23"/>
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
       <c r="AA181" s="6" t="n">
@@ -17419,7 +17413,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="n">
         <v>165</v>
       </c>
@@ -17463,9 +17457,7 @@
       <c r="U182" s="6"/>
       <c r="V182" s="18"/>
       <c r="W182" s="6"/>
-      <c r="X182" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X182" s="23"/>
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
       <c r="AA182" s="6" t="n">
@@ -17494,7 +17486,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="n">
         <v>166</v>
       </c>
@@ -17544,9 +17536,7 @@
       <c r="U183" s="6"/>
       <c r="V183" s="18"/>
       <c r="W183" s="6"/>
-      <c r="X183" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X183" s="23"/>
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
       <c r="AA183" s="6" t="n">
@@ -17575,7 +17565,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="n">
         <v>167</v>
       </c>
@@ -17624,7 +17614,7 @@
       </c>
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
-      <c r="AA184" s="22" t="n">
+      <c r="AA184" s="24" t="n">
         <v>1102</v>
       </c>
       <c r="AB184" s="6"/>
@@ -17652,7 +17642,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>168</v>
       </c>
@@ -17709,7 +17699,7 @@
       </c>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
-      <c r="AA185" s="22" t="n">
+      <c r="AA185" s="24" t="n">
         <v>1102</v>
       </c>
       <c r="AB185" s="6"/>
@@ -17733,7 +17723,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="n">
         <v>169</v>
       </c>
@@ -17786,7 +17776,7 @@
       </c>
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
-      <c r="AA186" s="22" t="n">
+      <c r="AA186" s="24" t="n">
         <v>1102</v>
       </c>
       <c r="AB186" s="6"/>
@@ -17810,7 +17800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="n">
         <v>170</v>
       </c>
@@ -17865,7 +17855,7 @@
       </c>
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
-      <c r="AA187" s="22" t="n">
+      <c r="AA187" s="24" t="n">
         <v>1102</v>
       </c>
       <c r="AB187" s="6"/>
@@ -17891,7 +17881,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="n">
         <v>171</v>
       </c>
@@ -17966,7 +17956,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="n">
         <v>172</v>
       </c>
@@ -18045,7 +18035,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="n">
         <v>173</v>
       </c>
@@ -18120,7 +18110,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="n">
         <v>174</v>
       </c>
@@ -18193,7 +18183,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="n">
         <v>175</v>
       </c>
@@ -18270,7 +18260,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="n">
         <v>176</v>
       </c>
@@ -18347,7 +18337,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="n">
         <v>177</v>
       </c>
@@ -18424,7 +18414,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="n">
         <v>178</v>
       </c>
@@ -18501,7 +18491,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="n">
         <v>179</v>
       </c>
@@ -18580,7 +18570,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="n">
         <v>180</v>
       </c>
@@ -18653,11 +18643,11 @@
       <c r="AL197" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="AM197" s="20" t="n">
+      <c r="AM197" s="21" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="n">
         <v>181</v>
       </c>
@@ -18736,7 +18726,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="n">
         <v>182</v>
       </c>
@@ -18815,7 +18805,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="n">
         <v>183</v>
       </c>
@@ -18894,7 +18884,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="n">
         <v>184</v>
       </c>
@@ -18973,7 +18963,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="n">
         <v>185</v>
       </c>
@@ -19052,7 +19042,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="n">
         <v>186</v>
       </c>
@@ -19131,7 +19121,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="n">
         <v>187</v>
       </c>
@@ -19210,7 +19200,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="n">
         <v>188</v>
       </c>
@@ -19289,7 +19279,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="n">
         <v>189</v>
       </c>
@@ -19368,7 +19358,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="n">
         <v>190</v>
       </c>
@@ -19441,11 +19431,11 @@
       <c r="AL207" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="AM207" s="20" t="n">
+      <c r="AM207" s="21" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="n">
         <v>191</v>
       </c>
@@ -19524,7 +19514,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="n">
         <v>192</v>
       </c>
@@ -19603,7 +19593,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="n">
         <v>193</v>
       </c>
@@ -19682,7 +19672,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="n">
         <v>194</v>
       </c>
@@ -19761,7 +19751,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="n">
         <v>195</v>
       </c>
@@ -19840,7 +19830,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="n">
         <v>196</v>
       </c>
@@ -19919,7 +19909,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="n">
         <v>197</v>
       </c>
@@ -19992,11 +19982,11 @@
       <c r="AL214" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="AM214" s="20" t="n">
+      <c r="AM214" s="21" t="n">
         <v>503</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="n">
         <v>198</v>
       </c>
@@ -20075,7 +20065,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="n">
         <v>199</v>
       </c>
@@ -20154,7 +20144,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="n">
         <v>200</v>
       </c>
@@ -20227,11 +20217,11 @@
       <c r="AL217" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="AM217" s="20" t="n">
+      <c r="AM217" s="21" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="n">
         <v>201</v>
       </c>
@@ -20310,7 +20300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="n">
         <v>202</v>
       </c>
@@ -20341,7 +20331,7 @@
       </c>
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
-      <c r="M219" s="20" t="s">
+      <c r="M219" s="21" t="s">
         <v>275</v>
       </c>
       <c r="N219" s="16" t="s">
@@ -20389,7 +20379,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="n">
         <v>203</v>
       </c>
@@ -20468,7 +20458,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="n">
         <v>204</v>
       </c>
@@ -20543,7 +20533,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="n">
         <v>205</v>
       </c>
@@ -20620,7 +20610,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="n">
         <v>206</v>
       </c>
@@ -20695,7 +20685,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="n">
         <v>207</v>
       </c>
@@ -20770,11 +20760,11 @@
         <v>207</v>
       </c>
       <c r="AL224" s="6"/>
-      <c r="AM224" s="24" t="n">
+      <c r="AM224" s="25" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="n">
         <v>208</v>
       </c>
@@ -20796,7 +20786,7 @@
       <c r="G225" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="H225" s="25" t="s">
+      <c r="H225" s="26" t="s">
         <v>705</v>
       </c>
       <c r="I225" s="6"/>
@@ -20855,11 +20845,11 @@
         <v>208</v>
       </c>
       <c r="AL225" s="6"/>
-      <c r="AM225" s="24" t="n">
+      <c r="AM225" s="25" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="n">
         <v>209</v>
       </c>
@@ -20915,7 +20905,7 @@
       <c r="AE226" s="8" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AF226" s="21" t="n">
+      <c r="AF226" s="22" t="n">
         <v>0.5</v>
       </c>
       <c r="AG226" s="6" t="n">
@@ -20936,11 +20926,11 @@
       <c r="AL226" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="AM226" s="24" t="n">
+      <c r="AM226" s="25" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="n">
         <v>211</v>
       </c>
@@ -21023,7 +21013,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="n">
         <v>212</v>
       </c>
@@ -21106,7 +21096,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="n">
         <v>213</v>
       </c>
@@ -21181,7 +21171,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="n">
         <v>214</v>
       </c>
@@ -21264,7 +21254,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="n">
         <v>215</v>
       </c>
@@ -21296,12 +21286,12 @@
       <c r="M231" s="23" t="s">
         <v>726</v>
       </c>
-      <c r="N231" s="26" t="s">
+      <c r="N231" s="20" t="s">
         <v>727</v>
       </c>
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
-      <c r="Q231" s="26" t="s">
+      <c r="Q231" s="20" t="s">
         <v>727</v>
       </c>
       <c r="R231" s="6" t="s">
@@ -21347,7 +21337,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="n">
         <v>216</v>
       </c>
@@ -21367,7 +21357,7 @@
       <c r="G232" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="H232" s="25" t="s">
+      <c r="H232" s="26" t="s">
         <v>730</v>
       </c>
       <c r="I232" s="6"/>
@@ -21426,7 +21416,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="n">
         <v>217</v>
       </c>
@@ -21470,7 +21460,7 @@
       <c r="U233" s="6"/>
       <c r="V233" s="6"/>
       <c r="W233" s="6"/>
-      <c r="X233" s="22" t="s">
+      <c r="X233" s="24" t="s">
         <v>688</v>
       </c>
       <c r="Y233" s="6"/>
@@ -21499,11 +21489,11 @@
         <v>217</v>
       </c>
       <c r="AL233" s="6"/>
-      <c r="AM233" s="24" t="n">
+      <c r="AM233" s="25" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="n">
         <v>218</v>
       </c>
@@ -21516,7 +21506,7 @@
       <c r="D234" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E234" s="24" t="s">
+      <c r="E234" s="25" t="s">
         <v>495</v>
       </c>
       <c r="F234" s="6" t="s">
@@ -21547,7 +21537,7 @@
       <c r="U234" s="6"/>
       <c r="V234" s="6"/>
       <c r="W234" s="6"/>
-      <c r="X234" s="22" t="s">
+      <c r="X234" s="24" t="s">
         <v>734</v>
       </c>
       <c r="Y234" s="6"/>
@@ -21578,7 +21568,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="n">
         <v>219</v>
       </c>
@@ -21591,7 +21581,7 @@
       <c r="D235" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E235" s="24" t="s">
+      <c r="E235" s="25" t="s">
         <v>495</v>
       </c>
       <c r="F235" s="6" t="s">
@@ -21630,7 +21620,7 @@
       <c r="U235" s="6"/>
       <c r="V235" s="6"/>
       <c r="W235" s="6"/>
-      <c r="X235" s="22" t="s">
+      <c r="X235" s="24" t="s">
         <v>734</v>
       </c>
       <c r="Y235" s="6"/>
@@ -21659,7 +21649,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="n">
         <v>220</v>
       </c>
@@ -21720,11 +21710,11 @@
       <c r="AL236" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="AM236" s="24" t="n">
+      <c r="AM236" s="25" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="n">
         <v>221</v>
       </c>
@@ -21801,7 +21791,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="n">
         <v>222</v>
       </c>
@@ -21878,7 +21868,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="n">
         <v>223</v>
       </c>
@@ -21955,7 +21945,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="n">
         <v>224</v>
       </c>
@@ -21968,13 +21958,13 @@
       <c r="D240" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E240" s="24" t="s">
+      <c r="E240" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="F240" s="24" t="s">
+      <c r="F240" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="G240" s="24" t="s">
+      <c r="G240" s="25" t="s">
         <v>759</v>
       </c>
       <c r="H240" s="6" t="s">
@@ -22020,7 +22010,7 @@
       </c>
       <c r="AM240" s="6"/>
     </row>
-    <row r="241" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="n">
         <v>225</v>
       </c>
@@ -22039,7 +22029,7 @@
       <c r="F241" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="G241" s="20" t="s">
+      <c r="G241" s="21" t="s">
         <v>766</v>
       </c>
       <c r="H241" s="6" t="s">
@@ -22085,7 +22075,7 @@
       </c>
       <c r="AM241" s="6"/>
     </row>
-    <row r="242" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="n">
         <v>226</v>
       </c>
@@ -22098,13 +22088,13 @@
       <c r="D242" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E242" s="24" t="s">
+      <c r="E242" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="F242" s="24" t="s">
+      <c r="F242" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="G242" s="24" t="s">
+      <c r="G242" s="25" t="s">
         <v>770</v>
       </c>
       <c r="H242" s="6" t="s">
@@ -22152,7 +22142,7 @@
       </c>
       <c r="AM242" s="6"/>
     </row>
-    <row r="243" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="n">
         <v>228</v>
       </c>
@@ -22165,13 +22155,13 @@
       <c r="D243" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E243" s="24" t="s">
+      <c r="E243" s="25" t="s">
         <v>774</v>
       </c>
-      <c r="F243" s="24" t="s">
+      <c r="F243" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="G243" s="24" t="s">
+      <c r="G243" s="25" t="s">
         <v>776</v>
       </c>
       <c r="H243" s="6" t="s">
@@ -22217,7 +22207,7 @@
       </c>
       <c r="AM243" s="6"/>
     </row>
-    <row r="244" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="n">
         <v>229</v>
       </c>
@@ -22230,13 +22220,13 @@
       <c r="D244" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E244" s="24" t="s">
+      <c r="E244" s="25" t="s">
         <v>780</v>
       </c>
-      <c r="F244" s="24" t="s">
+      <c r="F244" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="G244" s="24" t="s">
+      <c r="G244" s="25" t="s">
         <v>782</v>
       </c>
       <c r="H244" s="6" t="s">
@@ -22282,7 +22272,7 @@
       </c>
       <c r="AM244" s="6"/>
     </row>
-    <row r="245" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="n">
         <v>230</v>
       </c>
@@ -22295,13 +22285,13 @@
       <c r="D245" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E245" s="24" t="s">
+      <c r="E245" s="25" t="s">
         <v>784</v>
       </c>
-      <c r="F245" s="24" t="s">
+      <c r="F245" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="G245" s="24" t="s">
+      <c r="G245" s="25" t="s">
         <v>786</v>
       </c>
       <c r="H245" s="6" t="s">
@@ -22347,7 +22337,7 @@
       <c r="AL245" s="6"/>
       <c r="AM245" s="6"/>
     </row>
-    <row r="246" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="n">
         <v>231</v>
       </c>
@@ -22360,13 +22350,13 @@
       <c r="D246" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E246" s="24" t="s">
+      <c r="E246" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="F246" s="24" t="s">
+      <c r="F246" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="G246" s="24" t="s">
+      <c r="G246" s="25" t="s">
         <v>792</v>
       </c>
       <c r="H246" s="6" t="s">
@@ -22412,7 +22402,7 @@
       <c r="AL246" s="6"/>
       <c r="AM246" s="6"/>
     </row>
-    <row r="247" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="n">
         <v>233</v>
       </c>
@@ -22425,13 +22415,13 @@
       <c r="D247" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E247" s="24" t="s">
+      <c r="E247" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F247" s="24" t="s">
+      <c r="F247" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="G247" s="24" t="s">
+      <c r="G247" s="25" t="s">
         <v>797</v>
       </c>
       <c r="H247" s="6" t="s">
@@ -22481,7 +22471,7 @@
       </c>
       <c r="AM247" s="6"/>
     </row>
-    <row r="248" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="n">
         <v>234</v>
       </c>
@@ -22494,13 +22484,13 @@
       <c r="D248" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E248" s="24" t="s">
+      <c r="E248" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F248" s="24" t="s">
+      <c r="F248" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="G248" s="24" t="s">
+      <c r="G248" s="25" t="s">
         <v>797</v>
       </c>
       <c r="H248" s="6" t="s">
@@ -22550,7 +22540,7 @@
       </c>
       <c r="AM248" s="6"/>
     </row>
-    <row r="249" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="n">
         <v>235</v>
       </c>
@@ -22563,13 +22553,13 @@
       <c r="D249" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E249" s="24" t="s">
+      <c r="E249" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F249" s="24" t="s">
+      <c r="F249" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="G249" s="24" t="s">
+      <c r="G249" s="25" t="s">
         <v>797</v>
       </c>
       <c r="H249" s="6" t="s">
@@ -22619,7 +22609,7 @@
       </c>
       <c r="AM249" s="6"/>
     </row>
-    <row r="250" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="n">
         <v>236</v>
       </c>
@@ -22632,13 +22622,13 @@
       <c r="D250" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E250" s="24" t="s">
+      <c r="E250" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F250" s="24" t="s">
+      <c r="F250" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="G250" s="24" t="s">
+      <c r="G250" s="25" t="s">
         <v>797</v>
       </c>
       <c r="H250" s="6" t="s">
@@ -22688,7 +22678,7 @@
       </c>
       <c r="AM250" s="6"/>
     </row>
-    <row r="251" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="n">
         <v>237</v>
       </c>
@@ -22701,13 +22691,13 @@
       <c r="D251" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E251" s="24" t="s">
+      <c r="E251" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F251" s="24" t="s">
+      <c r="F251" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="G251" s="24" t="s">
+      <c r="G251" s="25" t="s">
         <v>797</v>
       </c>
       <c r="H251" s="6" t="s">
@@ -22755,7 +22745,7 @@
       <c r="AL251" s="29"/>
       <c r="AM251" s="6"/>
     </row>
-    <row r="252" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="n">
         <v>238</v>
       </c>
@@ -22768,13 +22758,13 @@
       <c r="D252" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E252" s="24" t="s">
+      <c r="E252" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F252" s="24" t="s">
+      <c r="F252" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="G252" s="24" t="s">
+      <c r="G252" s="25" t="s">
         <v>797</v>
       </c>
       <c r="H252" s="6" t="s">
@@ -22824,7 +22814,7 @@
       </c>
       <c r="AM252" s="6"/>
     </row>
-    <row r="253" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="n">
         <v>239</v>
       </c>
@@ -22837,13 +22827,13 @@
       <c r="D253" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E253" s="24" t="s">
+      <c r="E253" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F253" s="24" t="s">
+      <c r="F253" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="G253" s="24" t="s">
+      <c r="G253" s="25" t="s">
         <v>797</v>
       </c>
       <c r="H253" s="6" t="s">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -13,6 +13,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="803">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -607,10 +609,10 @@
     <t xml:space="preserve">STANDARD 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Schweppes Ginger Ale - 0.5L Pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс новый вкус 0.5л</t>
+    <t xml:space="preserve">Schweppes Tonic - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 0.33л</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 0.33L Glass</t>
@@ -685,10 +687,10 @@
     <t xml:space="preserve">5449000224385</t>
   </si>
   <si>
-    <t xml:space="preserve">Schweppes Ginger Ale - 1L Pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс новый вкус 1.0л</t>
+    <t xml:space="preserve">Schweppes Mojito - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1л</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Citrus - 0.9L/1L</t>
@@ -1704,9 +1706,6 @@
     <t xml:space="preserve">Сок Дисплей 1-й</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Displays</t>
-  </si>
-  <si>
     <t xml:space="preserve">141
 142
 143</t>
@@ -1886,22 +1885,19 @@
 161</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лимон - 1л</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лесн.ягоды - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 0.9L/1L share on Display</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Mango-Camomile - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Манго-Ромашка - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fuze Mango-Camomile - 1L</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Berry-Hibiscus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 4 x 0.33L share on Display</t>
@@ -2809,119 +2805,119 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="173" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3010,46 +3006,46 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="X184" activeCellId="0" sqref="X184:X187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.0202429149798"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.3036437246964"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="78.5182186234818"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="79.9109311740891"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -6321,12 +6317,11 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6" t="str">
-        <f aca="false">F44</f>
-        <v>Schweppes Ginger Ale - 0.5L Pet</v>
+      <c r="M44" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="N44" s="9" t="n">
-        <v>111111</v>
+        <v>5449000046390</v>
       </c>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -7059,12 +7054,11 @@
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="6" t="str">
-        <f aca="false">F53</f>
-        <v>Schweppes Ginger Ale - 1L Pet</v>
+      <c r="M53" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="N53" s="9" t="n">
-        <v>111111</v>
+        <v>5449000109125</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -14801,9 +14795,7 @@
       <c r="U148" s="6"/>
       <c r="V148" s="18"/>
       <c r="W148" s="6"/>
-      <c r="X148" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
       <c r="Z148" s="6"/>
       <c r="AA148" s="6" t="n">
@@ -14886,9 +14878,7 @@
       <c r="U149" s="6"/>
       <c r="V149" s="18"/>
       <c r="W149" s="6"/>
-      <c r="X149" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
       <c r="Z149" s="6"/>
       <c r="AA149" s="6" t="n">
@@ -14963,9 +14953,7 @@
         <v>485</v>
       </c>
       <c r="W150" s="6"/>
-      <c r="X150" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X150" s="6"/>
       <c r="Y150" s="6"/>
       <c r="Z150" s="6"/>
       <c r="AA150" s="6" t="n">
@@ -15042,9 +15030,7 @@
       <c r="U151" s="6"/>
       <c r="V151" s="18"/>
       <c r="W151" s="6"/>
-      <c r="X151" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X151" s="6"/>
       <c r="Y151" s="6"/>
       <c r="Z151" s="6"/>
       <c r="AA151" s="6" t="n">
@@ -15115,9 +15101,7 @@
       <c r="U152" s="6"/>
       <c r="V152" s="18"/>
       <c r="W152" s="6"/>
-      <c r="X152" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X152" s="6"/>
       <c r="Y152" s="6"/>
       <c r="Z152" s="6"/>
       <c r="AA152" s="6" t="n">
@@ -15202,9 +15186,7 @@
       <c r="U153" s="6"/>
       <c r="V153" s="18"/>
       <c r="W153" s="6"/>
-      <c r="X153" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X153" s="6"/>
       <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
       <c r="AA153" s="6" t="n">
@@ -15281,9 +15263,7 @@
       <c r="U154" s="6"/>
       <c r="V154" s="18"/>
       <c r="W154" s="6"/>
-      <c r="X154" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X154" s="6"/>
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
       <c r="AA154" s="6" t="n">
@@ -15360,9 +15340,7 @@
       <c r="U155" s="18"/>
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
-      <c r="X155" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X155" s="6"/>
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
       <c r="AA155" s="6" t="n">
@@ -15439,9 +15417,7 @@
       <c r="U156" s="6"/>
       <c r="V156" s="18"/>
       <c r="W156" s="6"/>
-      <c r="X156" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X156" s="6"/>
       <c r="Y156" s="6"/>
       <c r="Z156" s="6"/>
       <c r="AA156" s="6" t="n">
@@ -15512,9 +15488,7 @@
       <c r="U157" s="6"/>
       <c r="V157" s="18"/>
       <c r="W157" s="6"/>
-      <c r="X157" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X157" s="6"/>
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
       <c r="AA157" s="6" t="n">
@@ -15539,7 +15513,7 @@
         <v>140</v>
       </c>
       <c r="AL157" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM157" s="6" t="n">
         <v>303</v>
@@ -15562,10 +15536,10 @@
         <v>470</v>
       </c>
       <c r="F158" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="G158" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>91</v>
@@ -15580,10 +15554,10 @@
         <v>478</v>
       </c>
       <c r="N158" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O158" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P158" s="9"/>
       <c r="Q158" s="9"/>
@@ -15597,9 +15571,7 @@
       <c r="U158" s="6"/>
       <c r="V158" s="18"/>
       <c r="W158" s="6"/>
-      <c r="X158" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X158" s="6"/>
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
       <c r="AA158" s="6" t="n">
@@ -15643,10 +15615,10 @@
         <v>470</v>
       </c>
       <c r="F159" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="G159" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>483</v>
@@ -15671,12 +15643,10 @@
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W159" s="6"/>
-      <c r="X159" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X159" s="6"/>
       <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
       <c r="AA159" s="6" t="n">
@@ -15720,13 +15690,13 @@
         <v>470</v>
       </c>
       <c r="F160" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="G160" s="6" t="s">
+      <c r="H160" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="H160" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="I160" s="6"/>
       <c r="J160" s="6" t="n">
@@ -15747,9 +15717,7 @@
       <c r="U160" s="6"/>
       <c r="V160" s="18"/>
       <c r="W160" s="6"/>
-      <c r="X160" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X160" s="6"/>
       <c r="Y160" s="6"/>
       <c r="Z160" s="6"/>
       <c r="AA160" s="6" t="n">
@@ -15772,7 +15740,7 @@
         <v>143</v>
       </c>
       <c r="AL160" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM160" s="6" t="n">
         <v>140</v>
@@ -15795,10 +15763,10 @@
         <v>470</v>
       </c>
       <c r="F161" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="G161" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>488</v>
@@ -15826,9 +15794,7 @@
       <c r="U161" s="6"/>
       <c r="V161" s="18"/>
       <c r="W161" s="6"/>
-      <c r="X161" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X161" s="6"/>
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
       <c r="AA161" s="6" t="n">
@@ -15843,7 +15809,7 @@
       <c r="AF161" s="6"/>
       <c r="AG161" s="6"/>
       <c r="AH161" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI161" s="6"/>
       <c r="AJ161" s="6" t="n">
@@ -15874,10 +15840,10 @@
         <v>470</v>
       </c>
       <c r="F162" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>523</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>488</v>
@@ -15905,9 +15871,7 @@
       <c r="U162" s="6"/>
       <c r="V162" s="18"/>
       <c r="W162" s="6"/>
-      <c r="X162" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X162" s="6"/>
       <c r="Y162" s="6"/>
       <c r="Z162" s="6"/>
       <c r="AA162" s="6" t="n">
@@ -15922,7 +15886,7 @@
       <c r="AF162" s="6"/>
       <c r="AG162" s="6"/>
       <c r="AH162" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AI162" s="6"/>
       <c r="AJ162" s="6" t="n">
@@ -15953,10 +15917,10 @@
         <v>495</v>
       </c>
       <c r="F163" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>473</v>
@@ -15980,9 +15944,7 @@
       <c r="U163" s="6"/>
       <c r="V163" s="18"/>
       <c r="W163" s="6"/>
-      <c r="X163" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X163" s="6"/>
       <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
       <c r="AA163" s="6" t="n">
@@ -15999,7 +15961,7 @@
       <c r="AF163" s="6"/>
       <c r="AG163" s="6"/>
       <c r="AH163" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AI163" s="6" t="s">
         <v>505</v>
@@ -16011,7 +15973,7 @@
         <v>146</v>
       </c>
       <c r="AL163" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM163" s="6" t="n">
         <v>303</v>
@@ -16034,10 +15996,10 @@
         <v>495</v>
       </c>
       <c r="F164" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G164" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>91</v>
@@ -16067,9 +16029,7 @@
       <c r="U164" s="6"/>
       <c r="V164" s="18"/>
       <c r="W164" s="6"/>
-      <c r="X164" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X164" s="6"/>
       <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
       <c r="AA164" s="6" t="n">
@@ -16113,10 +16073,10 @@
         <v>495</v>
       </c>
       <c r="F165" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="G165" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>91</v>
@@ -16146,9 +16106,7 @@
       <c r="U165" s="6"/>
       <c r="V165" s="18"/>
       <c r="W165" s="6"/>
-      <c r="X165" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X165" s="6"/>
       <c r="Y165" s="6"/>
       <c r="Z165" s="6"/>
       <c r="AA165" s="6" t="n">
@@ -16192,10 +16150,10 @@
         <v>495</v>
       </c>
       <c r="F166" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="G166" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>91</v>
@@ -16225,9 +16183,7 @@
       <c r="U166" s="6"/>
       <c r="V166" s="18"/>
       <c r="W166" s="6"/>
-      <c r="X166" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X166" s="6"/>
       <c r="Y166" s="6"/>
       <c r="Z166" s="6"/>
       <c r="AA166" s="6" t="n">
@@ -16271,10 +16227,10 @@
         <v>495</v>
       </c>
       <c r="F167" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>91</v>
@@ -16304,9 +16260,7 @@
       <c r="U167" s="6"/>
       <c r="V167" s="18"/>
       <c r="W167" s="6"/>
-      <c r="X167" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X167" s="6"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="6"/>
       <c r="AA167" s="6" t="n">
@@ -16350,10 +16304,10 @@
         <v>470</v>
       </c>
       <c r="F168" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>473</v>
@@ -16377,9 +16331,7 @@
       <c r="U168" s="6"/>
       <c r="V168" s="18"/>
       <c r="W168" s="6"/>
-      <c r="X168" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X168" s="6"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
       <c r="AA168" s="6" t="n">
@@ -16404,7 +16356,7 @@
         <v>151</v>
       </c>
       <c r="AL168" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AM168" s="6" t="n">
         <v>302</v>
@@ -16427,10 +16379,10 @@
         <v>470</v>
       </c>
       <c r="F169" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G169" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>91</v>
@@ -16462,9 +16414,7 @@
       <c r="U169" s="6"/>
       <c r="V169" s="18"/>
       <c r="W169" s="6"/>
-      <c r="X169" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X169" s="6"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
       <c r="AA169" s="6" t="n">
@@ -16508,10 +16458,10 @@
         <v>470</v>
       </c>
       <c r="F170" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>483</v>
@@ -16536,12 +16486,10 @@
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
       <c r="V170" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W170" s="6"/>
-      <c r="X170" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X170" s="6"/>
       <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
       <c r="AA170" s="6" t="n">
@@ -16585,10 +16533,10 @@
         <v>470</v>
       </c>
       <c r="F171" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>488</v>
@@ -16598,7 +16546,7 @@
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
       <c r="M171" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N171" s="9" t="s">
         <v>103</v>
@@ -16618,9 +16566,7 @@
       <c r="U171" s="6"/>
       <c r="V171" s="18"/>
       <c r="W171" s="6"/>
-      <c r="X171" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="X171" s="6"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
       <c r="AA171" s="6" t="n">
@@ -16635,7 +16581,7 @@
       <c r="AF171" s="6"/>
       <c r="AG171" s="6"/>
       <c r="AH171" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AI171" s="6"/>
       <c r="AJ171" s="6" t="n">
@@ -16666,10 +16612,10 @@
         <v>470</v>
       </c>
       <c r="F172" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>473</v>
@@ -16718,7 +16664,7 @@
         <v>155</v>
       </c>
       <c r="AL172" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AM172" s="6" t="n">
         <v>320</v>
@@ -16741,10 +16687,10 @@
         <v>470</v>
       </c>
       <c r="F173" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>91</v>
@@ -16759,20 +16705,20 @@
         <v>478</v>
       </c>
       <c r="N173" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="O173" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="O173" s="9" t="s">
-        <v>555</v>
-      </c>
       <c r="P173" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q173" s="9"/>
       <c r="R173" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S173" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
@@ -16822,10 +16768,10 @@
         <v>470</v>
       </c>
       <c r="F174" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>483</v>
@@ -16850,7 +16796,7 @@
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W174" s="6"/>
       <c r="X174" s="6" t="s">
@@ -16897,13 +16843,13 @@
         <v>470</v>
       </c>
       <c r="F175" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G175" s="6" t="s">
-        <v>561</v>
-      </c>
       <c r="H175" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I175" s="6"/>
       <c r="J175" s="6" t="n">
@@ -16947,7 +16893,7 @@
         <v>158</v>
       </c>
       <c r="AL175" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AM175" s="6" t="n">
         <v>155</v>
@@ -16970,10 +16916,10 @@
         <v>470</v>
       </c>
       <c r="F176" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G176" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="G176" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>488</v>
@@ -16983,10 +16929,10 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N176" s="16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O176" s="9"/>
       <c r="P176" s="9"/>
@@ -17016,7 +16962,7 @@
       <c r="AF176" s="6"/>
       <c r="AG176" s="6"/>
       <c r="AH176" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI176" s="6"/>
       <c r="AJ176" s="6" t="n">
@@ -17047,10 +16993,10 @@
         <v>470</v>
       </c>
       <c r="F177" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="G177" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="G177" s="9" t="s">
-        <v>567</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>488</v>
@@ -17060,10 +17006,10 @@
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6" t="s">
-        <v>568</v>
+        <v>298</v>
       </c>
       <c r="N177" s="22" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
@@ -17093,7 +17039,7 @@
       <c r="AF177" s="6"/>
       <c r="AG177" s="6"/>
       <c r="AH177" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AI177" s="6"/>
       <c r="AJ177" s="6" t="n">
@@ -17124,10 +17070,10 @@
         <v>470</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>488</v>
@@ -17170,7 +17116,7 @@
       <c r="AF178" s="6"/>
       <c r="AG178" s="6"/>
       <c r="AH178" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AI178" s="6"/>
       <c r="AJ178" s="6" t="n">
@@ -17201,10 +17147,10 @@
         <v>470</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>473</v>
@@ -17253,7 +17199,7 @@
         <v>162</v>
       </c>
       <c r="AL179" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AM179" s="6" t="n">
         <v>302</v>
@@ -17276,10 +17222,10 @@
         <v>470</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>91</v>
@@ -17355,10 +17301,10 @@
         <v>470</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>483</v>
@@ -17383,7 +17329,7 @@
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="W181" s="6"/>
       <c r="X181" s="23"/>
@@ -17430,13 +17376,13 @@
         <v>470</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I182" s="6"/>
       <c r="J182" s="6" t="n">
@@ -17503,7 +17449,7 @@
         <v>470</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>147</v>
@@ -17551,7 +17497,7 @@
       <c r="AF183" s="6"/>
       <c r="AG183" s="6"/>
       <c r="AH183" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AI183" s="6"/>
       <c r="AJ183" s="6" t="n">
@@ -17582,10 +17528,10 @@
         <v>470</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>473</v>
@@ -17609,9 +17555,7 @@
       <c r="U184" s="6"/>
       <c r="V184" s="18"/>
       <c r="W184" s="6"/>
-      <c r="X184" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X184" s="6"/>
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
       <c r="AA184" s="24" t="n">
@@ -17636,7 +17580,7 @@
         <v>167</v>
       </c>
       <c r="AL184" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AM184" s="6" t="n">
         <v>303</v>
@@ -17659,10 +17603,10 @@
         <v>470</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>91</v>
@@ -17677,10 +17621,10 @@
         <v>478</v>
       </c>
       <c r="N185" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O185" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P185" s="9"/>
       <c r="Q185" s="9"/>
@@ -17694,9 +17638,7 @@
       <c r="U185" s="6"/>
       <c r="V185" s="18"/>
       <c r="W185" s="6"/>
-      <c r="X185" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X185" s="6"/>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
       <c r="AA185" s="24" t="n">
@@ -17740,10 +17682,10 @@
         <v>470</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>483</v>
@@ -17768,12 +17710,10 @@
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="W186" s="6"/>
-      <c r="X186" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X186" s="6"/>
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
       <c r="AA186" s="24" t="n">
@@ -17817,10 +17757,10 @@
         <v>470</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>91</v>
@@ -17850,9 +17790,7 @@
       <c r="U187" s="6"/>
       <c r="V187" s="18"/>
       <c r="W187" s="6"/>
-      <c r="X187" s="6" t="s">
-        <v>507</v>
-      </c>
+      <c r="X187" s="6"/>
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
       <c r="AA187" s="24" t="n">
@@ -17867,7 +17805,7 @@
       <c r="AF187" s="6"/>
       <c r="AG187" s="6"/>
       <c r="AH187" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AI187" s="6"/>
       <c r="AJ187" s="6" t="n">
@@ -17898,10 +17836,10 @@
         <v>470</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>473</v>
@@ -17950,7 +17888,7 @@
         <v>171</v>
       </c>
       <c r="AL188" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AM188" s="6" t="n">
         <v>321</v>
@@ -17973,10 +17911,10 @@
         <v>470</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>91</v>
@@ -17991,10 +17929,10 @@
         <v>478</v>
       </c>
       <c r="N189" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O189" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P189" s="9"/>
       <c r="Q189" s="9"/>
@@ -18052,10 +17990,10 @@
         <v>470</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>483</v>
@@ -18080,7 +18018,7 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="W190" s="6"/>
       <c r="X190" s="6" t="s">
@@ -18127,13 +18065,13 @@
         <v>470</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6" t="n">
@@ -18177,7 +18115,7 @@
         <v>174</v>
       </c>
       <c r="AL191" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AM191" s="6" t="n">
         <v>171</v>
@@ -18200,10 +18138,10 @@
         <v>470</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>488</v>
@@ -18246,7 +18184,7 @@
       <c r="AF192" s="6"/>
       <c r="AG192" s="6"/>
       <c r="AH192" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AI192" s="6"/>
       <c r="AJ192" s="6" t="n">
@@ -18277,10 +18215,10 @@
         <v>470</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>488</v>
@@ -18323,7 +18261,7 @@
       <c r="AF193" s="6"/>
       <c r="AG193" s="6"/>
       <c r="AH193" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AI193" s="6"/>
       <c r="AJ193" s="6" t="n">
@@ -18354,10 +18292,10 @@
         <v>470</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>488</v>
@@ -18400,7 +18338,7 @@
       <c r="AF194" s="6"/>
       <c r="AG194" s="6"/>
       <c r="AH194" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AI194" s="6"/>
       <c r="AJ194" s="6" t="n">
@@ -18431,10 +18369,10 @@
         <v>470</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>488</v>
@@ -18477,7 +18415,7 @@
       <c r="AF195" s="6"/>
       <c r="AG195" s="6"/>
       <c r="AH195" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AI195" s="6"/>
       <c r="AJ195" s="6" t="n">
@@ -18505,16 +18443,16 @@
         <v>490</v>
       </c>
       <c r="E196" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="G196" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="H196" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="H196" s="6" t="s">
-        <v>619</v>
       </c>
       <c r="I196" s="6"/>
       <c r="J196" s="7" t="n">
@@ -18542,7 +18480,7 @@
       <c r="V196" s="6"/>
       <c r="W196" s="6"/>
       <c r="X196" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
@@ -18550,7 +18488,7 @@
       <c r="AB196" s="6"/>
       <c r="AC196" s="6"/>
       <c r="AD196" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AE196" s="8" t="n">
         <v>0.0725</v>
@@ -18587,13 +18525,13 @@
         <v>495</v>
       </c>
       <c r="F197" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="H197" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="H197" s="6" t="s">
-        <v>624</v>
       </c>
       <c r="I197" s="6"/>
       <c r="J197" s="6" t="n">
@@ -18615,14 +18553,14 @@
       <c r="V197" s="6"/>
       <c r="W197" s="6"/>
       <c r="X197" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
       <c r="AA197" s="17"/>
       <c r="AB197" s="6"/>
       <c r="AC197" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD197" s="6" t="s">
         <v>97</v>
@@ -18641,7 +18579,7 @@
         <v>180</v>
       </c>
       <c r="AL197" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AM197" s="21" t="n">
         <v>501</v>
@@ -18664,10 +18602,10 @@
         <v>495</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>91</v>
@@ -18698,14 +18636,14 @@
       <c r="V198" s="6"/>
       <c r="W198" s="6"/>
       <c r="X198" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
       <c r="AA198" s="17"/>
       <c r="AB198" s="6"/>
       <c r="AC198" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD198" s="6" t="s">
         <v>97</v>
@@ -18743,10 +18681,10 @@
         <v>495</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>91</v>
@@ -18758,7 +18696,7 @@
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
       <c r="M199" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="N199" s="9" t="s">
         <v>103</v>
@@ -18777,14 +18715,14 @@
       <c r="V199" s="6"/>
       <c r="W199" s="6"/>
       <c r="X199" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
       <c r="AA199" s="17"/>
       <c r="AB199" s="6"/>
       <c r="AC199" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD199" s="6" t="s">
         <v>97</v>
@@ -18822,10 +18760,10 @@
         <v>495</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>91</v>
@@ -18856,14 +18794,14 @@
       <c r="V200" s="6"/>
       <c r="W200" s="6"/>
       <c r="X200" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
       <c r="AA200" s="17"/>
       <c r="AB200" s="6"/>
       <c r="AC200" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD200" s="6" t="s">
         <v>97</v>
@@ -18901,10 +18839,10 @@
         <v>495</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>91</v>
@@ -18935,14 +18873,14 @@
       <c r="V201" s="6"/>
       <c r="W201" s="6"/>
       <c r="X201" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
       <c r="AA201" s="17"/>
       <c r="AB201" s="6"/>
       <c r="AC201" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD201" s="6" t="s">
         <v>97</v>
@@ -18980,10 +18918,10 @@
         <v>495</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>91</v>
@@ -19014,14 +18952,14 @@
       <c r="V202" s="6"/>
       <c r="W202" s="6"/>
       <c r="X202" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
       <c r="AA202" s="17"/>
       <c r="AB202" s="6"/>
       <c r="AC202" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD202" s="6" t="s">
         <v>97</v>
@@ -19059,10 +18997,10 @@
         <v>495</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>91</v>
@@ -19074,7 +19012,7 @@
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
       <c r="M203" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N203" s="9" t="s">
         <v>181</v>
@@ -19093,14 +19031,14 @@
       <c r="V203" s="6"/>
       <c r="W203" s="6"/>
       <c r="X203" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
       <c r="AA203" s="17"/>
       <c r="AB203" s="6"/>
       <c r="AC203" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD203" s="6" t="s">
         <v>97</v>
@@ -19138,10 +19076,10 @@
         <v>495</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>91</v>
@@ -19172,14 +19110,14 @@
       <c r="V204" s="6"/>
       <c r="W204" s="6"/>
       <c r="X204" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
       <c r="AA204" s="17"/>
       <c r="AB204" s="6"/>
       <c r="AC204" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD204" s="6" t="s">
         <v>97</v>
@@ -19217,10 +19155,10 @@
         <v>495</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>91</v>
@@ -19251,14 +19189,14 @@
       <c r="V205" s="6"/>
       <c r="W205" s="6"/>
       <c r="X205" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y205" s="6"/>
       <c r="Z205" s="6"/>
       <c r="AA205" s="17"/>
       <c r="AB205" s="6"/>
       <c r="AC205" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD205" s="6" t="s">
         <v>97</v>
@@ -19293,16 +19231,16 @@
         <v>41</v>
       </c>
       <c r="E206" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G206" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="F206" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>647</v>
-      </c>
       <c r="H206" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I206" s="6"/>
       <c r="J206" s="7" t="n">
@@ -19314,10 +19252,10 @@
         <v>478</v>
       </c>
       <c r="N206" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O206" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P206" s="9"/>
       <c r="Q206" s="6"/>
@@ -19330,7 +19268,7 @@
       <c r="V206" s="6"/>
       <c r="W206" s="6"/>
       <c r="X206" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
@@ -19338,7 +19276,7 @@
       <c r="AB206" s="6"/>
       <c r="AC206" s="6"/>
       <c r="AD206" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AE206" s="8" t="n">
         <v>0.0625</v>
@@ -19375,13 +19313,13 @@
         <v>495</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6" t="n">
@@ -19403,14 +19341,14 @@
       <c r="V207" s="6"/>
       <c r="W207" s="6"/>
       <c r="X207" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
       <c r="AA207" s="17"/>
       <c r="AB207" s="6"/>
       <c r="AC207" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD207" s="6" t="s">
         <v>97</v>
@@ -19429,7 +19367,7 @@
         <v>190</v>
       </c>
       <c r="AL207" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AM207" s="21" t="n">
         <v>502</v>
@@ -19452,10 +19390,10 @@
         <v>495</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>91</v>
@@ -19486,14 +19424,14 @@
       <c r="V208" s="6"/>
       <c r="W208" s="6"/>
       <c r="X208" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
       <c r="AA208" s="17"/>
       <c r="AB208" s="6"/>
       <c r="AC208" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD208" s="6" t="s">
         <v>97</v>
@@ -19531,10 +19469,10 @@
         <v>495</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>91</v>
@@ -19565,14 +19503,14 @@
       <c r="V209" s="6"/>
       <c r="W209" s="6"/>
       <c r="X209" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
       <c r="AA209" s="17"/>
       <c r="AB209" s="6"/>
       <c r="AC209" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD209" s="6" t="s">
         <v>97</v>
@@ -19610,10 +19548,10 @@
         <v>495</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>91</v>
@@ -19644,14 +19582,14 @@
       <c r="V210" s="6"/>
       <c r="W210" s="6"/>
       <c r="X210" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
       <c r="AA210" s="17"/>
       <c r="AB210" s="6"/>
       <c r="AC210" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD210" s="6" t="s">
         <v>97</v>
@@ -19689,10 +19627,10 @@
         <v>495</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>91</v>
@@ -19723,14 +19661,14 @@
       <c r="V211" s="6"/>
       <c r="W211" s="6"/>
       <c r="X211" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
       <c r="AA211" s="17"/>
       <c r="AB211" s="6"/>
       <c r="AC211" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD211" s="6" t="s">
         <v>97</v>
@@ -19768,10 +19706,10 @@
         <v>495</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>91</v>
@@ -19802,14 +19740,14 @@
       <c r="V212" s="6"/>
       <c r="W212" s="6"/>
       <c r="X212" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
       <c r="AA212" s="17"/>
       <c r="AB212" s="6"/>
       <c r="AC212" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD212" s="6" t="s">
         <v>97</v>
@@ -19844,16 +19782,16 @@
         <v>41</v>
       </c>
       <c r="E213" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="G213" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="F213" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>663</v>
-      </c>
       <c r="H213" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="7" t="n">
@@ -19865,10 +19803,10 @@
         <v>478</v>
       </c>
       <c r="N213" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="O213" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="P213" s="9"/>
       <c r="Q213" s="6"/>
@@ -19881,7 +19819,7 @@
       <c r="V213" s="6"/>
       <c r="W213" s="6"/>
       <c r="X213" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
@@ -19889,7 +19827,7 @@
       <c r="AB213" s="6"/>
       <c r="AC213" s="6"/>
       <c r="AD213" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AE213" s="8" t="n">
         <v>0.0225</v>
@@ -19926,13 +19864,13 @@
         <v>495</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6" t="n">
@@ -19954,14 +19892,14 @@
       <c r="V214" s="6"/>
       <c r="W214" s="6"/>
       <c r="X214" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y214" s="6"/>
       <c r="Z214" s="6"/>
       <c r="AA214" s="17"/>
       <c r="AB214" s="6"/>
       <c r="AC214" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD214" s="6" t="s">
         <v>97</v>
@@ -19980,7 +19918,7 @@
         <v>197</v>
       </c>
       <c r="AL214" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AM214" s="21" t="n">
         <v>503</v>
@@ -20003,7 +19941,7 @@
         <v>495</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>218</v>
@@ -20037,14 +19975,14 @@
       <c r="V215" s="6"/>
       <c r="W215" s="6"/>
       <c r="X215" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
       <c r="AA215" s="17"/>
       <c r="AB215" s="6"/>
       <c r="AC215" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD215" s="6" t="s">
         <v>97</v>
@@ -20079,16 +20017,16 @@
         <v>41</v>
       </c>
       <c r="E216" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G216" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="F216" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>671</v>
-      </c>
       <c r="H216" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="7" t="n">
@@ -20100,10 +20038,10 @@
         <v>478</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="O216" s="9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="P216" s="9"/>
       <c r="Q216" s="6"/>
@@ -20116,7 +20054,7 @@
       <c r="V216" s="6"/>
       <c r="W216" s="6"/>
       <c r="X216" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
@@ -20124,7 +20062,7 @@
       <c r="AB216" s="6"/>
       <c r="AC216" s="6"/>
       <c r="AD216" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AE216" s="8" t="n">
         <v>0.0425</v>
@@ -20161,13 +20099,13 @@
         <v>495</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="6" t="n">
@@ -20189,14 +20127,14 @@
       <c r="V217" s="6"/>
       <c r="W217" s="6"/>
       <c r="X217" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
       <c r="AA217" s="17"/>
       <c r="AB217" s="6"/>
       <c r="AC217" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD217" s="6" t="s">
         <v>97</v>
@@ -20215,7 +20153,7 @@
         <v>200</v>
       </c>
       <c r="AL217" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM217" s="21" t="n">
         <v>504</v>
@@ -20238,10 +20176,10 @@
         <v>495</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>91</v>
@@ -20272,14 +20210,14 @@
       <c r="V218" s="6"/>
       <c r="W218" s="6"/>
       <c r="X218" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
       <c r="AA218" s="17"/>
       <c r="AB218" s="6"/>
       <c r="AC218" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD218" s="6" t="s">
         <v>97</v>
@@ -20317,10 +20255,10 @@
         <v>495</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>91</v>
@@ -20351,14 +20289,14 @@
       <c r="V219" s="6"/>
       <c r="W219" s="6"/>
       <c r="X219" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
       <c r="AA219" s="17"/>
       <c r="AB219" s="6"/>
       <c r="AC219" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD219" s="6" t="s">
         <v>97</v>
@@ -20393,16 +20331,16 @@
         <v>41</v>
       </c>
       <c r="E220" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="F220" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="H220" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I220" s="6"/>
       <c r="J220" s="7" t="n">
@@ -20414,10 +20352,10 @@
         <v>478</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O220" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P220" s="9"/>
       <c r="Q220" s="6"/>
@@ -20430,7 +20368,7 @@
       <c r="V220" s="6"/>
       <c r="W220" s="6"/>
       <c r="X220" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y220" s="6"/>
       <c r="Z220" s="6"/>
@@ -20438,7 +20376,7 @@
       <c r="AB220" s="6"/>
       <c r="AC220" s="6"/>
       <c r="AD220" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AE220" s="8" t="n">
         <v>0.04</v>
@@ -20472,16 +20410,16 @@
         <v>41</v>
       </c>
       <c r="E221" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="F221" s="6" t="s">
+      <c r="H221" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="H221" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
@@ -20493,7 +20431,7 @@
       <c r="P221" s="9"/>
       <c r="Q221" s="9"/>
       <c r="R221" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="S221" s="6"/>
       <c r="T221" s="6"/>
@@ -20501,7 +20439,7 @@
       <c r="V221" s="6"/>
       <c r="W221" s="6"/>
       <c r="X221" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y221" s="6"/>
       <c r="Z221" s="6"/>
@@ -20509,7 +20447,7 @@
       <c r="AB221" s="6"/>
       <c r="AC221" s="6"/>
       <c r="AD221" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AE221" s="8" t="n">
         <v>0.065</v>
@@ -20517,7 +20455,7 @@
       <c r="AF221" s="6"/>
       <c r="AG221" s="6"/>
       <c r="AH221" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AI221" s="6"/>
       <c r="AJ221" s="6" t="n">
@@ -20527,7 +20465,7 @@
         <v>204</v>
       </c>
       <c r="AL221" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AM221" s="6" t="n">
         <v>311</v>
@@ -20547,16 +20485,16 @@
         <v>41</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F222" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="H222" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="H222" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="I222" s="6"/>
       <c r="J222" s="6" t="n">
@@ -20570,21 +20508,21 @@
         <v>478</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O222" s="9"/>
       <c r="P222" s="9"/>
       <c r="Q222" s="9"/>
       <c r="R222" s="6"/>
       <c r="S222" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
       <c r="W222" s="6"/>
       <c r="X222" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y222" s="6"/>
       <c r="Z222" s="6"/>
@@ -20624,16 +20562,16 @@
         <v>41</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F223" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="H223" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="H223" s="6" t="s">
-        <v>696</v>
       </c>
       <c r="I223" s="6"/>
       <c r="J223" s="6" t="n">
@@ -20645,21 +20583,21 @@
         <v>478</v>
       </c>
       <c r="N223" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O223" s="9"/>
       <c r="P223" s="9"/>
       <c r="Q223" s="9"/>
       <c r="R223" s="6"/>
       <c r="S223" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
       <c r="W223" s="6"/>
       <c r="X223" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
@@ -20702,10 +20640,10 @@
         <v>495</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>483</v>
@@ -20723,16 +20661,16 @@
       <c r="Q224" s="9"/>
       <c r="R224" s="6"/>
       <c r="S224" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
       <c r="V224" s="23" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W224" s="6"/>
       <c r="X224" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
@@ -20748,10 +20686,10 @@
       <c r="AF224" s="6"/>
       <c r="AG224" s="6"/>
       <c r="AH224" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI224" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ224" s="6" t="n">
         <v>2</v>
@@ -20781,13 +20719,13 @@
         <v>495</v>
       </c>
       <c r="F225" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="H225" s="26" t="s">
         <v>703</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="H225" s="26" t="s">
-        <v>705</v>
       </c>
       <c r="I225" s="6"/>
       <c r="J225" s="6" t="n">
@@ -20803,21 +20741,21 @@
         <v>478</v>
       </c>
       <c r="N225" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O225" s="9"/>
       <c r="P225" s="9"/>
       <c r="Q225" s="9"/>
       <c r="R225" s="6"/>
       <c r="S225" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
       <c r="W225" s="6"/>
       <c r="X225" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
@@ -20833,10 +20771,10 @@
       <c r="AF225" s="6"/>
       <c r="AG225" s="6"/>
       <c r="AH225" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI225" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ225" s="6" t="n">
         <v>2</v>
@@ -20866,10 +20804,10 @@
         <v>495</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G226" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H226" s="6" t="s">
         <v>86</v>
@@ -20892,7 +20830,7 @@
       <c r="V226" s="6"/>
       <c r="W226" s="6"/>
       <c r="X226" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y226" s="6"/>
       <c r="Z226" s="6"/>
@@ -20900,7 +20838,7 @@
       <c r="AB226" s="6"/>
       <c r="AC226" s="6"/>
       <c r="AD226" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AE226" s="8" t="n">
         <v>0.01625</v>
@@ -20912,10 +20850,10 @@
         <v>1</v>
       </c>
       <c r="AH226" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI226" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ226" s="6" t="n">
         <v>2</v>
@@ -20924,7 +20862,7 @@
         <v>209</v>
       </c>
       <c r="AL226" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AM226" s="25" t="n">
         <v>312</v>
@@ -20945,13 +20883,13 @@
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G227" s="14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6" t="n">
@@ -20960,47 +20898,47 @@
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
       <c r="M227" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N227" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
       <c r="Q227" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="R227" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S227" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
       <c r="V227" s="6"/>
       <c r="W227" s="6"/>
       <c r="X227" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y227" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
       <c r="AB227" s="6"/>
       <c r="AC227" s="6"/>
       <c r="AD227" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AE227" s="8"/>
       <c r="AF227" s="6"/>
       <c r="AG227" s="6"/>
       <c r="AH227" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI227" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ227" s="6" t="n">
         <v>3</v>
@@ -21028,13 +20966,13 @@
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6" t="n">
@@ -21043,47 +20981,47 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
       <c r="Q228" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="R228" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S228" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
       <c r="V228" s="6"/>
       <c r="W228" s="6"/>
       <c r="X228" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y228" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
       <c r="AB228" s="6"/>
       <c r="AC228" s="6"/>
       <c r="AD228" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AE228" s="8"/>
       <c r="AF228" s="6"/>
       <c r="AG228" s="6"/>
       <c r="AH228" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI228" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ228" s="6" t="n">
         <v>3</v>
@@ -21111,13 +21049,13 @@
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="14" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G229" s="14" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="6" t="n">
@@ -21139,7 +21077,7 @@
       <c r="V229" s="6"/>
       <c r="W229" s="6"/>
       <c r="X229" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y229" s="6"/>
       <c r="Z229" s="6"/>
@@ -21147,16 +21085,16 @@
       <c r="AB229" s="6"/>
       <c r="AC229" s="6"/>
       <c r="AD229" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AE229" s="8"/>
       <c r="AF229" s="6"/>
       <c r="AG229" s="6"/>
       <c r="AH229" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI229" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ229" s="6" t="n">
         <v>3</v>
@@ -21165,7 +21103,7 @@
         <v>213</v>
       </c>
       <c r="AL229" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AM229" s="6" t="n">
         <v>209</v>
@@ -21186,10 +21124,10 @@
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="14" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G230" s="14" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H230" s="6" t="s">
         <v>91</v>
@@ -21201,35 +21139,35 @@
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
       <c r="M230" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N230" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="O230" s="9"/>
       <c r="P230" s="9"/>
       <c r="Q230" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="R230" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S230" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
       <c r="V230" s="6"/>
       <c r="W230" s="6"/>
       <c r="X230" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y230" s="6"/>
       <c r="Z230" s="6"/>
       <c r="AA230" s="6"/>
       <c r="AB230" s="6"/>
       <c r="AC230" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD230" s="6" t="s">
         <v>97</v>
@@ -21238,10 +21176,10 @@
       <c r="AF230" s="6"/>
       <c r="AG230" s="6"/>
       <c r="AH230" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI230" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ230" s="6" t="n">
         <v>4</v>
@@ -21269,10 +21207,10 @@
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="14" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G231" s="14" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>91</v>
@@ -21284,35 +21222,35 @@
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="N231" s="20" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
       <c r="Q231" s="20" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="R231" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S231" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
       <c r="V231" s="6"/>
       <c r="W231" s="6"/>
       <c r="X231" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y231" s="6"/>
       <c r="Z231" s="6"/>
       <c r="AA231" s="6"/>
       <c r="AB231" s="6"/>
       <c r="AC231" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AD231" s="6" t="s">
         <v>97</v>
@@ -21321,10 +21259,10 @@
       <c r="AF231" s="6"/>
       <c r="AG231" s="6"/>
       <c r="AH231" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI231" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ231" s="6" t="n">
         <v>4</v>
@@ -21352,13 +21290,13 @@
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="G232" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="H232" s="26" t="s">
         <v>728</v>
-      </c>
-      <c r="G232" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="H232" s="26" t="s">
-        <v>730</v>
       </c>
       <c r="I232" s="6"/>
       <c r="J232" s="6" t="n">
@@ -21370,7 +21308,7 @@
         <v>478</v>
       </c>
       <c r="N232" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O232" s="9"/>
       <c r="P232" s="9"/>
@@ -21379,14 +21317,14 @@
         <v>93</v>
       </c>
       <c r="S232" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
       <c r="V232" s="6"/>
       <c r="W232" s="6"/>
       <c r="X232" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y232" s="6"/>
       <c r="Z232" s="6"/>
@@ -21400,10 +21338,10 @@
       <c r="AF232" s="6"/>
       <c r="AG232" s="6"/>
       <c r="AH232" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI232" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ232" s="6" t="n">
         <v>3</v>
@@ -21433,13 +21371,13 @@
         <v>495</v>
       </c>
       <c r="F233" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="H233" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="G233" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="H233" s="6" t="s">
-        <v>733</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
@@ -21447,21 +21385,21 @@
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
       <c r="N233" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O233" s="9"/>
       <c r="P233" s="9"/>
       <c r="Q233" s="9"/>
       <c r="R233" s="6"/>
       <c r="S233" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
       <c r="V233" s="6"/>
       <c r="W233" s="6"/>
       <c r="X233" s="24" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Y233" s="6"/>
       <c r="Z233" s="6"/>
@@ -21469,7 +21407,7 @@
       <c r="AB233" s="6"/>
       <c r="AC233" s="6"/>
       <c r="AD233" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AE233" s="8" t="n">
         <v>0.01625</v>
@@ -21477,10 +21415,10 @@
       <c r="AF233" s="6"/>
       <c r="AG233" s="6"/>
       <c r="AH233" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI233" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AJ233" s="6" t="n">
         <v>2</v>
@@ -21510,13 +21448,13 @@
         <v>495</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="6" t="n">
@@ -21538,7 +21476,7 @@
       <c r="V234" s="6"/>
       <c r="W234" s="6"/>
       <c r="X234" s="24" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
@@ -21546,7 +21484,7 @@
       <c r="AB234" s="6"/>
       <c r="AC234" s="6"/>
       <c r="AD234" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AE234" s="8" t="n">
         <v>0.03</v>
@@ -21562,7 +21500,7 @@
         <v>218</v>
       </c>
       <c r="AL234" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AM234" s="27" t="n">
         <v>301</v>
@@ -21585,13 +21523,13 @@
         <v>495</v>
       </c>
       <c r="F235" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="H235" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="H235" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6" t="n">
@@ -21605,7 +21543,7 @@
         <v>478</v>
       </c>
       <c r="N235" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O235" s="9"/>
       <c r="P235" s="9"/>
@@ -21614,14 +21552,14 @@
         <v>93</v>
       </c>
       <c r="S235" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
       <c r="V235" s="6"/>
       <c r="W235" s="6"/>
       <c r="X235" s="24" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
@@ -21629,13 +21567,13 @@
       <c r="AB235" s="6"/>
       <c r="AC235" s="6"/>
       <c r="AD235" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AE235" s="8"/>
       <c r="AF235" s="6"/>
       <c r="AG235" s="6"/>
       <c r="AH235" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AI235" s="6"/>
       <c r="AJ235" s="6" t="n">
@@ -21664,10 +21602,10 @@
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H236" s="6" t="s">
         <v>86</v>
@@ -21708,7 +21646,7 @@
         <v>220</v>
       </c>
       <c r="AL236" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AM236" s="25" t="n">
         <v>400</v>
@@ -21728,16 +21666,16 @@
         <v>490</v>
       </c>
       <c r="E237" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G237" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="F237" s="6" t="s">
+      <c r="H237" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="G237" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="H237" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="6" t="n">
@@ -21747,7 +21685,7 @@
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
       <c r="N237" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="O237" s="9"/>
       <c r="P237" s="9"/>
@@ -21756,7 +21694,7 @@
         <v>93</v>
       </c>
       <c r="S237" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
@@ -21764,7 +21702,7 @@
       <c r="W237" s="6"/>
       <c r="X237" s="6"/>
       <c r="Y237" s="14" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="Z237" s="6"/>
       <c r="AA237" s="17"/>
@@ -21805,16 +21743,16 @@
         <v>490</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="6" t="n">
@@ -21824,7 +21762,7 @@
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
       <c r="N238" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O238" s="9"/>
       <c r="P238" s="9"/>
@@ -21833,7 +21771,7 @@
         <v>93</v>
       </c>
       <c r="S238" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
@@ -21841,7 +21779,7 @@
       <c r="W238" s="6"/>
       <c r="X238" s="6"/>
       <c r="Y238" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="Z238" s="6"/>
       <c r="AA238" s="17"/>
@@ -21882,16 +21820,16 @@
         <v>490</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6" t="n">
@@ -21901,7 +21839,7 @@
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
       <c r="N239" s="14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="O239" s="9"/>
       <c r="P239" s="9"/>
@@ -21910,7 +21848,7 @@
         <v>93</v>
       </c>
       <c r="S239" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
@@ -21918,7 +21856,7 @@
       <c r="W239" s="6"/>
       <c r="X239" s="6"/>
       <c r="Y239" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="Z239" s="6"/>
       <c r="AA239" s="17"/>
@@ -21956,22 +21894,22 @@
         <v>40</v>
       </c>
       <c r="D240" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="E240" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="F240" s="25" t="s">
         <v>756</v>
       </c>
-      <c r="E240" s="25" t="s">
+      <c r="G240" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="F240" s="25" t="s">
+      <c r="H240" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="G240" s="25" t="s">
+      <c r="I240" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="H240" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="I240" s="6" t="s">
-        <v>761</v>
       </c>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
@@ -21983,7 +21921,7 @@
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
       <c r="S240" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -22006,7 +21944,7 @@
         <v>224</v>
       </c>
       <c r="AL240" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AM240" s="6"/>
     </row>
@@ -22021,22 +21959,22 @@
         <v>40</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E241" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G241" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="F241" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="G241" s="21" t="s">
-        <v>766</v>
-      </c>
       <c r="H241" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
@@ -22048,7 +21986,7 @@
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -22071,7 +22009,7 @@
         <v>225</v>
       </c>
       <c r="AL241" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AM241" s="6"/>
     </row>
@@ -22086,36 +22024,36 @@
         <v>40</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E242" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="F242" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="G242" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="F242" s="25" t="s">
+      <c r="H242" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="G242" s="25" t="s">
+      <c r="I242" s="6" t="s">
         <v>770</v>
-      </c>
-      <c r="H242" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="I242" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
       <c r="N242" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -22153,22 +22091,22 @@
         <v>40</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E243" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="F243" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="G243" s="25" t="s">
         <v>774</v>
       </c>
-      <c r="F243" s="25" t="s">
+      <c r="H243" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="G243" s="25" t="s">
+      <c r="I243" s="6" t="s">
         <v>776</v>
-      </c>
-      <c r="H243" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="I243" s="6" t="s">
-        <v>778</v>
       </c>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
@@ -22180,7 +22118,7 @@
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -22203,7 +22141,7 @@
         <v>228</v>
       </c>
       <c r="AL243" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AM243" s="6"/>
     </row>
@@ -22218,22 +22156,22 @@
         <v>40</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E244" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="F244" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="G244" s="25" t="s">
         <v>780</v>
       </c>
-      <c r="F244" s="25" t="s">
+      <c r="H244" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="G244" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="H244" s="6" t="s">
-        <v>783</v>
-      </c>
       <c r="I244" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
@@ -22245,7 +22183,7 @@
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
@@ -22283,36 +22221,36 @@
         <v>40</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E245" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="F245" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="G245" s="25" t="s">
         <v>784</v>
       </c>
-      <c r="F245" s="25" t="s">
+      <c r="H245" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="G245" s="25" t="s">
-        <v>786</v>
-      </c>
-      <c r="H245" s="6" t="s">
-        <v>787</v>
-      </c>
       <c r="I245" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
       <c r="N245" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
       <c r="S245" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
@@ -22348,36 +22286,36 @@
         <v>40</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E246" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="F246" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="G246" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="F246" s="25" t="s">
+      <c r="H246" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="G246" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="H246" s="6" t="s">
-        <v>793</v>
-      </c>
       <c r="I246" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
       <c r="N246" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
       <c r="S246" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
@@ -22413,38 +22351,38 @@
         <v>40</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E247" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="F247" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="G247" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F247" s="25" t="s">
-        <v>796</v>
-      </c>
-      <c r="G247" s="25" t="s">
-        <v>797</v>
-      </c>
       <c r="H247" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
       <c r="M247" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N247" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
       <c r="S247" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
@@ -22482,38 +22420,38 @@
         <v>40</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E248" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="F248" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="G248" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F248" s="25" t="s">
-        <v>796</v>
-      </c>
-      <c r="G248" s="25" t="s">
-        <v>797</v>
-      </c>
       <c r="H248" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
       <c r="M248" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N248" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
       <c r="S248" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
@@ -22551,38 +22489,38 @@
         <v>40</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E249" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="F249" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="G249" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F249" s="25" t="s">
-        <v>796</v>
-      </c>
-      <c r="G249" s="25" t="s">
-        <v>797</v>
-      </c>
       <c r="H249" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N249" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
       <c r="S249" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
@@ -22620,38 +22558,38 @@
         <v>40</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E250" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="F250" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="G250" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F250" s="25" t="s">
-        <v>796</v>
-      </c>
-      <c r="G250" s="25" t="s">
-        <v>797</v>
-      </c>
       <c r="H250" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="N250" s="28" t="s">
         <v>798</v>
-      </c>
-      <c r="N250" s="28" t="s">
-        <v>800</v>
       </c>
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
       <c r="R250" s="6"/>
       <c r="S250" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
@@ -22689,38 +22627,38 @@
         <v>40</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E251" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="F251" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="G251" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F251" s="25" t="s">
-        <v>796</v>
-      </c>
-      <c r="G251" s="25" t="s">
-        <v>797</v>
-      </c>
       <c r="H251" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
       <c r="M251" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N251" s="28" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
       <c r="R251" s="6"/>
       <c r="S251" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
@@ -22756,38 +22694,38 @@
         <v>40</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E252" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="F252" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="G252" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F252" s="25" t="s">
-        <v>796</v>
-      </c>
-      <c r="G252" s="25" t="s">
-        <v>797</v>
-      </c>
       <c r="H252" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N252" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
       <c r="S252" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
@@ -22810,7 +22748,7 @@
         <v>238</v>
       </c>
       <c r="AL252" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AM252" s="6"/>
     </row>
@@ -22825,38 +22763,38 @@
         <v>40</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E253" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="F253" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="G253" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="F253" s="25" t="s">
-        <v>796</v>
-      </c>
-      <c r="G253" s="25" t="s">
-        <v>797</v>
-      </c>
       <c r="H253" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
       <c r="M253" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N253" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
       <c r="S253" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -12,10 +12,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$253</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="801">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1689,10 +1689,6 @@
   </si>
   <si>
     <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола Зеро - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Coca-Cola Zero - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
@@ -3019,48 +3015,47 @@
   <dimension ref="A1:AM253"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E216" activeCellId="0" sqref="E216"/>
+      <selection pane="bottomLeft" activeCell="M156" activeCellId="0" sqref="M156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.9473684210526"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="80.5546558704453"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="81.3036437246964"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.8542510121457"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
@@ -15337,7 +15332,7 @@
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
       <c r="M155" s="25" t="s">
-        <v>502</v>
+        <v>107</v>
       </c>
       <c r="N155" s="24" t="n">
         <v>5449000133335</v>
@@ -15399,10 +15394,10 @@
         <v>495</v>
       </c>
       <c r="F156" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="G156" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>504</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>91</v>
@@ -15476,10 +15471,10 @@
         <v>470</v>
       </c>
       <c r="F157" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="G157" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="H157" s="8" t="s">
         <v>473</v>
@@ -15528,7 +15523,7 @@
         <v>140</v>
       </c>
       <c r="AL157" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AM157" s="8" t="n">
         <v>303</v>
@@ -15551,10 +15546,10 @@
         <v>470</v>
       </c>
       <c r="F158" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="G158" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>509</v>
       </c>
       <c r="H158" s="8" t="s">
         <v>91</v>
@@ -15569,10 +15564,10 @@
         <v>478</v>
       </c>
       <c r="N158" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O158" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -15630,10 +15625,10 @@
         <v>470</v>
       </c>
       <c r="F159" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="G159" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>512</v>
       </c>
       <c r="H159" s="8" t="s">
         <v>483</v>
@@ -15658,7 +15653,7 @@
       <c r="T159" s="8"/>
       <c r="U159" s="8"/>
       <c r="V159" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W159" s="8"/>
       <c r="X159" s="8"/>
@@ -15705,13 +15700,13 @@
         <v>470</v>
       </c>
       <c r="F160" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="G160" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="G160" s="8" t="s">
+      <c r="H160" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="H160" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="10" t="n">
@@ -15755,7 +15750,7 @@
         <v>143</v>
       </c>
       <c r="AL160" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AM160" s="8" t="n">
         <v>140</v>
@@ -15778,10 +15773,10 @@
         <v>470</v>
       </c>
       <c r="F161" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="G161" s="8" t="s">
         <v>518</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>519</v>
       </c>
       <c r="H161" s="8" t="s">
         <v>488</v>
@@ -15824,7 +15819,7 @@
       <c r="AF161" s="8"/>
       <c r="AG161" s="8"/>
       <c r="AH161" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AI161" s="8"/>
       <c r="AJ161" s="8" t="n">
@@ -15855,10 +15850,10 @@
         <v>470</v>
       </c>
       <c r="F162" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="G162" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="G162" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="H162" s="8" t="s">
         <v>488</v>
@@ -15901,7 +15896,7 @@
       <c r="AF162" s="8"/>
       <c r="AG162" s="8"/>
       <c r="AH162" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI162" s="8"/>
       <c r="AJ162" s="8" t="n">
@@ -15932,10 +15927,10 @@
         <v>495</v>
       </c>
       <c r="F163" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="G163" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="H163" s="8" t="s">
         <v>473</v>
@@ -15976,10 +15971,10 @@
       <c r="AF163" s="8"/>
       <c r="AG163" s="8"/>
       <c r="AH163" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AI163" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AJ163" s="8" t="n">
         <v>2</v>
@@ -15988,7 +15983,7 @@
         <v>146</v>
       </c>
       <c r="AL163" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AM163" s="8" t="n">
         <v>303</v>
@@ -16011,10 +16006,10 @@
         <v>495</v>
       </c>
       <c r="F164" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="G164" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>529</v>
       </c>
       <c r="H164" s="8" t="s">
         <v>91</v>
@@ -16088,10 +16083,10 @@
         <v>495</v>
       </c>
       <c r="F165" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="G165" s="8" t="s">
         <v>530</v>
-      </c>
-      <c r="G165" s="8" t="s">
-        <v>531</v>
       </c>
       <c r="H165" s="8" t="s">
         <v>91</v>
@@ -16165,10 +16160,10 @@
         <v>495</v>
       </c>
       <c r="F166" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="G166" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>533</v>
       </c>
       <c r="H166" s="8" t="s">
         <v>91</v>
@@ -16242,10 +16237,10 @@
         <v>495</v>
       </c>
       <c r="F167" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="G167" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>535</v>
       </c>
       <c r="H167" s="8" t="s">
         <v>91</v>
@@ -16319,10 +16314,10 @@
         <v>470</v>
       </c>
       <c r="F168" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="G168" s="8" t="s">
         <v>536</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>537</v>
       </c>
       <c r="H168" s="8" t="s">
         <v>473</v>
@@ -16371,7 +16366,7 @@
         <v>151</v>
       </c>
       <c r="AL168" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AM168" s="8" t="n">
         <v>302</v>
@@ -16394,10 +16389,10 @@
         <v>470</v>
       </c>
       <c r="F169" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="G169" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="G169" s="8" t="s">
-        <v>540</v>
       </c>
       <c r="H169" s="8" t="s">
         <v>91</v>
@@ -16473,10 +16468,10 @@
         <v>470</v>
       </c>
       <c r="F170" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G170" s="8" t="s">
         <v>541</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>542</v>
       </c>
       <c r="H170" s="8" t="s">
         <v>483</v>
@@ -16501,7 +16496,7 @@
       <c r="T170" s="8"/>
       <c r="U170" s="8"/>
       <c r="V170" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W170" s="8"/>
       <c r="X170" s="8"/>
@@ -16548,10 +16543,10 @@
         <v>470</v>
       </c>
       <c r="F171" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="G171" s="8" t="s">
         <v>544</v>
-      </c>
-      <c r="G171" s="8" t="s">
-        <v>545</v>
       </c>
       <c r="H171" s="8" t="s">
         <v>488</v>
@@ -16561,7 +16556,7 @@
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
       <c r="M171" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N171" s="12" t="s">
         <v>103</v>
@@ -16596,7 +16591,7 @@
       <c r="AF171" s="8"/>
       <c r="AG171" s="8"/>
       <c r="AH171" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AI171" s="8"/>
       <c r="AJ171" s="8" t="n">
@@ -16627,10 +16622,10 @@
         <v>470</v>
       </c>
       <c r="F172" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G172" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="G172" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="H172" s="8" t="s">
         <v>473</v>
@@ -16679,7 +16674,7 @@
         <v>155</v>
       </c>
       <c r="AL172" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AM172" s="8" t="n">
         <v>320</v>
@@ -16702,10 +16697,10 @@
         <v>470</v>
       </c>
       <c r="F173" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G173" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="G173" s="8" t="s">
-        <v>552</v>
       </c>
       <c r="H173" s="8" t="s">
         <v>91</v>
@@ -16720,20 +16715,20 @@
         <v>478</v>
       </c>
       <c r="N173" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="O173" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="O173" s="12" t="s">
-        <v>554</v>
-      </c>
       <c r="P173" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q173" s="12"/>
       <c r="R173" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S173" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -16783,10 +16778,10 @@
         <v>470</v>
       </c>
       <c r="F174" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="G174" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>557</v>
       </c>
       <c r="H174" s="8" t="s">
         <v>483</v>
@@ -16811,7 +16806,7 @@
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
       <c r="V174" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W174" s="8"/>
       <c r="X174" s="8" t="s">
@@ -16858,13 +16853,13 @@
         <v>470</v>
       </c>
       <c r="F175" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G175" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G175" s="8" t="s">
-        <v>560</v>
-      </c>
       <c r="H175" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="10" t="n">
@@ -16908,7 +16903,7 @@
         <v>158</v>
       </c>
       <c r="AL175" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AM175" s="8" t="n">
         <v>155</v>
@@ -16931,10 +16926,10 @@
         <v>470</v>
       </c>
       <c r="F176" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="G176" s="12" t="s">
         <v>562</v>
-      </c>
-      <c r="G176" s="12" t="s">
-        <v>563</v>
       </c>
       <c r="H176" s="8" t="s">
         <v>488</v>
@@ -16977,7 +16972,7 @@
       <c r="AF176" s="8"/>
       <c r="AG176" s="8"/>
       <c r="AH176" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AI176" s="8"/>
       <c r="AJ176" s="8" t="n">
@@ -17008,10 +17003,10 @@
         <v>470</v>
       </c>
       <c r="F177" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="G177" s="12" t="s">
         <v>565</v>
-      </c>
-      <c r="G177" s="12" t="s">
-        <v>566</v>
       </c>
       <c r="H177" s="8" t="s">
         <v>488</v>
@@ -17054,7 +17049,7 @@
       <c r="AF177" s="8"/>
       <c r="AG177" s="8"/>
       <c r="AH177" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AI177" s="8"/>
       <c r="AJ177" s="8" t="n">
@@ -17085,10 +17080,10 @@
         <v>470</v>
       </c>
       <c r="F178" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G178" s="12" t="s">
         <v>568</v>
-      </c>
-      <c r="G178" s="12" t="s">
-        <v>569</v>
       </c>
       <c r="H178" s="8" t="s">
         <v>488</v>
@@ -17131,7 +17126,7 @@
       <c r="AF178" s="8"/>
       <c r="AG178" s="8"/>
       <c r="AH178" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI178" s="8"/>
       <c r="AJ178" s="8" t="n">
@@ -17162,10 +17157,10 @@
         <v>470</v>
       </c>
       <c r="F179" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="G179" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="G179" s="8" t="s">
-        <v>572</v>
       </c>
       <c r="H179" s="8" t="s">
         <v>473</v>
@@ -17214,7 +17209,7 @@
         <v>162</v>
       </c>
       <c r="AL179" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AM179" s="8" t="n">
         <v>302</v>
@@ -17237,10 +17232,10 @@
         <v>470</v>
       </c>
       <c r="F180" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="G180" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>575</v>
       </c>
       <c r="H180" s="8" t="s">
         <v>91</v>
@@ -17316,10 +17311,10 @@
         <v>470</v>
       </c>
       <c r="F181" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="G181" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="G181" s="8" t="s">
-        <v>577</v>
       </c>
       <c r="H181" s="8" t="s">
         <v>483</v>
@@ -17344,7 +17339,7 @@
       <c r="T181" s="8"/>
       <c r="U181" s="8"/>
       <c r="V181" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W181" s="8"/>
       <c r="X181" s="27"/>
@@ -17391,13 +17386,13 @@
         <v>470</v>
       </c>
       <c r="F182" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="G182" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="G182" s="8" t="s">
-        <v>580</v>
-      </c>
       <c r="H182" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I182" s="8"/>
       <c r="J182" s="10" t="n">
@@ -17464,7 +17459,7 @@
         <v>470</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G183" s="12" t="s">
         <v>147</v>
@@ -17512,7 +17507,7 @@
       <c r="AF183" s="8"/>
       <c r="AG183" s="8"/>
       <c r="AH183" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI183" s="8"/>
       <c r="AJ183" s="8" t="n">
@@ -17543,10 +17538,10 @@
         <v>470</v>
       </c>
       <c r="F184" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="G184" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="H184" s="8" t="s">
         <v>473</v>
@@ -17595,7 +17590,7 @@
         <v>167</v>
       </c>
       <c r="AL184" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM184" s="8" t="n">
         <v>303</v>
@@ -17618,10 +17613,10 @@
         <v>470</v>
       </c>
       <c r="F185" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="G185" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="G185" s="8" t="s">
-        <v>586</v>
       </c>
       <c r="H185" s="8" t="s">
         <v>91</v>
@@ -17636,10 +17631,10 @@
         <v>478</v>
       </c>
       <c r="N185" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O185" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -17697,10 +17692,10 @@
         <v>470</v>
       </c>
       <c r="F186" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="G186" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="G186" s="8" t="s">
-        <v>588</v>
       </c>
       <c r="H186" s="8" t="s">
         <v>483</v>
@@ -17725,7 +17720,7 @@
       <c r="T186" s="8"/>
       <c r="U186" s="8"/>
       <c r="V186" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W186" s="8"/>
       <c r="X186" s="8"/>
@@ -17772,10 +17767,10 @@
         <v>470</v>
       </c>
       <c r="F187" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="G187" s="12" t="s">
         <v>589</v>
-      </c>
-      <c r="G187" s="12" t="s">
-        <v>590</v>
       </c>
       <c r="H187" s="8" t="s">
         <v>91</v>
@@ -17820,7 +17815,7 @@
       <c r="AF187" s="8"/>
       <c r="AG187" s="8"/>
       <c r="AH187" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AI187" s="8"/>
       <c r="AJ187" s="8" t="n">
@@ -17851,10 +17846,10 @@
         <v>470</v>
       </c>
       <c r="F188" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="G188" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="G188" s="8" t="s">
-        <v>593</v>
       </c>
       <c r="H188" s="8" t="s">
         <v>473</v>
@@ -17903,7 +17898,7 @@
         <v>171</v>
       </c>
       <c r="AL188" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AM188" s="8" t="n">
         <v>321</v>
@@ -17926,10 +17921,10 @@
         <v>470</v>
       </c>
       <c r="F189" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="G189" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="G189" s="8" t="s">
-        <v>596</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>91</v>
@@ -17944,10 +17939,10 @@
         <v>478</v>
       </c>
       <c r="N189" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O189" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -18005,10 +18000,10 @@
         <v>470</v>
       </c>
       <c r="F190" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G190" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="G190" s="8" t="s">
-        <v>599</v>
       </c>
       <c r="H190" s="8" t="s">
         <v>483</v>
@@ -18033,7 +18028,7 @@
       <c r="T190" s="8"/>
       <c r="U190" s="8"/>
       <c r="V190" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="W190" s="8"/>
       <c r="X190" s="8" t="s">
@@ -18080,13 +18075,13 @@
         <v>470</v>
       </c>
       <c r="F191" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="G191" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="G191" s="8" t="s">
-        <v>602</v>
-      </c>
       <c r="H191" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I191" s="8"/>
       <c r="J191" s="10" t="n">
@@ -18130,7 +18125,7 @@
         <v>174</v>
       </c>
       <c r="AL191" s="14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM191" s="8" t="n">
         <v>171</v>
@@ -18153,10 +18148,10 @@
         <v>470</v>
       </c>
       <c r="F192" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="G192" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>605</v>
       </c>
       <c r="H192" s="8" t="s">
         <v>488</v>
@@ -18199,7 +18194,7 @@
       <c r="AF192" s="8"/>
       <c r="AG192" s="8"/>
       <c r="AH192" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AI192" s="8"/>
       <c r="AJ192" s="8" t="n">
@@ -18230,10 +18225,10 @@
         <v>470</v>
       </c>
       <c r="F193" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="G193" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>608</v>
       </c>
       <c r="H193" s="8" t="s">
         <v>488</v>
@@ -18276,7 +18271,7 @@
       <c r="AF193" s="8"/>
       <c r="AG193" s="8"/>
       <c r="AH193" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AI193" s="8"/>
       <c r="AJ193" s="8" t="n">
@@ -18307,10 +18302,10 @@
         <v>470</v>
       </c>
       <c r="F194" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="G194" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>611</v>
       </c>
       <c r="H194" s="8" t="s">
         <v>488</v>
@@ -18353,7 +18348,7 @@
       <c r="AF194" s="8"/>
       <c r="AG194" s="8"/>
       <c r="AH194" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AI194" s="8"/>
       <c r="AJ194" s="8" t="n">
@@ -18384,10 +18379,10 @@
         <v>470</v>
       </c>
       <c r="F195" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="G195" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="G195" s="8" t="s">
-        <v>613</v>
       </c>
       <c r="H195" s="8" t="s">
         <v>488</v>
@@ -18430,7 +18425,7 @@
       <c r="AF195" s="8"/>
       <c r="AG195" s="8"/>
       <c r="AH195" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AI195" s="8"/>
       <c r="AJ195" s="8" t="n">
@@ -18458,16 +18453,16 @@
         <v>490</v>
       </c>
       <c r="E196" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F196" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="F196" s="8" t="s">
+      <c r="G196" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="G196" s="8" t="s">
+      <c r="H196" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="H196" s="8" t="s">
-        <v>617</v>
       </c>
       <c r="I196" s="8"/>
       <c r="J196" s="10" t="n">
@@ -18495,7 +18490,7 @@
       <c r="V196" s="8"/>
       <c r="W196" s="8"/>
       <c r="X196" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y196" s="8"/>
       <c r="Z196" s="8"/>
@@ -18503,7 +18498,7 @@
       <c r="AB196" s="8"/>
       <c r="AC196" s="8"/>
       <c r="AD196" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AE196" s="11" t="n">
         <v>0.0725</v>
@@ -18540,13 +18535,13 @@
         <v>495</v>
       </c>
       <c r="F197" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="G197" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="G197" s="8" t="s">
+      <c r="H197" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="H197" s="8" t="s">
-        <v>622</v>
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="10" t="n">
@@ -18568,14 +18563,14 @@
       <c r="V197" s="8"/>
       <c r="W197" s="8"/>
       <c r="X197" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y197" s="8"/>
       <c r="Z197" s="8"/>
       <c r="AA197" s="21"/>
       <c r="AB197" s="8"/>
       <c r="AC197" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD197" s="8" t="s">
         <v>97</v>
@@ -18594,7 +18589,7 @@
         <v>180</v>
       </c>
       <c r="AL197" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AM197" s="25" t="n">
         <v>501</v>
@@ -18617,10 +18612,10 @@
         <v>495</v>
       </c>
       <c r="F198" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="G198" s="8" t="s">
         <v>625</v>
-      </c>
-      <c r="G198" s="8" t="s">
-        <v>626</v>
       </c>
       <c r="H198" s="8" t="s">
         <v>91</v>
@@ -18651,14 +18646,14 @@
       <c r="V198" s="8"/>
       <c r="W198" s="8"/>
       <c r="X198" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y198" s="8"/>
       <c r="Z198" s="8"/>
       <c r="AA198" s="21"/>
       <c r="AB198" s="8"/>
       <c r="AC198" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD198" s="8" t="s">
         <v>97</v>
@@ -18696,10 +18691,10 @@
         <v>495</v>
       </c>
       <c r="F199" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="G199" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>628</v>
       </c>
       <c r="H199" s="8" t="s">
         <v>91</v>
@@ -18711,7 +18706,7 @@
       <c r="K199" s="10"/>
       <c r="L199" s="10"/>
       <c r="M199" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N199" s="12" t="s">
         <v>103</v>
@@ -18730,14 +18725,14 @@
       <c r="V199" s="8"/>
       <c r="W199" s="8"/>
       <c r="X199" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y199" s="8"/>
       <c r="Z199" s="8"/>
       <c r="AA199" s="21"/>
       <c r="AB199" s="8"/>
       <c r="AC199" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD199" s="8" t="s">
         <v>97</v>
@@ -18775,10 +18770,10 @@
         <v>495</v>
       </c>
       <c r="F200" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="G200" s="8" t="s">
         <v>630</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>631</v>
       </c>
       <c r="H200" s="8" t="s">
         <v>91</v>
@@ -18809,14 +18804,14 @@
       <c r="V200" s="8"/>
       <c r="W200" s="8"/>
       <c r="X200" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y200" s="8"/>
       <c r="Z200" s="8"/>
       <c r="AA200" s="21"/>
       <c r="AB200" s="8"/>
       <c r="AC200" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD200" s="8" t="s">
         <v>97</v>
@@ -18854,10 +18849,10 @@
         <v>495</v>
       </c>
       <c r="F201" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="G201" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="G201" s="8" t="s">
-        <v>633</v>
       </c>
       <c r="H201" s="8" t="s">
         <v>91</v>
@@ -18888,14 +18883,14 @@
       <c r="V201" s="8"/>
       <c r="W201" s="8"/>
       <c r="X201" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y201" s="8"/>
       <c r="Z201" s="8"/>
       <c r="AA201" s="21"/>
       <c r="AB201" s="8"/>
       <c r="AC201" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD201" s="8" t="s">
         <v>97</v>
@@ -18933,10 +18928,10 @@
         <v>495</v>
       </c>
       <c r="F202" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="G202" s="8" t="s">
         <v>634</v>
-      </c>
-      <c r="G202" s="8" t="s">
-        <v>635</v>
       </c>
       <c r="H202" s="8" t="s">
         <v>91</v>
@@ -18967,14 +18962,14 @@
       <c r="V202" s="8"/>
       <c r="W202" s="8"/>
       <c r="X202" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y202" s="8"/>
       <c r="Z202" s="8"/>
       <c r="AA202" s="21"/>
       <c r="AB202" s="8"/>
       <c r="AC202" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD202" s="8" t="s">
         <v>97</v>
@@ -19012,10 +19007,10 @@
         <v>495</v>
       </c>
       <c r="F203" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="G203" s="8" t="s">
         <v>636</v>
-      </c>
-      <c r="G203" s="8" t="s">
-        <v>637</v>
       </c>
       <c r="H203" s="8" t="s">
         <v>91</v>
@@ -19027,7 +19022,7 @@
       <c r="K203" s="10"/>
       <c r="L203" s="10"/>
       <c r="M203" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N203" s="12" t="s">
         <v>181</v>
@@ -19046,14 +19041,14 @@
       <c r="V203" s="8"/>
       <c r="W203" s="8"/>
       <c r="X203" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y203" s="8"/>
       <c r="Z203" s="8"/>
       <c r="AA203" s="21"/>
       <c r="AB203" s="8"/>
       <c r="AC203" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD203" s="8" t="s">
         <v>97</v>
@@ -19091,10 +19086,10 @@
         <v>495</v>
       </c>
       <c r="F204" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="G204" s="8" t="s">
         <v>639</v>
-      </c>
-      <c r="G204" s="8" t="s">
-        <v>640</v>
       </c>
       <c r="H204" s="8" t="s">
         <v>91</v>
@@ -19125,14 +19120,14 @@
       <c r="V204" s="8"/>
       <c r="W204" s="8"/>
       <c r="X204" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y204" s="8"/>
       <c r="Z204" s="8"/>
       <c r="AA204" s="21"/>
       <c r="AB204" s="8"/>
       <c r="AC204" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD204" s="8" t="s">
         <v>97</v>
@@ -19170,10 +19165,10 @@
         <v>495</v>
       </c>
       <c r="F205" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G205" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="G205" s="8" t="s">
-        <v>642</v>
       </c>
       <c r="H205" s="8" t="s">
         <v>91</v>
@@ -19204,14 +19199,14 @@
       <c r="V205" s="8"/>
       <c r="W205" s="8"/>
       <c r="X205" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y205" s="8"/>
       <c r="Z205" s="8"/>
       <c r="AA205" s="21"/>
       <c r="AB205" s="8"/>
       <c r="AC205" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD205" s="8" t="s">
         <v>97</v>
@@ -19246,16 +19241,16 @@
         <v>41</v>
       </c>
       <c r="E206" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="F206" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="F206" s="8" t="s">
+      <c r="G206" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="G206" s="8" t="s">
-        <v>645</v>
-      </c>
       <c r="H206" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I206" s="8"/>
       <c r="J206" s="10" t="n">
@@ -19267,10 +19262,10 @@
         <v>478</v>
       </c>
       <c r="N206" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O206" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="8"/>
@@ -19283,7 +19278,7 @@
       <c r="V206" s="8"/>
       <c r="W206" s="8"/>
       <c r="X206" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y206" s="8"/>
       <c r="Z206" s="8"/>
@@ -19291,7 +19286,7 @@
       <c r="AB206" s="8"/>
       <c r="AC206" s="8"/>
       <c r="AD206" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AE206" s="11" t="n">
         <v>0.0625</v>
@@ -19328,13 +19323,13 @@
         <v>495</v>
       </c>
       <c r="F207" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="G207" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="G207" s="8" t="s">
-        <v>647</v>
-      </c>
       <c r="H207" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I207" s="8"/>
       <c r="J207" s="10" t="n">
@@ -19356,14 +19351,14 @@
       <c r="V207" s="8"/>
       <c r="W207" s="8"/>
       <c r="X207" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y207" s="8"/>
       <c r="Z207" s="8"/>
       <c r="AA207" s="21"/>
       <c r="AB207" s="8"/>
       <c r="AC207" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD207" s="8" t="s">
         <v>97</v>
@@ -19382,7 +19377,7 @@
         <v>190</v>
       </c>
       <c r="AL207" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AM207" s="25" t="n">
         <v>502</v>
@@ -19405,10 +19400,10 @@
         <v>495</v>
       </c>
       <c r="F208" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="G208" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="G208" s="8" t="s">
-        <v>650</v>
       </c>
       <c r="H208" s="8" t="s">
         <v>91</v>
@@ -19439,14 +19434,14 @@
       <c r="V208" s="8"/>
       <c r="W208" s="8"/>
       <c r="X208" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y208" s="8"/>
       <c r="Z208" s="8"/>
       <c r="AA208" s="21"/>
       <c r="AB208" s="8"/>
       <c r="AC208" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD208" s="8" t="s">
         <v>97</v>
@@ -19484,10 +19479,10 @@
         <v>495</v>
       </c>
       <c r="F209" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="G209" s="8" t="s">
         <v>651</v>
-      </c>
-      <c r="G209" s="8" t="s">
-        <v>652</v>
       </c>
       <c r="H209" s="8" t="s">
         <v>91</v>
@@ -19518,14 +19513,14 @@
       <c r="V209" s="8"/>
       <c r="W209" s="8"/>
       <c r="X209" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y209" s="8"/>
       <c r="Z209" s="8"/>
       <c r="AA209" s="21"/>
       <c r="AB209" s="8"/>
       <c r="AC209" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD209" s="8" t="s">
         <v>97</v>
@@ -19563,10 +19558,10 @@
         <v>495</v>
       </c>
       <c r="F210" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="G210" s="8" t="s">
         <v>653</v>
-      </c>
-      <c r="G210" s="8" t="s">
-        <v>654</v>
       </c>
       <c r="H210" s="8" t="s">
         <v>91</v>
@@ -19597,14 +19592,14 @@
       <c r="V210" s="8"/>
       <c r="W210" s="8"/>
       <c r="X210" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y210" s="8"/>
       <c r="Z210" s="8"/>
       <c r="AA210" s="21"/>
       <c r="AB210" s="8"/>
       <c r="AC210" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD210" s="8" t="s">
         <v>97</v>
@@ -19642,10 +19637,10 @@
         <v>495</v>
       </c>
       <c r="F211" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="G211" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="G211" s="8" t="s">
-        <v>656</v>
       </c>
       <c r="H211" s="8" t="s">
         <v>91</v>
@@ -19676,14 +19671,14 @@
       <c r="V211" s="8"/>
       <c r="W211" s="8"/>
       <c r="X211" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y211" s="8"/>
       <c r="Z211" s="8"/>
       <c r="AA211" s="21"/>
       <c r="AB211" s="8"/>
       <c r="AC211" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD211" s="8" t="s">
         <v>97</v>
@@ -19721,10 +19716,10 @@
         <v>495</v>
       </c>
       <c r="F212" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="G212" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>658</v>
       </c>
       <c r="H212" s="8" t="s">
         <v>91</v>
@@ -19755,14 +19750,14 @@
       <c r="V212" s="8"/>
       <c r="W212" s="8"/>
       <c r="X212" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y212" s="8"/>
       <c r="Z212" s="8"/>
       <c r="AA212" s="21"/>
       <c r="AB212" s="8"/>
       <c r="AC212" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD212" s="8" t="s">
         <v>97</v>
@@ -19797,16 +19792,16 @@
         <v>41</v>
       </c>
       <c r="E213" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="F213" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="F213" s="8" t="s">
+      <c r="G213" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="G213" s="8" t="s">
-        <v>661</v>
-      </c>
       <c r="H213" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I213" s="8"/>
       <c r="J213" s="10" t="n">
@@ -19818,10 +19813,10 @@
         <v>478</v>
       </c>
       <c r="N213" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O213" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P213" s="12"/>
       <c r="Q213" s="8"/>
@@ -19834,7 +19829,7 @@
       <c r="V213" s="8"/>
       <c r="W213" s="8"/>
       <c r="X213" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y213" s="8"/>
       <c r="Z213" s="8"/>
@@ -19842,7 +19837,7 @@
       <c r="AB213" s="8"/>
       <c r="AC213" s="8"/>
       <c r="AD213" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AE213" s="11" t="n">
         <v>0.0225</v>
@@ -19879,13 +19874,13 @@
         <v>495</v>
       </c>
       <c r="F214" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="G214" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="G214" s="8" t="s">
-        <v>664</v>
-      </c>
       <c r="H214" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I214" s="8"/>
       <c r="J214" s="10" t="n">
@@ -19907,14 +19902,14 @@
       <c r="V214" s="8"/>
       <c r="W214" s="8"/>
       <c r="X214" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y214" s="8"/>
       <c r="Z214" s="8"/>
       <c r="AA214" s="21"/>
       <c r="AB214" s="8"/>
       <c r="AC214" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD214" s="8" t="s">
         <v>97</v>
@@ -19933,7 +19928,7 @@
         <v>197</v>
       </c>
       <c r="AL214" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AM214" s="25" t="n">
         <v>503</v>
@@ -19956,7 +19951,7 @@
         <v>495</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>218</v>
@@ -19973,8 +19968,8 @@
       <c r="M215" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="N215" s="12" t="n">
-        <v>40822426</v>
+      <c r="N215" s="24" t="n">
+        <v>5449000005489</v>
       </c>
       <c r="O215" s="12"/>
       <c r="P215" s="12"/>
@@ -19990,14 +19985,14 @@
       <c r="V215" s="8"/>
       <c r="W215" s="8"/>
       <c r="X215" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y215" s="8"/>
       <c r="Z215" s="8"/>
       <c r="AA215" s="21"/>
       <c r="AB215" s="8"/>
       <c r="AC215" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD215" s="8" t="s">
         <v>97</v>
@@ -20032,16 +20027,16 @@
         <v>41</v>
       </c>
       <c r="E216" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F216" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="F216" s="8" t="s">
+      <c r="G216" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="G216" s="8" t="s">
-        <v>669</v>
-      </c>
       <c r="H216" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I216" s="8"/>
       <c r="J216" s="10" t="n">
@@ -20053,10 +20048,10 @@
         <v>478</v>
       </c>
       <c r="N216" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O216" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P216" s="12"/>
       <c r="Q216" s="8"/>
@@ -20069,7 +20064,7 @@
       <c r="V216" s="8"/>
       <c r="W216" s="8"/>
       <c r="X216" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y216" s="8"/>
       <c r="Z216" s="8"/>
@@ -20077,7 +20072,7 @@
       <c r="AB216" s="8"/>
       <c r="AC216" s="8"/>
       <c r="AD216" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AE216" s="11" t="n">
         <v>0.0425</v>
@@ -20114,13 +20109,13 @@
         <v>495</v>
       </c>
       <c r="F217" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="G217" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="G217" s="8" t="s">
-        <v>672</v>
-      </c>
       <c r="H217" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I217" s="8"/>
       <c r="J217" s="10" t="n">
@@ -20142,14 +20137,14 @@
       <c r="V217" s="8"/>
       <c r="W217" s="8"/>
       <c r="X217" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y217" s="8"/>
       <c r="Z217" s="8"/>
       <c r="AA217" s="21"/>
       <c r="AB217" s="8"/>
       <c r="AC217" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD217" s="8" t="s">
         <v>97</v>
@@ -20168,7 +20163,7 @@
         <v>200</v>
       </c>
       <c r="AL217" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AM217" s="25" t="n">
         <v>504</v>
@@ -20191,10 +20186,10 @@
         <v>495</v>
       </c>
       <c r="F218" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="G218" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="G218" s="8" t="s">
-        <v>675</v>
       </c>
       <c r="H218" s="8" t="s">
         <v>91</v>
@@ -20225,14 +20220,14 @@
       <c r="V218" s="8"/>
       <c r="W218" s="8"/>
       <c r="X218" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y218" s="8"/>
       <c r="Z218" s="8"/>
       <c r="AA218" s="21"/>
       <c r="AB218" s="8"/>
       <c r="AC218" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD218" s="8" t="s">
         <v>97</v>
@@ -20270,10 +20265,10 @@
         <v>495</v>
       </c>
       <c r="F219" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="G219" s="8" t="s">
         <v>676</v>
-      </c>
-      <c r="G219" s="8" t="s">
-        <v>677</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>91</v>
@@ -20304,14 +20299,14 @@
       <c r="V219" s="8"/>
       <c r="W219" s="8"/>
       <c r="X219" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y219" s="8"/>
       <c r="Z219" s="8"/>
       <c r="AA219" s="21"/>
       <c r="AB219" s="8"/>
       <c r="AC219" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD219" s="8" t="s">
         <v>97</v>
@@ -20346,16 +20341,16 @@
         <v>41</v>
       </c>
       <c r="E220" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="F220" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="F220" s="8" t="s">
+      <c r="G220" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="G220" s="8" t="s">
-        <v>680</v>
-      </c>
       <c r="H220" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I220" s="8"/>
       <c r="J220" s="10" t="n">
@@ -20367,10 +20362,10 @@
         <v>478</v>
       </c>
       <c r="N220" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O220" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P220" s="12"/>
       <c r="Q220" s="8"/>
@@ -20383,7 +20378,7 @@
       <c r="V220" s="8"/>
       <c r="W220" s="8"/>
       <c r="X220" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y220" s="8"/>
       <c r="Z220" s="8"/>
@@ -20391,7 +20386,7 @@
       <c r="AB220" s="8"/>
       <c r="AC220" s="8"/>
       <c r="AD220" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AE220" s="11" t="n">
         <v>0.04</v>
@@ -20425,16 +20420,16 @@
         <v>41</v>
       </c>
       <c r="E221" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="F221" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="F221" s="8" t="s">
+      <c r="G221" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="G221" s="8" t="s">
+      <c r="H221" s="8" t="s">
         <v>683</v>
-      </c>
-      <c r="H221" s="8" t="s">
-        <v>684</v>
       </c>
       <c r="I221" s="8"/>
       <c r="J221" s="10"/>
@@ -20446,7 +20441,7 @@
       <c r="P221" s="12"/>
       <c r="Q221" s="12"/>
       <c r="R221" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S221" s="8"/>
       <c r="T221" s="8"/>
@@ -20454,7 +20449,7 @@
       <c r="V221" s="8"/>
       <c r="W221" s="8"/>
       <c r="X221" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y221" s="8"/>
       <c r="Z221" s="8"/>
@@ -20462,7 +20457,7 @@
       <c r="AB221" s="8"/>
       <c r="AC221" s="8"/>
       <c r="AD221" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AE221" s="11" t="n">
         <v>0.065</v>
@@ -20470,7 +20465,7 @@
       <c r="AF221" s="8"/>
       <c r="AG221" s="8"/>
       <c r="AH221" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AI221" s="8"/>
       <c r="AJ221" s="8" t="n">
@@ -20480,7 +20475,7 @@
         <v>204</v>
       </c>
       <c r="AL221" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AM221" s="8" t="n">
         <v>311</v>
@@ -20500,16 +20495,16 @@
         <v>41</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F222" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="G222" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="G222" s="8" t="s">
+      <c r="H222" s="8" t="s">
         <v>690</v>
-      </c>
-      <c r="H222" s="8" t="s">
-        <v>691</v>
       </c>
       <c r="I222" s="8"/>
       <c r="J222" s="10" t="n">
@@ -20523,21 +20518,21 @@
         <v>478</v>
       </c>
       <c r="N222" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O222" s="12"/>
       <c r="P222" s="12"/>
       <c r="Q222" s="12"/>
       <c r="R222" s="8"/>
       <c r="S222" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T222" s="8"/>
       <c r="U222" s="8"/>
       <c r="V222" s="8"/>
       <c r="W222" s="8"/>
       <c r="X222" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y222" s="8"/>
       <c r="Z222" s="8"/>
@@ -20577,16 +20572,16 @@
         <v>41</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F223" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="G223" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="G223" s="8" t="s">
+      <c r="H223" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="H223" s="8" t="s">
-        <v>694</v>
       </c>
       <c r="I223" s="8"/>
       <c r="J223" s="10" t="n">
@@ -20598,21 +20593,21 @@
         <v>478</v>
       </c>
       <c r="N223" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O223" s="12"/>
       <c r="P223" s="12"/>
       <c r="Q223" s="12"/>
       <c r="R223" s="8"/>
       <c r="S223" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T223" s="8"/>
       <c r="U223" s="8"/>
       <c r="V223" s="8"/>
       <c r="W223" s="8"/>
       <c r="X223" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Y223" s="8"/>
       <c r="Z223" s="8"/>
@@ -20655,10 +20650,10 @@
         <v>495</v>
       </c>
       <c r="F224" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="G224" s="8" t="s">
         <v>696</v>
-      </c>
-      <c r="G224" s="8" t="s">
-        <v>697</v>
       </c>
       <c r="H224" s="8" t="s">
         <v>483</v>
@@ -20676,16 +20671,16 @@
       <c r="Q224" s="12"/>
       <c r="R224" s="8"/>
       <c r="S224" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T224" s="8"/>
       <c r="U224" s="8"/>
       <c r="V224" s="27" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="W224" s="8"/>
       <c r="X224" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y224" s="8"/>
       <c r="Z224" s="8"/>
@@ -20701,10 +20696,10 @@
       <c r="AF224" s="8"/>
       <c r="AG224" s="8"/>
       <c r="AH224" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI224" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ224" s="8" t="n">
         <v>2</v>
@@ -20734,13 +20729,13 @@
         <v>495</v>
       </c>
       <c r="F225" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="G225" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="G225" s="8" t="s">
+      <c r="H225" s="30" t="s">
         <v>702</v>
-      </c>
-      <c r="H225" s="30" t="s">
-        <v>703</v>
       </c>
       <c r="I225" s="8"/>
       <c r="J225" s="10" t="n">
@@ -20756,21 +20751,21 @@
         <v>478</v>
       </c>
       <c r="N225" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O225" s="12"/>
       <c r="P225" s="12"/>
       <c r="Q225" s="12"/>
       <c r="R225" s="8"/>
       <c r="S225" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T225" s="8"/>
       <c r="U225" s="8"/>
       <c r="V225" s="8"/>
       <c r="W225" s="8"/>
       <c r="X225" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y225" s="8"/>
       <c r="Z225" s="8"/>
@@ -20786,10 +20781,10 @@
       <c r="AF225" s="8"/>
       <c r="AG225" s="8"/>
       <c r="AH225" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI225" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ225" s="8" t="n">
         <v>2</v>
@@ -20819,10 +20814,10 @@
         <v>495</v>
       </c>
       <c r="F226" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="G226" s="17" t="s">
         <v>704</v>
-      </c>
-      <c r="G226" s="17" t="s">
-        <v>705</v>
       </c>
       <c r="H226" s="8" t="s">
         <v>86</v>
@@ -20845,7 +20840,7 @@
       <c r="V226" s="8"/>
       <c r="W226" s="8"/>
       <c r="X226" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y226" s="8"/>
       <c r="Z226" s="8"/>
@@ -20853,7 +20848,7 @@
       <c r="AB226" s="8"/>
       <c r="AC226" s="8"/>
       <c r="AD226" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AE226" s="11" t="n">
         <v>0.01625</v>
@@ -20861,10 +20856,10 @@
       <c r="AF226" s="26"/>
       <c r="AG226" s="8"/>
       <c r="AH226" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI226" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ226" s="8" t="n">
         <v>2</v>
@@ -20873,7 +20868,7 @@
         <v>209</v>
       </c>
       <c r="AL226" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AM226" s="29" t="n">
         <v>312</v>
@@ -20894,13 +20889,13 @@
       </c>
       <c r="E227" s="8"/>
       <c r="F227" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="G227" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="G227" s="17" t="s">
-        <v>708</v>
-      </c>
       <c r="H227" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I227" s="8"/>
       <c r="J227" s="10" t="n">
@@ -20909,31 +20904,31 @@
       <c r="K227" s="10"/>
       <c r="L227" s="10"/>
       <c r="M227" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="N227" s="12" t="s">
         <v>709</v>
-      </c>
-      <c r="N227" s="12" t="s">
-        <v>710</v>
       </c>
       <c r="O227" s="12"/>
       <c r="P227" s="12"/>
       <c r="Q227" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R227" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S227" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T227" s="8"/>
       <c r="U227" s="8"/>
       <c r="V227" s="8"/>
       <c r="W227" s="8"/>
       <c r="X227" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y227" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Z227" s="8"/>
       <c r="AA227" s="8"/>
@@ -20946,10 +20941,10 @@
       <c r="AF227" s="8"/>
       <c r="AG227" s="8"/>
       <c r="AH227" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI227" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ227" s="8" t="n">
         <v>3</v>
@@ -20977,13 +20972,13 @@
       </c>
       <c r="E228" s="8"/>
       <c r="F228" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="G228" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="G228" s="17" t="s">
-        <v>714</v>
-      </c>
       <c r="H228" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I228" s="8"/>
       <c r="J228" s="10" t="n">
@@ -20992,31 +20987,31 @@
       <c r="K228" s="10"/>
       <c r="L228" s="10"/>
       <c r="M228" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="N228" s="12" t="s">
         <v>709</v>
-      </c>
-      <c r="N228" s="12" t="s">
-        <v>710</v>
       </c>
       <c r="O228" s="12"/>
       <c r="P228" s="12"/>
       <c r="Q228" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R228" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S228" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T228" s="8"/>
       <c r="U228" s="8"/>
       <c r="V228" s="8"/>
       <c r="W228" s="8"/>
       <c r="X228" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y228" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Z228" s="8"/>
       <c r="AA228" s="8"/>
@@ -21029,10 +21024,10 @@
       <c r="AF228" s="8"/>
       <c r="AG228" s="8"/>
       <c r="AH228" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI228" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ228" s="8" t="n">
         <v>3</v>
@@ -21060,13 +21055,13 @@
       </c>
       <c r="E229" s="8"/>
       <c r="F229" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="G229" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="G229" s="17" t="s">
-        <v>717</v>
-      </c>
       <c r="H229" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I229" s="8"/>
       <c r="J229" s="10" t="n">
@@ -21088,7 +21083,7 @@
       <c r="V229" s="8"/>
       <c r="W229" s="8"/>
       <c r="X229" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y229" s="8"/>
       <c r="Z229" s="8"/>
@@ -21102,10 +21097,10 @@
       <c r="AF229" s="8"/>
       <c r="AG229" s="8"/>
       <c r="AH229" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI229" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ229" s="8" t="n">
         <v>3</v>
@@ -21114,7 +21109,7 @@
         <v>213</v>
       </c>
       <c r="AL229" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AM229" s="8" t="n">
         <v>209</v>
@@ -21135,10 +21130,10 @@
       </c>
       <c r="E230" s="8"/>
       <c r="F230" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="G230" s="17" t="s">
         <v>719</v>
-      </c>
-      <c r="G230" s="17" t="s">
-        <v>720</v>
       </c>
       <c r="H230" s="8" t="s">
         <v>91</v>
@@ -21150,35 +21145,35 @@
       <c r="K230" s="10"/>
       <c r="L230" s="10"/>
       <c r="M230" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="N230" s="12" t="s">
         <v>709</v>
-      </c>
-      <c r="N230" s="12" t="s">
-        <v>710</v>
       </c>
       <c r="O230" s="12"/>
       <c r="P230" s="12"/>
       <c r="Q230" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R230" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S230" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T230" s="8"/>
       <c r="U230" s="8"/>
       <c r="V230" s="8"/>
       <c r="W230" s="8"/>
       <c r="X230" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y230" s="8"/>
       <c r="Z230" s="8"/>
       <c r="AA230" s="8"/>
       <c r="AB230" s="8"/>
       <c r="AC230" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD230" s="8" t="s">
         <v>97</v>
@@ -21187,10 +21182,10 @@
       <c r="AF230" s="8"/>
       <c r="AG230" s="8"/>
       <c r="AH230" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI230" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ230" s="8" t="n">
         <v>4</v>
@@ -21218,10 +21213,10 @@
       </c>
       <c r="E231" s="8"/>
       <c r="F231" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="G231" s="17" t="s">
         <v>721</v>
-      </c>
-      <c r="G231" s="17" t="s">
-        <v>722</v>
       </c>
       <c r="H231" s="8" t="s">
         <v>91</v>
@@ -21233,35 +21228,35 @@
       <c r="K231" s="10"/>
       <c r="L231" s="10"/>
       <c r="M231" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="N231" s="24" t="s">
         <v>723</v>
-      </c>
-      <c r="N231" s="24" t="s">
-        <v>724</v>
       </c>
       <c r="O231" s="12"/>
       <c r="P231" s="12"/>
       <c r="Q231" s="24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="R231" s="8" t="s">
         <v>93</v>
       </c>
       <c r="S231" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T231" s="8"/>
       <c r="U231" s="8"/>
       <c r="V231" s="8"/>
       <c r="W231" s="8"/>
       <c r="X231" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y231" s="8"/>
       <c r="Z231" s="8"/>
       <c r="AA231" s="8"/>
       <c r="AB231" s="8"/>
       <c r="AC231" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD231" s="8" t="s">
         <v>97</v>
@@ -21270,10 +21265,10 @@
       <c r="AF231" s="8"/>
       <c r="AG231" s="8"/>
       <c r="AH231" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI231" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ231" s="8" t="n">
         <v>4</v>
@@ -21301,13 +21296,13 @@
       </c>
       <c r="E232" s="8"/>
       <c r="F232" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="G232" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="G232" s="17" t="s">
+      <c r="H232" s="30" t="s">
         <v>726</v>
-      </c>
-      <c r="H232" s="30" t="s">
-        <v>727</v>
       </c>
       <c r="I232" s="8"/>
       <c r="J232" s="10" t="n">
@@ -21319,7 +21314,7 @@
         <v>478</v>
       </c>
       <c r="N232" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O232" s="12"/>
       <c r="P232" s="12"/>
@@ -21328,14 +21323,14 @@
         <v>93</v>
       </c>
       <c r="S232" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T232" s="8"/>
       <c r="U232" s="8"/>
       <c r="V232" s="8"/>
       <c r="W232" s="8"/>
       <c r="X232" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y232" s="8"/>
       <c r="Z232" s="8"/>
@@ -21349,10 +21344,10 @@
       <c r="AF232" s="8"/>
       <c r="AG232" s="8"/>
       <c r="AH232" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI232" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ232" s="8" t="n">
         <v>3</v>
@@ -21382,13 +21377,13 @@
         <v>495</v>
       </c>
       <c r="F233" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="G233" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="G233" s="8" t="s">
+      <c r="H233" s="8" t="s">
         <v>729</v>
-      </c>
-      <c r="H233" s="8" t="s">
-        <v>730</v>
       </c>
       <c r="I233" s="8"/>
       <c r="J233" s="10"/>
@@ -21396,21 +21391,21 @@
       <c r="L233" s="10"/>
       <c r="M233" s="8"/>
       <c r="N233" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O233" s="12"/>
       <c r="P233" s="12"/>
       <c r="Q233" s="12"/>
       <c r="R233" s="8"/>
       <c r="S233" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T233" s="8"/>
       <c r="U233" s="8"/>
       <c r="V233" s="8"/>
       <c r="W233" s="8"/>
       <c r="X233" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y233" s="8"/>
       <c r="Z233" s="8"/>
@@ -21418,7 +21413,7 @@
       <c r="AB233" s="8"/>
       <c r="AC233" s="8"/>
       <c r="AD233" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AE233" s="11" t="n">
         <v>0.01625</v>
@@ -21426,10 +21421,10 @@
       <c r="AF233" s="8"/>
       <c r="AG233" s="8"/>
       <c r="AH233" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI233" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AJ233" s="8" t="n">
         <v>2</v>
@@ -21459,13 +21454,13 @@
         <v>495</v>
       </c>
       <c r="F234" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="G234" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="G234" s="8" t="s">
-        <v>732</v>
-      </c>
       <c r="H234" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I234" s="8"/>
       <c r="J234" s="10" t="n">
@@ -21487,7 +21482,7 @@
       <c r="V234" s="8"/>
       <c r="W234" s="8"/>
       <c r="X234" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y234" s="8"/>
       <c r="Z234" s="8"/>
@@ -21495,7 +21490,7 @@
       <c r="AB234" s="8"/>
       <c r="AC234" s="8"/>
       <c r="AD234" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AE234" s="11" t="n">
         <v>0.03</v>
@@ -21511,7 +21506,7 @@
         <v>218</v>
       </c>
       <c r="AL234" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AM234" s="31" t="n">
         <v>301</v>
@@ -21534,13 +21529,13 @@
         <v>495</v>
       </c>
       <c r="F235" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="G235" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="G235" s="8" t="s">
+      <c r="H235" s="8" t="s">
         <v>735</v>
-      </c>
-      <c r="H235" s="8" t="s">
-        <v>736</v>
       </c>
       <c r="I235" s="8"/>
       <c r="J235" s="10" t="n">
@@ -21554,7 +21549,7 @@
         <v>478</v>
       </c>
       <c r="N235" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O235" s="12"/>
       <c r="P235" s="12"/>
@@ -21563,14 +21558,14 @@
         <v>93</v>
       </c>
       <c r="S235" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T235" s="8"/>
       <c r="U235" s="8"/>
       <c r="V235" s="8"/>
       <c r="W235" s="8"/>
       <c r="X235" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y235" s="8"/>
       <c r="Z235" s="8"/>
@@ -21578,13 +21573,13 @@
       <c r="AB235" s="8"/>
       <c r="AC235" s="8"/>
       <c r="AD235" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AE235" s="11"/>
       <c r="AF235" s="8"/>
       <c r="AG235" s="8"/>
       <c r="AH235" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AI235" s="8"/>
       <c r="AJ235" s="8" t="n">
@@ -21613,10 +21608,10 @@
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="G236" s="8" t="s">
         <v>739</v>
-      </c>
-      <c r="G236" s="8" t="s">
-        <v>740</v>
       </c>
       <c r="H236" s="8" t="s">
         <v>86</v>
@@ -21657,7 +21652,7 @@
         <v>220</v>
       </c>
       <c r="AL236" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AM236" s="29" t="n">
         <v>400</v>
@@ -21677,16 +21672,16 @@
         <v>490</v>
       </c>
       <c r="E237" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="F237" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="F237" s="8" t="s">
+      <c r="G237" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="G237" s="8" t="s">
+      <c r="H237" s="8" t="s">
         <v>744</v>
-      </c>
-      <c r="H237" s="8" t="s">
-        <v>745</v>
       </c>
       <c r="I237" s="8"/>
       <c r="J237" s="10" t="n">
@@ -21696,7 +21691,7 @@
       <c r="L237" s="10"/>
       <c r="M237" s="8"/>
       <c r="N237" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O237" s="12"/>
       <c r="P237" s="12"/>
@@ -21705,7 +21700,7 @@
         <v>93</v>
       </c>
       <c r="S237" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T237" s="8"/>
       <c r="U237" s="8"/>
@@ -21713,7 +21708,7 @@
       <c r="W237" s="8"/>
       <c r="X237" s="8"/>
       <c r="Y237" s="17" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Z237" s="8"/>
       <c r="AA237" s="21"/>
@@ -21754,16 +21749,16 @@
         <v>490</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F238" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="G238" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="G238" s="8" t="s">
-        <v>748</v>
-      </c>
       <c r="H238" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I238" s="8"/>
       <c r="J238" s="10" t="n">
@@ -21773,7 +21768,7 @@
       <c r="L238" s="10"/>
       <c r="M238" s="8"/>
       <c r="N238" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O238" s="12"/>
       <c r="P238" s="12"/>
@@ -21782,7 +21777,7 @@
         <v>93</v>
       </c>
       <c r="S238" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T238" s="8"/>
       <c r="U238" s="8"/>
@@ -21790,7 +21785,7 @@
       <c r="W238" s="8"/>
       <c r="X238" s="8"/>
       <c r="Y238" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Z238" s="8"/>
       <c r="AA238" s="21"/>
@@ -21831,16 +21826,16 @@
         <v>490</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F239" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="G239" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="G239" s="8" t="s">
-        <v>751</v>
-      </c>
       <c r="H239" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I239" s="8"/>
       <c r="J239" s="10" t="n">
@@ -21850,7 +21845,7 @@
       <c r="L239" s="10"/>
       <c r="M239" s="8"/>
       <c r="N239" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O239" s="12"/>
       <c r="P239" s="12"/>
@@ -21859,7 +21854,7 @@
         <v>93</v>
       </c>
       <c r="S239" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T239" s="8"/>
       <c r="U239" s="8"/>
@@ -21867,7 +21862,7 @@
       <c r="W239" s="8"/>
       <c r="X239" s="8"/>
       <c r="Y239" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Z239" s="8"/>
       <c r="AA239" s="21"/>
@@ -21905,22 +21900,22 @@
         <v>40</v>
       </c>
       <c r="D240" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="E240" s="29" t="s">
         <v>753</v>
       </c>
-      <c r="E240" s="29" t="s">
+      <c r="F240" s="29" t="s">
         <v>754</v>
       </c>
-      <c r="F240" s="29" t="s">
+      <c r="G240" s="29" t="s">
         <v>755</v>
       </c>
-      <c r="G240" s="29" t="s">
+      <c r="H240" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="H240" s="8" t="s">
+      <c r="I240" s="8" t="s">
         <v>757</v>
-      </c>
-      <c r="I240" s="8" t="s">
-        <v>758</v>
       </c>
       <c r="J240" s="10"/>
       <c r="K240" s="10"/>
@@ -21932,7 +21927,7 @@
       <c r="Q240" s="8"/>
       <c r="R240" s="8"/>
       <c r="S240" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T240" s="8"/>
       <c r="U240" s="8"/>
@@ -21955,7 +21950,7 @@
         <v>224</v>
       </c>
       <c r="AL240" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AM240" s="8"/>
     </row>
@@ -21970,22 +21965,22 @@
         <v>40</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E241" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="F241" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="F241" s="8" t="s">
+      <c r="G241" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="G241" s="25" t="s">
-        <v>763</v>
-      </c>
       <c r="H241" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="I241" s="8" t="s">
         <v>757</v>
-      </c>
-      <c r="I241" s="8" t="s">
-        <v>758</v>
       </c>
       <c r="J241" s="10"/>
       <c r="K241" s="10"/>
@@ -21997,7 +21992,7 @@
       <c r="Q241" s="8"/>
       <c r="R241" s="8"/>
       <c r="S241" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T241" s="8"/>
       <c r="U241" s="8"/>
@@ -22020,7 +22015,7 @@
         <v>225</v>
       </c>
       <c r="AL241" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AM241" s="8"/>
     </row>
@@ -22035,36 +22030,36 @@
         <v>40</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E242" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="F242" s="29" t="s">
         <v>765</v>
       </c>
-      <c r="F242" s="29" t="s">
+      <c r="G242" s="29" t="s">
         <v>766</v>
       </c>
-      <c r="G242" s="29" t="s">
+      <c r="H242" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="H242" s="8" t="s">
+      <c r="I242" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="I242" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="J242" s="10"/>
       <c r="K242" s="10"/>
       <c r="L242" s="10"/>
       <c r="M242" s="8"/>
       <c r="N242" s="14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O242" s="8"/>
       <c r="P242" s="8"/>
       <c r="Q242" s="8"/>
       <c r="R242" s="8"/>
       <c r="S242" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T242" s="8"/>
       <c r="U242" s="8"/>
@@ -22102,22 +22097,22 @@
         <v>40</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E243" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="F243" s="29" t="s">
         <v>771</v>
       </c>
-      <c r="F243" s="29" t="s">
+      <c r="G243" s="29" t="s">
         <v>772</v>
       </c>
-      <c r="G243" s="29" t="s">
+      <c r="H243" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="H243" s="8" t="s">
+      <c r="I243" s="8" t="s">
         <v>774</v>
-      </c>
-      <c r="I243" s="8" t="s">
-        <v>775</v>
       </c>
       <c r="J243" s="10"/>
       <c r="K243" s="10"/>
@@ -22129,7 +22124,7 @@
       <c r="Q243" s="8"/>
       <c r="R243" s="8"/>
       <c r="S243" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T243" s="8"/>
       <c r="U243" s="8"/>
@@ -22152,7 +22147,7 @@
         <v>228</v>
       </c>
       <c r="AL243" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AM243" s="8"/>
     </row>
@@ -22167,22 +22162,22 @@
         <v>40</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E244" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="F244" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="F244" s="29" t="s">
+      <c r="G244" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="G244" s="29" t="s">
+      <c r="H244" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="H244" s="8" t="s">
-        <v>780</v>
-      </c>
       <c r="I244" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J244" s="10"/>
       <c r="K244" s="10"/>
@@ -22194,7 +22189,7 @@
       <c r="Q244" s="8"/>
       <c r="R244" s="8"/>
       <c r="S244" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T244" s="8"/>
       <c r="U244" s="8"/>
@@ -22232,36 +22227,36 @@
         <v>40</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E245" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="F245" s="29" t="s">
         <v>781</v>
       </c>
-      <c r="F245" s="29" t="s">
+      <c r="G245" s="29" t="s">
         <v>782</v>
       </c>
-      <c r="G245" s="29" t="s">
+      <c r="H245" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="H245" s="8" t="s">
-        <v>784</v>
-      </c>
       <c r="I245" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J245" s="10"/>
       <c r="K245" s="10"/>
       <c r="L245" s="10"/>
       <c r="M245" s="8"/>
       <c r="N245" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O245" s="8"/>
       <c r="P245" s="8"/>
       <c r="Q245" s="8"/>
       <c r="R245" s="8"/>
       <c r="S245" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="T245" s="8"/>
       <c r="U245" s="8"/>
@@ -22297,36 +22292,36 @@
         <v>40</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E246" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="F246" s="29" t="s">
         <v>787</v>
       </c>
-      <c r="F246" s="29" t="s">
+      <c r="G246" s="29" t="s">
         <v>788</v>
       </c>
-      <c r="G246" s="29" t="s">
+      <c r="H246" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="H246" s="8" t="s">
-        <v>790</v>
-      </c>
       <c r="I246" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J246" s="10"/>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
       <c r="M246" s="8"/>
       <c r="N246" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O246" s="8"/>
       <c r="P246" s="8"/>
       <c r="Q246" s="8"/>
       <c r="R246" s="8"/>
       <c r="S246" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="T246" s="8"/>
       <c r="U246" s="8"/>
@@ -22362,38 +22357,38 @@
         <v>40</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E247" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="F247" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="F247" s="29" t="s">
+      <c r="G247" s="29" t="s">
         <v>793</v>
       </c>
-      <c r="G247" s="29" t="s">
-        <v>794</v>
-      </c>
       <c r="H247" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I247" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="I247" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="J247" s="10"/>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
       <c r="M247" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="N247" s="14" t="s">
         <v>795</v>
-      </c>
-      <c r="N247" s="14" t="s">
-        <v>796</v>
       </c>
       <c r="O247" s="8"/>
       <c r="P247" s="8"/>
       <c r="Q247" s="8"/>
       <c r="R247" s="8"/>
       <c r="S247" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T247" s="8"/>
       <c r="U247" s="8"/>
@@ -22431,38 +22426,38 @@
         <v>40</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E248" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="F248" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="F248" s="29" t="s">
+      <c r="G248" s="29" t="s">
         <v>793</v>
       </c>
-      <c r="G248" s="29" t="s">
-        <v>794</v>
-      </c>
       <c r="H248" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I248" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="I248" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="J248" s="10"/>
       <c r="K248" s="10"/>
       <c r="L248" s="10"/>
       <c r="M248" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="N248" s="14" t="s">
         <v>795</v>
-      </c>
-      <c r="N248" s="14" t="s">
-        <v>796</v>
       </c>
       <c r="O248" s="8"/>
       <c r="P248" s="8"/>
       <c r="Q248" s="8"/>
       <c r="R248" s="8"/>
       <c r="S248" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T248" s="8"/>
       <c r="U248" s="8"/>
@@ -22500,38 +22495,38 @@
         <v>40</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E249" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="F249" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="F249" s="29" t="s">
+      <c r="G249" s="29" t="s">
         <v>793</v>
       </c>
-      <c r="G249" s="29" t="s">
-        <v>794</v>
-      </c>
       <c r="H249" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I249" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="I249" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="J249" s="10"/>
       <c r="K249" s="10"/>
       <c r="L249" s="10"/>
       <c r="M249" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="N249" s="14" t="s">
         <v>795</v>
-      </c>
-      <c r="N249" s="14" t="s">
-        <v>796</v>
       </c>
       <c r="O249" s="8"/>
       <c r="P249" s="8"/>
       <c r="Q249" s="8"/>
       <c r="R249" s="8"/>
       <c r="S249" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T249" s="8"/>
       <c r="U249" s="8"/>
@@ -22569,38 +22564,38 @@
         <v>40</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E250" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="F250" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="F250" s="29" t="s">
+      <c r="G250" s="29" t="s">
         <v>793</v>
       </c>
-      <c r="G250" s="29" t="s">
-        <v>794</v>
-      </c>
       <c r="H250" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I250" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="I250" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="J250" s="10"/>
       <c r="K250" s="10"/>
       <c r="L250" s="10"/>
       <c r="M250" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N250" s="32" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O250" s="8"/>
       <c r="P250" s="8"/>
       <c r="Q250" s="8"/>
       <c r="R250" s="8"/>
       <c r="S250" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T250" s="8"/>
       <c r="U250" s="8"/>
@@ -22638,38 +22633,38 @@
         <v>40</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E251" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="F251" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="F251" s="29" t="s">
+      <c r="G251" s="29" t="s">
         <v>793</v>
       </c>
-      <c r="G251" s="29" t="s">
-        <v>794</v>
-      </c>
       <c r="H251" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I251" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="I251" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="J251" s="10"/>
       <c r="K251" s="10"/>
       <c r="L251" s="10"/>
       <c r="M251" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N251" s="32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O251" s="8"/>
       <c r="P251" s="8"/>
       <c r="Q251" s="8"/>
       <c r="R251" s="8"/>
       <c r="S251" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T251" s="8"/>
       <c r="U251" s="8"/>
@@ -22705,38 +22700,38 @@
         <v>40</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E252" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="F252" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="F252" s="29" t="s">
+      <c r="G252" s="29" t="s">
         <v>793</v>
       </c>
-      <c r="G252" s="29" t="s">
-        <v>794</v>
-      </c>
       <c r="H252" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I252" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="I252" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="J252" s="10"/>
       <c r="K252" s="10"/>
       <c r="L252" s="10"/>
       <c r="M252" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N252" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O252" s="8"/>
       <c r="P252" s="8"/>
       <c r="Q252" s="8"/>
       <c r="R252" s="8"/>
       <c r="S252" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T252" s="8"/>
       <c r="U252" s="8"/>
@@ -22759,7 +22754,7 @@
         <v>238</v>
       </c>
       <c r="AL252" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AM252" s="8"/>
     </row>
@@ -22774,38 +22769,38 @@
         <v>40</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E253" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="F253" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="F253" s="29" t="s">
+      <c r="G253" s="29" t="s">
         <v>793</v>
       </c>
-      <c r="G253" s="29" t="s">
-        <v>794</v>
-      </c>
       <c r="H253" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I253" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="I253" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="J253" s="10"/>
       <c r="K253" s="10"/>
       <c r="L253" s="10"/>
       <c r="M253" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N253" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O253" s="8"/>
       <c r="P253" s="8"/>
       <c r="Q253" s="8"/>
       <c r="R253" s="8"/>
       <c r="S253" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T253" s="8"/>
       <c r="U253" s="8"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1763,8 +1764,7 @@
     <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
   </si>
   <si>
-    <t xml:space="preserve">146
-147
+    <t xml:space="preserve">147
 148
 149
 150</t>
@@ -3086,53 +3086,53 @@
   </sheetPr>
   <dimension ref="A1:AM256"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="Y227" activeCellId="0" sqref="Y227:Y228"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="AL164" activeCellId="0" sqref="AL164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.5546558704454"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.1983805668016"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="84.7327935222672"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="122.971659919028"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="85.4817813765182"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="124.14979757085"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="62.2348178137652"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3086,53 +3087,53 @@
   </sheetPr>
   <dimension ref="A1:AM256"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="AL164" activeCellId="0" sqref="AL164"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A212" activeCellId="0" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.1983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.9473684210526"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="85.4817813765182"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="124.14979757085"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="125.222672064777"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -19532,7 +19533,7 @@
       </c>
       <c r="AL208" s="6"/>
       <c r="AM208" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19611,7 +19612,7 @@
       </c>
       <c r="AL209" s="6"/>
       <c r="AM209" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19690,7 +19691,7 @@
       </c>
       <c r="AL210" s="6"/>
       <c r="AM210" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19769,7 +19770,7 @@
       </c>
       <c r="AL211" s="6"/>
       <c r="AM211" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19848,7 +19849,7 @@
       </c>
       <c r="AL212" s="6"/>
       <c r="AM212" s="6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$256</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="807">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1334,10 +1335,10 @@
     <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
@@ -1436,10 +1437,10 @@
     <t xml:space="preserve">4607174579729</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 8</t>
+    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L</t>
@@ -2924,6 +2925,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2932,19 +2941,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="174" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3088,52 +3089,52 @@
   <dimension ref="A1:AM256"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A212" activeCellId="0" sqref="A212"/>
+      <selection pane="bottomLeft" activeCell="F130" activeCellId="0" sqref="F130:AM130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.9473684210526"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.2307692307692"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="125.222672064777"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.9797570850202"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="126.291497975708"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12391,27 +12392,26 @@
       <c r="E118" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="G118" s="6" t="s">
+      <c r="G118" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="H118" s="6" t="s">
+      <c r="H118" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I118" s="6"/>
-      <c r="J118" s="8" t="n">
+      <c r="I118" s="15"/>
+      <c r="J118" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="6" t="str">
-        <f aca="false">F118</f>
-        <v>NEW SKU 6</v>
-      </c>
-      <c r="N118" s="10" t="n">
-        <v>111111</v>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="N118" s="24" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
@@ -13375,27 +13375,26 @@
       <c r="E130" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="F130" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="G130" s="6" t="s">
+      <c r="G130" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="H130" s="6" t="s">
+      <c r="H130" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I130" s="6"/>
-      <c r="J130" s="8" t="n">
+      <c r="I130" s="15"/>
+      <c r="J130" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="6" t="str">
-        <f aca="false">F130</f>
-        <v>NEW SKU 8</v>
-      </c>
-      <c r="N130" s="10" t="n">
-        <v>111111</v>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="N130" s="24" t="n">
+        <v>4650075423233</v>
       </c>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
@@ -14877,7 +14876,7 @@
       <c r="S148" s="6"/>
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
-      <c r="V148" s="23"/>
+      <c r="V148" s="25"/>
       <c r="W148" s="6"/>
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
@@ -14903,7 +14902,7 @@
       <c r="AK148" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="AL148" s="24" t="s">
+      <c r="AL148" s="26" t="s">
         <v>475</v>
       </c>
       <c r="AM148" s="6" t="n">
@@ -14960,7 +14959,7 @@
       </c>
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
-      <c r="V149" s="23"/>
+      <c r="V149" s="25"/>
       <c r="W149" s="6"/>
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
@@ -15033,7 +15032,7 @@
       </c>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
-      <c r="V150" s="23" t="s">
+      <c r="V150" s="25" t="s">
         <v>485</v>
       </c>
       <c r="W150" s="6"/>
@@ -15096,7 +15095,7 @@
       <c r="M151" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N151" s="25" t="n">
+      <c r="N151" s="24" t="n">
         <v>5449000000439</v>
       </c>
       <c r="O151" s="10" t="s">
@@ -15112,7 +15111,7 @@
       </c>
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
-      <c r="V151" s="23"/>
+      <c r="V151" s="25"/>
       <c r="W151" s="6"/>
       <c r="X151" s="6"/>
       <c r="Y151" s="6"/>
@@ -15183,7 +15182,7 @@
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
-      <c r="V152" s="23"/>
+      <c r="V152" s="25"/>
       <c r="W152" s="6"/>
       <c r="X152" s="6"/>
       <c r="Y152" s="6"/>
@@ -15254,7 +15253,7 @@
       <c r="M153" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N153" s="25" t="n">
+      <c r="N153" s="24" t="n">
         <v>5449000000439</v>
       </c>
       <c r="O153" s="10"/>
@@ -15268,7 +15267,7 @@
       </c>
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
-      <c r="V153" s="23"/>
+      <c r="V153" s="25"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6"/>
       <c r="Y153" s="6"/>
@@ -15331,7 +15330,7 @@
       <c r="M154" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N154" s="25" t="n">
+      <c r="N154" s="24" t="n">
         <v>5449000012203</v>
       </c>
       <c r="O154" s="10"/>
@@ -15345,7 +15344,7 @@
       </c>
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
-      <c r="V154" s="23"/>
+      <c r="V154" s="25"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6"/>
       <c r="Y154" s="6"/>
@@ -15405,10 +15404,10 @@
       </c>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
-      <c r="M155" s="26" t="s">
+      <c r="M155" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="N155" s="25" t="n">
+      <c r="N155" s="24" t="n">
         <v>5449000133335</v>
       </c>
       <c r="O155" s="10"/>
@@ -15421,7 +15420,7 @@
         <v>94</v>
       </c>
       <c r="T155" s="6"/>
-      <c r="U155" s="23"/>
+      <c r="U155" s="25"/>
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
       <c r="X155" s="6"/>
@@ -15485,7 +15484,7 @@
       <c r="M156" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N156" s="25" t="n">
+      <c r="N156" s="24" t="n">
         <v>5449000052926</v>
       </c>
       <c r="O156" s="10"/>
@@ -15499,7 +15498,7 @@
       </c>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
-      <c r="V156" s="23"/>
+      <c r="V156" s="25"/>
       <c r="W156" s="6"/>
       <c r="X156" s="6"/>
       <c r="Y156" s="6"/>
@@ -15570,7 +15569,7 @@
       <c r="S157" s="6"/>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
-      <c r="V157" s="23"/>
+      <c r="V157" s="25"/>
       <c r="W157" s="6"/>
       <c r="X157" s="6"/>
       <c r="Y157" s="6"/>
@@ -15653,7 +15652,7 @@
       </c>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
-      <c r="V158" s="23"/>
+      <c r="V158" s="25"/>
       <c r="W158" s="6"/>
       <c r="X158" s="6"/>
       <c r="Y158" s="6"/>
@@ -15799,7 +15798,7 @@
       <c r="S160" s="6"/>
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
-      <c r="V160" s="23"/>
+      <c r="V160" s="25"/>
       <c r="W160" s="6"/>
       <c r="X160" s="6"/>
       <c r="Y160" s="6"/>
@@ -15876,7 +15875,7 @@
       </c>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
-      <c r="V161" s="23"/>
+      <c r="V161" s="25"/>
       <c r="W161" s="6"/>
       <c r="X161" s="6"/>
       <c r="Y161" s="6"/>
@@ -15953,7 +15952,7 @@
       </c>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
-      <c r="V162" s="23"/>
+      <c r="V162" s="25"/>
       <c r="W162" s="6"/>
       <c r="X162" s="6"/>
       <c r="Y162" s="6"/>
@@ -16026,7 +16025,7 @@
       <c r="S163" s="6"/>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
-      <c r="V163" s="23"/>
+      <c r="V163" s="25"/>
       <c r="W163" s="6"/>
       <c r="X163" s="6"/>
       <c r="Y163" s="6"/>
@@ -16111,7 +16110,7 @@
       </c>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
-      <c r="V164" s="23"/>
+      <c r="V164" s="25"/>
       <c r="W164" s="6"/>
       <c r="X164" s="6"/>
       <c r="Y164" s="6"/>
@@ -16188,7 +16187,7 @@
       </c>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
-      <c r="V165" s="23"/>
+      <c r="V165" s="25"/>
       <c r="W165" s="6"/>
       <c r="X165" s="6"/>
       <c r="Y165" s="6"/>
@@ -16265,7 +16264,7 @@
       </c>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
-      <c r="V166" s="23"/>
+      <c r="V166" s="25"/>
       <c r="W166" s="6"/>
       <c r="X166" s="6"/>
       <c r="Y166" s="6"/>
@@ -16342,7 +16341,7 @@
       </c>
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
-      <c r="V167" s="23"/>
+      <c r="V167" s="25"/>
       <c r="W167" s="6"/>
       <c r="X167" s="6"/>
       <c r="Y167" s="6"/>
@@ -16413,7 +16412,7 @@
       <c r="S168" s="6"/>
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
-      <c r="V168" s="23"/>
+      <c r="V168" s="25"/>
       <c r="W168" s="6"/>
       <c r="X168" s="6"/>
       <c r="Y168" s="6"/>
@@ -16496,7 +16495,7 @@
       </c>
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
-      <c r="V169" s="23"/>
+      <c r="V169" s="25"/>
       <c r="W169" s="6"/>
       <c r="X169" s="6"/>
       <c r="Y169" s="6"/>
@@ -16648,7 +16647,7 @@
       </c>
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
-      <c r="V171" s="23"/>
+      <c r="V171" s="25"/>
       <c r="W171" s="6"/>
       <c r="X171" s="6"/>
       <c r="Y171" s="6"/>
@@ -16721,7 +16720,7 @@
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
-      <c r="V172" s="23"/>
+      <c r="V172" s="25"/>
       <c r="W172" s="6"/>
       <c r="X172" s="6" t="s">
         <v>76</v>
@@ -16806,7 +16805,7 @@
       </c>
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
-      <c r="V173" s="23"/>
+      <c r="V173" s="25"/>
       <c r="W173" s="6"/>
       <c r="X173" s="6" t="s">
         <v>76</v>
@@ -16952,7 +16951,7 @@
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
-      <c r="V175" s="23"/>
+      <c r="V175" s="25"/>
       <c r="W175" s="6"/>
       <c r="X175" s="6" t="s">
         <v>76</v>
@@ -17029,7 +17028,7 @@
       </c>
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
-      <c r="V176" s="23"/>
+      <c r="V176" s="25"/>
       <c r="W176" s="6"/>
       <c r="X176" s="6" t="s">
         <v>76</v>
@@ -17092,7 +17091,7 @@
       <c r="M177" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="N177" s="27" t="s">
+      <c r="N177" s="28" t="s">
         <v>300</v>
       </c>
       <c r="O177" s="10"/>
@@ -17106,7 +17105,7 @@
       </c>
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
-      <c r="V177" s="23"/>
+      <c r="V177" s="25"/>
       <c r="W177" s="6"/>
       <c r="X177" s="6" t="s">
         <v>76</v>
@@ -17169,7 +17168,7 @@
       <c r="M178" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N178" s="27" t="s">
+      <c r="N178" s="28" t="s">
         <v>219</v>
       </c>
       <c r="O178" s="10"/>
@@ -17183,7 +17182,7 @@
       </c>
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
-      <c r="V178" s="23"/>
+      <c r="V178" s="25"/>
       <c r="W178" s="6"/>
       <c r="X178" s="6" t="s">
         <v>76</v>
@@ -17256,9 +17255,9 @@
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
-      <c r="V179" s="23"/>
+      <c r="V179" s="25"/>
       <c r="W179" s="6"/>
-      <c r="X179" s="28"/>
+      <c r="X179" s="23"/>
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
       <c r="AA179" s="6" t="n">
@@ -17339,9 +17338,9 @@
       </c>
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
-      <c r="V180" s="23"/>
+      <c r="V180" s="25"/>
       <c r="W180" s="6"/>
-      <c r="X180" s="28"/>
+      <c r="X180" s="23"/>
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
       <c r="AA180" s="6" t="n">
@@ -17416,7 +17415,7 @@
         <v>577</v>
       </c>
       <c r="W181" s="6"/>
-      <c r="X181" s="28"/>
+      <c r="X181" s="23"/>
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
       <c r="AA181" s="6" t="n">
@@ -17485,9 +17484,9 @@
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
-      <c r="V182" s="23"/>
+      <c r="V182" s="25"/>
       <c r="W182" s="6"/>
-      <c r="X182" s="28"/>
+      <c r="X182" s="23"/>
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
       <c r="AA182" s="6" t="n">
@@ -17564,9 +17563,9 @@
       </c>
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
-      <c r="V183" s="23"/>
+      <c r="V183" s="25"/>
       <c r="W183" s="6"/>
-      <c r="X183" s="28"/>
+      <c r="X183" s="23"/>
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
       <c r="AA183" s="6" t="n">
@@ -17637,7 +17636,7 @@
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
-      <c r="V184" s="23"/>
+      <c r="V184" s="25"/>
       <c r="W184" s="6"/>
       <c r="X184" s="6"/>
       <c r="Y184" s="6"/>
@@ -17720,7 +17719,7 @@
       </c>
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
-      <c r="V185" s="23"/>
+      <c r="V185" s="25"/>
       <c r="W185" s="6"/>
       <c r="X185" s="6"/>
       <c r="Y185" s="6"/>
@@ -17872,7 +17871,7 @@
       </c>
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
-      <c r="V187" s="23"/>
+      <c r="V187" s="25"/>
       <c r="W187" s="6"/>
       <c r="X187" s="6"/>
       <c r="Y187" s="6"/>
@@ -17945,7 +17944,7 @@
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
-      <c r="V188" s="23"/>
+      <c r="V188" s="25"/>
       <c r="W188" s="6"/>
       <c r="X188" s="6" t="s">
         <v>81</v>
@@ -18028,7 +18027,7 @@
       </c>
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
-      <c r="V189" s="23"/>
+      <c r="V189" s="25"/>
       <c r="W189" s="6"/>
       <c r="X189" s="6" t="s">
         <v>81</v>
@@ -18174,7 +18173,7 @@
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
-      <c r="V191" s="23"/>
+      <c r="V191" s="25"/>
       <c r="W191" s="6"/>
       <c r="X191" s="6" t="s">
         <v>81</v>
@@ -18251,7 +18250,7 @@
       </c>
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
-      <c r="V192" s="23"/>
+      <c r="V192" s="25"/>
       <c r="W192" s="6"/>
       <c r="X192" s="6" t="s">
         <v>81</v>
@@ -18328,7 +18327,7 @@
       </c>
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
-      <c r="V193" s="23"/>
+      <c r="V193" s="25"/>
       <c r="W193" s="6"/>
       <c r="X193" s="6" t="s">
         <v>81</v>
@@ -18405,7 +18404,7 @@
       </c>
       <c r="T194" s="6"/>
       <c r="U194" s="6"/>
-      <c r="V194" s="23"/>
+      <c r="V194" s="25"/>
       <c r="W194" s="6"/>
       <c r="X194" s="6" t="s">
         <v>81</v>
@@ -18482,7 +18481,7 @@
       </c>
       <c r="T195" s="6"/>
       <c r="U195" s="6"/>
-      <c r="V195" s="23"/>
+      <c r="V195" s="25"/>
       <c r="W195" s="6"/>
       <c r="X195" s="6" t="s">
         <v>81</v>
@@ -18665,7 +18664,7 @@
       <c r="AL197" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="AM197" s="26" t="n">
+      <c r="AM197" s="27" t="n">
         <v>501</v>
       </c>
     </row>
@@ -19453,7 +19452,7 @@
       <c r="AL207" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="AM207" s="26" t="n">
+      <c r="AM207" s="27" t="n">
         <v>502</v>
       </c>
     </row>
@@ -20004,7 +20003,7 @@
       <c r="AL214" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="AM214" s="26" t="n">
+      <c r="AM214" s="27" t="n">
         <v>503</v>
       </c>
     </row>
@@ -20042,7 +20041,7 @@
       <c r="M215" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N215" s="25" t="n">
+      <c r="N215" s="24" t="n">
         <v>5449000005489</v>
       </c>
       <c r="O215" s="10"/>
@@ -20239,7 +20238,7 @@
       <c r="AL217" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="AM217" s="26" t="n">
+      <c r="AM217" s="27" t="n">
         <v>504</v>
       </c>
     </row>
@@ -20353,7 +20352,7 @@
       </c>
       <c r="K219" s="8"/>
       <c r="L219" s="8"/>
-      <c r="M219" s="26" t="s">
+      <c r="M219" s="27" t="s">
         <v>275</v>
       </c>
       <c r="N219" s="18" t="s">
@@ -20749,7 +20748,7 @@
       </c>
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
-      <c r="V224" s="28" t="s">
+      <c r="V224" s="23" t="s">
         <v>698</v>
       </c>
       <c r="W224" s="6"/>
@@ -20927,7 +20926,7 @@
       <c r="AE226" s="9" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AF226" s="27"/>
+      <c r="AF226" s="28"/>
       <c r="AG226" s="6"/>
       <c r="AH226" s="6" t="s">
         <v>699</v>
@@ -21301,15 +21300,15 @@
       </c>
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
-      <c r="M231" s="28" t="s">
+      <c r="M231" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="N231" s="25" t="s">
+      <c r="N231" s="24" t="s">
         <v>723</v>
       </c>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
-      <c r="Q231" s="25" t="s">
+      <c r="Q231" s="24" t="s">
         <v>723</v>
       </c>
       <c r="R231" s="6" t="s">
@@ -22047,7 +22046,7 @@
       <c r="F241" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="G241" s="26" t="s">
+      <c r="G241" s="27" t="s">
         <v>762</v>
       </c>
       <c r="H241" s="6" t="s">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -11,8 +11,11 @@
     <sheet name="Supermarket" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1588,8 +1591,7 @@
   </si>
   <si>
     <t xml:space="preserve">834
-836
-</t>
+836</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -1621,7 +1623,7 @@
   <si>
     <t xml:space="preserve">152
 153
-154</t>
+616</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 2d: Facings</t>
@@ -1648,7 +1650,7 @@
     <t xml:space="preserve">number of sub atomic KPI Passed</t>
   </si>
   <si>
-    <t xml:space="preserve">180
+    <t xml:space="preserve">680
 617</t>
   </si>
   <si>
@@ -2064,8 +2066,7 @@
   </si>
   <si>
     <t xml:space="preserve">179
-180
-</t>
+180</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 20</t>
@@ -2105,8 +2106,7 @@
 185
 186
 187
-887
-</t>
+887</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
@@ -2569,7 +2569,7 @@
     <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activations: Rich/Schweppes  in customer cooler</t>
+    <t xml:space="preserve">Impulse Activations: Rich/Schweppes in customer cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Импульсная Активация: Rich/Schweppes в ХО клиента</t>
@@ -2912,51 +2912,51 @@
   </sheetPr>
   <dimension ref="A1:AM268"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F245" activeCellId="0" sqref="F245"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+      <selection pane="bottomLeft" activeCell="AL153" activeCellId="0" sqref="AL153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="59.1295546558704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="82.0526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.6356275303644"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="90.4089068825911"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="130.684210526316"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="158.748987854251"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="92.7651821862348"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="134.218623481781"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="163.141700404858"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -14446,7 +14446,7 @@
         <v>492</v>
       </c>
       <c r="AM152" s="1" t="n">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14512,7 +14512,7 @@
         <v>4</v>
       </c>
       <c r="AK153" s="1" t="n">
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="AL153" s="0"/>
       <c r="AM153" s="1" t="n">
@@ -21676,7 +21676,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1"/>
+  <autoFilter ref="A1:AM268"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -12,10 +12,11 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2912,51 +2913,51 @@
   </sheetPr>
   <dimension ref="A1:AM268"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
-      <selection pane="bottomLeft" activeCell="AL153" activeCellId="0" sqref="AL153"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="H250" activeCellId="0" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="84.0890688259109"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="84.8380566801619"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="92.7651821862348"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="134.218623481781"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="163.141700404858"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="93.6234817813765"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="135.396761133603"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="164.534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -11935,10 +11936,6 @@
       </c>
       <c r="K118" s="0"/>
       <c r="L118" s="0"/>
-      <c r="M118" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N118" s="1" t="s">
         <v>385</v>
       </c>
@@ -12012,10 +12009,6 @@
       </c>
       <c r="K119" s="0"/>
       <c r="L119" s="0"/>
-      <c r="M119" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N119" s="1" t="s">
         <v>388</v>
       </c>
@@ -12089,10 +12082,6 @@
       </c>
       <c r="K120" s="0"/>
       <c r="L120" s="0"/>
-      <c r="M120" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N120" s="1" t="s">
         <v>391</v>
       </c>
@@ -12166,10 +12155,6 @@
       </c>
       <c r="K121" s="0"/>
       <c r="L121" s="0"/>
-      <c r="M121" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N121" s="1" t="s">
         <v>394</v>
       </c>
@@ -12243,10 +12228,6 @@
       </c>
       <c r="K122" s="0"/>
       <c r="L122" s="0"/>
-      <c r="M122" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N122" s="1" t="s">
         <v>397</v>
       </c>
@@ -12320,10 +12301,6 @@
       </c>
       <c r="K123" s="0"/>
       <c r="L123" s="0"/>
-      <c r="M123" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N123" s="1" t="s">
         <v>400</v>
       </c>
@@ -12397,10 +12374,6 @@
       </c>
       <c r="K124" s="0"/>
       <c r="L124" s="0"/>
-      <c r="M124" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N124" s="1" t="s">
         <v>403</v>
       </c>
@@ -12474,10 +12447,6 @@
       </c>
       <c r="K125" s="0"/>
       <c r="L125" s="0"/>
-      <c r="M125" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N125" s="1" t="s">
         <v>406</v>
       </c>
@@ -12551,10 +12520,6 @@
       </c>
       <c r="K126" s="0"/>
       <c r="L126" s="0"/>
-      <c r="M126" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N126" s="1" t="n">
         <v>4650075422847</v>
       </c>
@@ -12628,10 +12593,6 @@
       </c>
       <c r="K127" s="0"/>
       <c r="L127" s="0"/>
-      <c r="M127" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N127" s="1" t="s">
         <v>411</v>
       </c>
@@ -12705,10 +12666,6 @@
       </c>
       <c r="K128" s="0"/>
       <c r="L128" s="0"/>
-      <c r="M128" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N128" s="1" t="s">
         <v>414</v>
       </c>
@@ -12782,10 +12739,6 @@
       </c>
       <c r="K129" s="0"/>
       <c r="L129" s="0"/>
-      <c r="M129" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N129" s="1" t="s">
         <v>417</v>
       </c>
@@ -12859,10 +12812,6 @@
       </c>
       <c r="K130" s="0"/>
       <c r="L130" s="0"/>
-      <c r="M130" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N130" s="1" t="s">
         <v>420</v>
       </c>
@@ -12936,10 +12885,6 @@
       </c>
       <c r="K131" s="0"/>
       <c r="L131" s="0"/>
-      <c r="M131" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N131" s="1" t="s">
         <v>423</v>
       </c>
@@ -13013,10 +12958,6 @@
       </c>
       <c r="K132" s="0"/>
       <c r="L132" s="0"/>
-      <c r="M132" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
       <c r="N132" s="1" t="s">
         <v>426</v>
       </c>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -12,11 +12,11 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2234,8 +2234,7 @@
   </si>
   <si>
     <t xml:space="preserve">196
-197
-</t>
+197</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 21</t>
@@ -2913,49 +2912,49 @@
   </sheetPr>
   <dimension ref="A1:AM268"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="H250" activeCellId="0" sqref="H250"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="AL217" activeCellId="0" sqref="AL217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.2712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="84.8380566801619"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="93.6234817813765"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="135.396761133603"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="164.534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="94.3724696356275"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="136.684210526316"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="166.032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
@@ -11936,6 +11935,7 @@
       </c>
       <c r="K118" s="0"/>
       <c r="L118" s="0"/>
+      <c r="M118" s="0"/>
       <c r="N118" s="1" t="s">
         <v>385</v>
       </c>
@@ -12009,6 +12009,7 @@
       </c>
       <c r="K119" s="0"/>
       <c r="L119" s="0"/>
+      <c r="M119" s="0"/>
       <c r="N119" s="1" t="s">
         <v>388</v>
       </c>
@@ -12082,6 +12083,7 @@
       </c>
       <c r="K120" s="0"/>
       <c r="L120" s="0"/>
+      <c r="M120" s="0"/>
       <c r="N120" s="1" t="s">
         <v>391</v>
       </c>
@@ -12155,6 +12157,7 @@
       </c>
       <c r="K121" s="0"/>
       <c r="L121" s="0"/>
+      <c r="M121" s="0"/>
       <c r="N121" s="1" t="s">
         <v>394</v>
       </c>
@@ -12228,6 +12231,7 @@
       </c>
       <c r="K122" s="0"/>
       <c r="L122" s="0"/>
+      <c r="M122" s="0"/>
       <c r="N122" s="1" t="s">
         <v>397</v>
       </c>
@@ -12301,6 +12305,7 @@
       </c>
       <c r="K123" s="0"/>
       <c r="L123" s="0"/>
+      <c r="M123" s="0"/>
       <c r="N123" s="1" t="s">
         <v>400</v>
       </c>
@@ -12374,6 +12379,7 @@
       </c>
       <c r="K124" s="0"/>
       <c r="L124" s="0"/>
+      <c r="M124" s="0"/>
       <c r="N124" s="1" t="s">
         <v>403</v>
       </c>
@@ -12447,6 +12453,7 @@
       </c>
       <c r="K125" s="0"/>
       <c r="L125" s="0"/>
+      <c r="M125" s="0"/>
       <c r="N125" s="1" t="s">
         <v>406</v>
       </c>
@@ -12520,6 +12527,7 @@
       </c>
       <c r="K126" s="0"/>
       <c r="L126" s="0"/>
+      <c r="M126" s="0"/>
       <c r="N126" s="1" t="n">
         <v>4650075422847</v>
       </c>
@@ -12593,6 +12601,7 @@
       </c>
       <c r="K127" s="0"/>
       <c r="L127" s="0"/>
+      <c r="M127" s="0"/>
       <c r="N127" s="1" t="s">
         <v>411</v>
       </c>
@@ -12666,6 +12675,7 @@
       </c>
       <c r="K128" s="0"/>
       <c r="L128" s="0"/>
+      <c r="M128" s="0"/>
       <c r="N128" s="1" t="s">
         <v>414</v>
       </c>
@@ -12739,6 +12749,7 @@
       </c>
       <c r="K129" s="0"/>
       <c r="L129" s="0"/>
+      <c r="M129" s="0"/>
       <c r="N129" s="1" t="s">
         <v>417</v>
       </c>
@@ -12812,6 +12823,7 @@
       </c>
       <c r="K130" s="0"/>
       <c r="L130" s="0"/>
+      <c r="M130" s="0"/>
       <c r="N130" s="1" t="s">
         <v>420</v>
       </c>
@@ -12885,6 +12897,7 @@
       </c>
       <c r="K131" s="0"/>
       <c r="L131" s="0"/>
+      <c r="M131" s="0"/>
       <c r="N131" s="1" t="s">
         <v>423</v>
       </c>
@@ -12958,6 +12971,7 @@
       </c>
       <c r="K132" s="0"/>
       <c r="L132" s="0"/>
+      <c r="M132" s="0"/>
       <c r="N132" s="1" t="s">
         <v>426</v>
       </c>
@@ -21620,7 +21634,7 @@
   <autoFilter ref="A1:AM268"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Supermarket" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="840">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1561,7 +1562,7 @@
     <t xml:space="preserve">SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">bakery_area</t>
+    <t xml:space="preserve">Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 0.9L</t>
@@ -1574,9 +1575,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
   </si>
   <si>
     <t xml:space="preserve">Local</t>
@@ -2912,51 +2910,51 @@
   </sheetPr>
   <dimension ref="A1:AM268"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AL217" activeCellId="0" sqref="AL217"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="V147" activeCellId="0" sqref="V147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="86.336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="94.3724696356275"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="136.684210526316"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="166.032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="95.1214574898785"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="137.862348178138"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="167.534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -13899,8 +13897,8 @@
       <c r="V145" s="0"/>
       <c r="X145" s="0"/>
       <c r="Y145" s="0"/>
-      <c r="AA145" s="1" t="s">
-        <v>468</v>
+      <c r="AA145" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AC145" s="0"/>
       <c r="AD145" s="1" t="s">
@@ -13931,14 +13929,14 @@
         <v>40</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E146" s="0"/>
       <c r="F146" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>451</v>
@@ -13972,7 +13970,7 @@
         <v>0.01</v>
       </c>
       <c r="AH146" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AI146" s="1" t="s">
         <v>449</v>
@@ -13984,7 +13982,7 @@
         <v>135</v>
       </c>
       <c r="AL146" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AM146" s="1" t="n">
         <v>302</v>
@@ -14001,16 +13999,16 @@
         <v>40</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>53</v>
@@ -14022,7 +14020,7 @@
       <c r="K147" s="0"/>
       <c r="L147" s="0"/>
       <c r="M147" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N147" s="1" t="n">
         <v>5449000000439</v>
@@ -14039,8 +14037,8 @@
       <c r="V147" s="0"/>
       <c r="X147" s="0"/>
       <c r="Y147" s="0"/>
-      <c r="AA147" s="1" t="s">
-        <v>468</v>
+      <c r="AA147" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AC147" s="0"/>
       <c r="AD147" s="1" t="s">
@@ -14071,16 +14069,16 @@
         <v>40</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>53</v>
@@ -14092,7 +14090,7 @@
       <c r="K148" s="0"/>
       <c r="L148" s="0"/>
       <c r="M148" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N148" s="1" t="n">
         <v>5449000133335</v>
@@ -14109,8 +14107,8 @@
       <c r="V148" s="0"/>
       <c r="X148" s="0"/>
       <c r="Y148" s="0"/>
-      <c r="AA148" s="1" t="s">
-        <v>468</v>
+      <c r="AA148" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AC148" s="0"/>
       <c r="AD148" s="1" t="s">
@@ -14147,10 +14145,10 @@
         <v>448</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>451</v>
@@ -14192,7 +14190,7 @@
         <v>151</v>
       </c>
       <c r="AL149" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM149" s="1" t="n">
         <v>302</v>
@@ -14215,10 +14213,10 @@
         <v>448</v>
       </c>
       <c r="F150" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>53</v>
@@ -14287,10 +14285,10 @@
         <v>448</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>461</v>
@@ -14313,7 +14311,7 @@
         <v>462</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X151" s="0"/>
       <c r="Y151" s="0"/>
@@ -14355,13 +14353,13 @@
         <v>448</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="I152" s="0"/>
       <c r="J152" s="1" t="n">
@@ -14398,7 +14396,7 @@
         <v>616</v>
       </c>
       <c r="AL152" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM152" s="1" t="n">
         <v>151</v>
@@ -14421,10 +14419,10 @@
         <v>448</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>466</v>
@@ -14491,10 +14489,10 @@
         <v>448</v>
       </c>
       <c r="F154" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>466</v>
@@ -14504,7 +14502,7 @@
       <c r="K154" s="0"/>
       <c r="L154" s="0"/>
       <c r="M154" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N154" s="1" t="n">
         <v>54491472</v>
@@ -14561,10 +14559,10 @@
         <v>448</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>451</v>
@@ -14606,7 +14604,7 @@
         <v>162</v>
       </c>
       <c r="AL155" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM155" s="1" t="n">
         <v>302</v>
@@ -14629,10 +14627,10 @@
         <v>448</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>53</v>
@@ -14701,10 +14699,10 @@
         <v>448</v>
       </c>
       <c r="F157" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>461</v>
@@ -14727,7 +14725,7 @@
         <v>462</v>
       </c>
       <c r="V157" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="X157" s="0"/>
       <c r="Y157" s="0"/>
@@ -14769,13 +14767,13 @@
         <v>448</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="H158" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I158" s="0"/>
       <c r="J158" s="1" t="n">
@@ -14812,7 +14810,7 @@
         <v>165</v>
       </c>
       <c r="AL158" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM158" s="1" t="n">
         <v>162</v>
@@ -14835,10 +14833,10 @@
         <v>448</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>466</v>
@@ -14905,10 +14903,10 @@
         <v>448</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>466</v>
@@ -14918,7 +14916,7 @@
       <c r="K160" s="0"/>
       <c r="L160" s="0"/>
       <c r="M160" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N160" s="1" t="n">
         <v>5449000044839</v>
@@ -14975,10 +14973,10 @@
         <v>448</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>451</v>
@@ -15000,7 +14998,7 @@
       <c r="S161" s="0"/>
       <c r="V161" s="0"/>
       <c r="X161" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y161" s="0"/>
       <c r="AA161" s="0"/>
@@ -15020,7 +15018,7 @@
         <v>625</v>
       </c>
       <c r="AL161" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AM161" s="1" t="n">
         <v>302</v>
@@ -15043,10 +15041,10 @@
         <v>448</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>53</v>
@@ -15061,10 +15059,10 @@
         <v>456</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P162" s="0"/>
       <c r="Q162" s="0"/>
@@ -15076,7 +15074,7 @@
       </c>
       <c r="V162" s="0"/>
       <c r="X162" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y162" s="0"/>
       <c r="AA162" s="0"/>
@@ -15115,10 +15113,10 @@
         <v>448</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>461</v>
@@ -15141,10 +15139,10 @@
         <v>462</v>
       </c>
       <c r="V163" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X163" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y163" s="0"/>
       <c r="AA163" s="0"/>
@@ -15183,13 +15181,13 @@
         <v>448</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="H164" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I164" s="0"/>
       <c r="J164" s="1" t="n">
@@ -15208,7 +15206,7 @@
       <c r="S164" s="0"/>
       <c r="V164" s="0"/>
       <c r="X164" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y164" s="0"/>
       <c r="AA164" s="0"/>
@@ -15226,7 +15224,7 @@
         <v>628</v>
       </c>
       <c r="AL164" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AM164" s="1" t="n">
         <v>625</v>
@@ -15246,13 +15244,13 @@
         <v>41</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>466</v>
@@ -15276,7 +15274,7 @@
       <c r="S165" s="0"/>
       <c r="V165" s="0"/>
       <c r="X165" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y165" s="0"/>
       <c r="AA165" s="0"/>
@@ -15312,13 +15310,13 @@
         <v>41</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>466</v>
@@ -15342,7 +15340,7 @@
       <c r="S166" s="0"/>
       <c r="V166" s="0"/>
       <c r="X166" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y166" s="0"/>
       <c r="AA166" s="0"/>
@@ -15378,13 +15376,13 @@
         <v>41</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>466</v>
@@ -15408,7 +15406,7 @@
       <c r="S167" s="0"/>
       <c r="V167" s="0"/>
       <c r="X167" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y167" s="0"/>
       <c r="AA167" s="0"/>
@@ -15445,10 +15443,10 @@
       </c>
       <c r="E168" s="0"/>
       <c r="F168" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>41</v>
@@ -15480,7 +15478,7 @@
         <v>303</v>
       </c>
       <c r="AL168" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AM168" s="1" t="n">
         <v>301</v>
@@ -15503,10 +15501,10 @@
         <v>448</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>451</v>
@@ -15548,7 +15546,7 @@
         <v>140</v>
       </c>
       <c r="AL169" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM169" s="1" t="n">
         <v>303</v>
@@ -15571,10 +15569,10 @@
         <v>448</v>
       </c>
       <c r="F170" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>53</v>
@@ -15589,10 +15587,10 @@
         <v>456</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P170" s="0"/>
       <c r="Q170" s="0"/>
@@ -15643,10 +15641,10 @@
         <v>448</v>
       </c>
       <c r="F171" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G171" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>461</v>
@@ -15669,7 +15667,7 @@
         <v>462</v>
       </c>
       <c r="V171" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="X171" s="0"/>
       <c r="Y171" s="0"/>
@@ -15711,13 +15709,13 @@
         <v>448</v>
       </c>
       <c r="F172" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="H172" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I172" s="0"/>
       <c r="J172" s="1" t="n">
@@ -15754,7 +15752,7 @@
         <v>143</v>
       </c>
       <c r="AL172" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AM172" s="1" t="n">
         <v>140</v>
@@ -15777,10 +15775,10 @@
         <v>448</v>
       </c>
       <c r="F173" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>466</v>
@@ -15816,7 +15814,7 @@
       </c>
       <c r="AE173" s="0"/>
       <c r="AH173" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AI173" s="0"/>
       <c r="AJ173" s="1" t="n">
@@ -15847,10 +15845,10 @@
         <v>448</v>
       </c>
       <c r="F174" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>466</v>
@@ -15886,7 +15884,7 @@
       </c>
       <c r="AE174" s="0"/>
       <c r="AH174" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AI174" s="0"/>
       <c r="AJ174" s="1" t="n">
@@ -15911,16 +15909,16 @@
         <v>40</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>451</v>
@@ -15954,10 +15952,10 @@
         <v>0.01</v>
       </c>
       <c r="AH175" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AI175" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AJ175" s="1" t="n">
         <v>2</v>
@@ -15966,7 +15964,7 @@
         <v>146</v>
       </c>
       <c r="AL175" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM175" s="1" t="n">
         <v>303</v>
@@ -15983,16 +15981,16 @@
         <v>40</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F176" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G176" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>53</v>
@@ -16053,16 +16051,16 @@
         <v>40</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F177" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>53</v>
@@ -16123,16 +16121,16 @@
         <v>40</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F178" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>53</v>
@@ -16193,16 +16191,16 @@
         <v>40</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F179" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>53</v>
@@ -16267,10 +16265,10 @@
       </c>
       <c r="E180" s="0"/>
       <c r="F180" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>41</v>
@@ -16324,10 +16322,10 @@
         <v>448</v>
       </c>
       <c r="F181" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>451</v>
@@ -16349,7 +16347,7 @@
       <c r="S181" s="0"/>
       <c r="V181" s="0"/>
       <c r="X181" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y181" s="0"/>
       <c r="AC181" s="0"/>
@@ -16368,7 +16366,7 @@
         <v>155</v>
       </c>
       <c r="AL181" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AM181" s="1" t="n">
         <v>320</v>
@@ -16391,10 +16389,10 @@
         <v>448</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>53</v>
@@ -16409,24 +16407,24 @@
         <v>456</v>
       </c>
       <c r="N182" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="O182" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="O182" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="P182" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q182" s="0"/>
       <c r="R182" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S182" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V182" s="0"/>
       <c r="X182" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y182" s="0"/>
       <c r="AC182" s="0"/>
@@ -16464,10 +16462,10 @@
         <v>448</v>
       </c>
       <c r="F183" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>461</v>
@@ -16489,10 +16487,10 @@
         <v>462</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="X183" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y183" s="0"/>
       <c r="AC183" s="0"/>
@@ -16530,13 +16528,13 @@
         <v>448</v>
       </c>
       <c r="F184" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="H184" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I184" s="0"/>
       <c r="J184" s="1" t="n">
@@ -16554,7 +16552,7 @@
       <c r="S184" s="0"/>
       <c r="V184" s="0"/>
       <c r="X184" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y184" s="0"/>
       <c r="AC184" s="0"/>
@@ -16571,7 +16569,7 @@
         <v>158</v>
       </c>
       <c r="AL184" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM184" s="1" t="n">
         <v>155</v>
@@ -16594,10 +16592,10 @@
         <v>448</v>
       </c>
       <c r="F185" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>466</v>
@@ -16607,10 +16605,10 @@
       <c r="K185" s="0"/>
       <c r="L185" s="0"/>
       <c r="M185" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="N185" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="O185" s="0"/>
       <c r="Q185" s="0"/>
@@ -16622,7 +16620,7 @@
       </c>
       <c r="V185" s="0"/>
       <c r="X185" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y185" s="0"/>
       <c r="AC185" s="0"/>
@@ -16660,10 +16658,10 @@
         <v>448</v>
       </c>
       <c r="F186" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>466</v>
@@ -16688,7 +16686,7 @@
       </c>
       <c r="V186" s="0"/>
       <c r="X186" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y186" s="0"/>
       <c r="AC186" s="0"/>
@@ -16724,10 +16722,10 @@
       </c>
       <c r="E187" s="0"/>
       <c r="F187" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>41</v>
@@ -16780,10 +16778,10 @@
         <v>448</v>
       </c>
       <c r="F188" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>451</v>
@@ -16804,7 +16802,7 @@
       <c r="S188" s="0"/>
       <c r="V188" s="0"/>
       <c r="X188" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Y188" s="0"/>
       <c r="AC188" s="0"/>
@@ -16823,7 +16821,7 @@
         <v>171</v>
       </c>
       <c r="AL188" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM188" s="1" t="n">
         <v>321</v>
@@ -16846,10 +16844,10 @@
         <v>448</v>
       </c>
       <c r="F189" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>53</v>
@@ -16864,10 +16862,10 @@
         <v>456</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q189" s="0"/>
       <c r="R189" s="1" t="s">
@@ -16878,7 +16876,7 @@
       </c>
       <c r="V189" s="0"/>
       <c r="X189" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Y189" s="0"/>
       <c r="AC189" s="0"/>
@@ -16916,10 +16914,10 @@
         <v>448</v>
       </c>
       <c r="F190" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>461</v>
@@ -16941,10 +16939,10 @@
         <v>462</v>
       </c>
       <c r="V190" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="X190" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Y190" s="0"/>
       <c r="AC190" s="0"/>
@@ -16982,13 +16980,13 @@
         <v>448</v>
       </c>
       <c r="F191" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="H191" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I191" s="0"/>
       <c r="J191" s="1" t="n">
@@ -17006,7 +17004,7 @@
       <c r="S191" s="0"/>
       <c r="V191" s="0"/>
       <c r="X191" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Y191" s="0"/>
       <c r="AC191" s="0"/>
@@ -17023,7 +17021,7 @@
         <v>174</v>
       </c>
       <c r="AL191" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM191" s="1" t="n">
         <v>171</v>
@@ -17046,10 +17044,10 @@
         <v>448</v>
       </c>
       <c r="F192" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>466</v>
@@ -17074,7 +17072,7 @@
       </c>
       <c r="V192" s="0"/>
       <c r="X192" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Y192" s="0"/>
       <c r="AC192" s="0"/>
@@ -17083,7 +17081,7 @@
       </c>
       <c r="AE192" s="0"/>
       <c r="AH192" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AI192" s="0"/>
       <c r="AJ192" s="1" t="n">
@@ -17114,10 +17112,10 @@
         <v>448</v>
       </c>
       <c r="F193" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>466</v>
@@ -17142,7 +17140,7 @@
       </c>
       <c r="V193" s="0"/>
       <c r="X193" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Y193" s="0"/>
       <c r="AC193" s="0"/>
@@ -17151,7 +17149,7 @@
       </c>
       <c r="AE193" s="0"/>
       <c r="AH193" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AI193" s="0"/>
       <c r="AJ193" s="1" t="n">
@@ -17182,10 +17180,10 @@
         <v>448</v>
       </c>
       <c r="F194" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>466</v>
@@ -17210,7 +17208,7 @@
       </c>
       <c r="V194" s="0"/>
       <c r="X194" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Y194" s="0"/>
       <c r="AC194" s="0"/>
@@ -17219,7 +17217,7 @@
       </c>
       <c r="AE194" s="0"/>
       <c r="AH194" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AI194" s="0"/>
       <c r="AJ194" s="1" t="n">
@@ -17250,10 +17248,10 @@
         <v>448</v>
       </c>
       <c r="F195" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>466</v>
@@ -17278,7 +17276,7 @@
       </c>
       <c r="V195" s="0"/>
       <c r="X195" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Y195" s="0"/>
       <c r="AC195" s="0"/>
@@ -17287,7 +17285,7 @@
       </c>
       <c r="AE195" s="0"/>
       <c r="AH195" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AI195" s="0"/>
       <c r="AJ195" s="1" t="n">
@@ -17316,10 +17314,10 @@
       </c>
       <c r="E196" s="0"/>
       <c r="F196" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>41</v>
@@ -17349,7 +17347,7 @@
         <v>520</v>
       </c>
       <c r="AL196" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AM196" s="0"/>
     </row>
@@ -17368,10 +17366,10 @@
       </c>
       <c r="E197" s="0"/>
       <c r="F197" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>41</v>
@@ -17401,7 +17399,7 @@
         <v>501</v>
       </c>
       <c r="AL197" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AM197" s="1" t="n">
         <v>520</v>
@@ -17418,19 +17416,19 @@
         <v>40</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E198" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="I198" s="0"/>
       <c r="J198" s="1" t="n">
@@ -17454,12 +17452,12 @@
       </c>
       <c r="V198" s="0"/>
       <c r="X198" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y198" s="0"/>
       <c r="AC198" s="0"/>
       <c r="AD198" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE198" s="1" t="n">
         <v>0.0725</v>
@@ -17488,19 +17486,19 @@
         <v>40</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F199" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="I199" s="0"/>
       <c r="J199" s="1" t="n">
@@ -17518,11 +17516,11 @@
       <c r="S199" s="0"/>
       <c r="V199" s="0"/>
       <c r="X199" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y199" s="0"/>
       <c r="AC199" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD199" s="1" t="s">
         <v>59</v>
@@ -17539,7 +17537,7 @@
         <v>180</v>
       </c>
       <c r="AL199" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AM199" s="1" t="n">
         <v>501</v>
@@ -17556,16 +17554,16 @@
         <v>40</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F200" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>53</v>
@@ -17592,11 +17590,11 @@
       </c>
       <c r="V200" s="0"/>
       <c r="X200" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y200" s="0"/>
       <c r="AC200" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD200" s="1" t="s">
         <v>59</v>
@@ -17626,16 +17624,16 @@
         <v>40</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F201" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>53</v>
@@ -17662,11 +17660,11 @@
       </c>
       <c r="V201" s="0"/>
       <c r="X201" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y201" s="0"/>
       <c r="AC201" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD201" s="1" t="s">
         <v>59</v>
@@ -17696,16 +17694,16 @@
         <v>40</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F202" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>53</v>
@@ -17732,11 +17730,11 @@
       </c>
       <c r="V202" s="0"/>
       <c r="X202" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y202" s="0"/>
       <c r="AC202" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD202" s="1" t="s">
         <v>59</v>
@@ -17766,16 +17764,16 @@
         <v>40</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F203" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>53</v>
@@ -17802,11 +17800,11 @@
       </c>
       <c r="V203" s="0"/>
       <c r="X203" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y203" s="0"/>
       <c r="AC203" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD203" s="1" t="s">
         <v>59</v>
@@ -17836,16 +17834,16 @@
         <v>40</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F204" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>53</v>
@@ -17872,11 +17870,11 @@
       </c>
       <c r="V204" s="0"/>
       <c r="X204" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y204" s="0"/>
       <c r="AC204" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD204" s="1" t="s">
         <v>59</v>
@@ -17906,16 +17904,16 @@
         <v>40</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F205" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>53</v>
@@ -17927,7 +17925,7 @@
       <c r="K205" s="0"/>
       <c r="L205" s="0"/>
       <c r="M205" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N205" s="1" t="s">
         <v>145</v>
@@ -17942,11 +17940,11 @@
       </c>
       <c r="V205" s="0"/>
       <c r="X205" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y205" s="0"/>
       <c r="AC205" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD205" s="1" t="s">
         <v>59</v>
@@ -17976,16 +17974,16 @@
         <v>40</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F206" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G206" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>53</v>
@@ -18012,11 +18010,11 @@
       </c>
       <c r="V206" s="0"/>
       <c r="X206" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y206" s="0"/>
       <c r="AC206" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD206" s="1" t="s">
         <v>59</v>
@@ -18046,16 +18044,16 @@
         <v>40</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F207" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>53</v>
@@ -18067,7 +18065,7 @@
       <c r="K207" s="0"/>
       <c r="L207" s="0"/>
       <c r="M207" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N207" s="1" t="n">
         <v>5449000064110</v>
@@ -18082,11 +18080,11 @@
       </c>
       <c r="V207" s="0"/>
       <c r="X207" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y207" s="0"/>
       <c r="AC207" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD207" s="1" t="s">
         <v>59</v>
@@ -18120,10 +18118,10 @@
       </c>
       <c r="E208" s="0"/>
       <c r="F208" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>41</v>
@@ -18153,7 +18151,7 @@
         <v>502</v>
       </c>
       <c r="AL208" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM208" s="1" t="n">
         <v>520</v>
@@ -18173,16 +18171,16 @@
         <v>41</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="G209" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>655</v>
-      </c>
       <c r="H209" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I209" s="0"/>
       <c r="J209" s="1" t="n">
@@ -18194,10 +18192,10 @@
         <v>456</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q209" s="0"/>
       <c r="R209" s="0"/>
@@ -18206,12 +18204,12 @@
       </c>
       <c r="V209" s="0"/>
       <c r="X209" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y209" s="0"/>
       <c r="AC209" s="0"/>
       <c r="AD209" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE209" s="1" t="n">
         <v>0.0625</v>
@@ -18240,19 +18238,19 @@
         <v>40</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F210" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="H210" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I210" s="0"/>
       <c r="J210" s="1" t="n">
@@ -18270,11 +18268,11 @@
       <c r="S210" s="0"/>
       <c r="V210" s="0"/>
       <c r="X210" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y210" s="0"/>
       <c r="AC210" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD210" s="1" t="s">
         <v>59</v>
@@ -18291,7 +18289,7 @@
         <v>190</v>
       </c>
       <c r="AL210" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AM210" s="1" t="n">
         <v>502</v>
@@ -18308,16 +18306,16 @@
         <v>40</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F211" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>53</v>
@@ -18344,11 +18342,11 @@
       </c>
       <c r="V211" s="0"/>
       <c r="X211" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y211" s="0"/>
       <c r="AC211" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD211" s="1" t="s">
         <v>59</v>
@@ -18378,16 +18376,16 @@
         <v>40</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F212" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>53</v>
@@ -18414,11 +18412,11 @@
       </c>
       <c r="V212" s="0"/>
       <c r="X212" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y212" s="0"/>
       <c r="AC212" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD212" s="1" t="s">
         <v>59</v>
@@ -18448,16 +18446,16 @@
         <v>40</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F213" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>53</v>
@@ -18484,11 +18482,11 @@
       </c>
       <c r="V213" s="0"/>
       <c r="X213" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y213" s="0"/>
       <c r="AC213" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD213" s="1" t="s">
         <v>59</v>
@@ -18518,16 +18516,16 @@
         <v>40</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F214" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>53</v>
@@ -18554,11 +18552,11 @@
       </c>
       <c r="V214" s="0"/>
       <c r="X214" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y214" s="0"/>
       <c r="AC214" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD214" s="1" t="s">
         <v>59</v>
@@ -18588,16 +18586,16 @@
         <v>40</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F215" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>53</v>
@@ -18624,11 +18622,11 @@
       </c>
       <c r="V215" s="0"/>
       <c r="X215" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y215" s="0"/>
       <c r="AC215" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD215" s="1" t="s">
         <v>59</v>
@@ -18662,10 +18660,10 @@
       </c>
       <c r="E216" s="0"/>
       <c r="F216" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G216" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>41</v>
@@ -18695,7 +18693,7 @@
         <v>503</v>
       </c>
       <c r="AL216" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AM216" s="1" t="n">
         <v>520</v>
@@ -18715,16 +18713,16 @@
         <v>41</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="G217" s="1" t="s">
-        <v>674</v>
-      </c>
       <c r="H217" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I217" s="0"/>
       <c r="J217" s="1" t="n">
@@ -18736,10 +18734,10 @@
         <v>456</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q217" s="0"/>
       <c r="R217" s="0"/>
@@ -18748,12 +18746,12 @@
       </c>
       <c r="V217" s="0"/>
       <c r="X217" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y217" s="0"/>
       <c r="AC217" s="0"/>
       <c r="AD217" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE217" s="1" t="n">
         <v>0.0225</v>
@@ -18782,19 +18780,19 @@
         <v>40</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F218" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G218" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G218" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="H218" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I218" s="0"/>
       <c r="J218" s="1" t="n">
@@ -18812,11 +18810,11 @@
       <c r="S218" s="0"/>
       <c r="V218" s="0"/>
       <c r="X218" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y218" s="0"/>
       <c r="AC218" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD218" s="1" t="s">
         <v>59</v>
@@ -18833,7 +18831,7 @@
         <v>197</v>
       </c>
       <c r="AL218" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AM218" s="1" t="n">
         <v>503</v>
@@ -18850,13 +18848,13 @@
         <v>40</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>180</v>
@@ -18886,11 +18884,11 @@
       </c>
       <c r="V219" s="0"/>
       <c r="X219" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y219" s="0"/>
       <c r="AC219" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD219" s="1" t="s">
         <v>59</v>
@@ -18924,10 +18922,10 @@
       </c>
       <c r="E220" s="0"/>
       <c r="F220" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>41</v>
@@ -18977,16 +18975,16 @@
         <v>41</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="G221" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="H221" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I221" s="0"/>
       <c r="J221" s="1" t="n">
@@ -18998,10 +18996,10 @@
         <v>456</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O221" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Q221" s="0"/>
       <c r="R221" s="0"/>
@@ -19010,12 +19008,12 @@
       </c>
       <c r="V221" s="0"/>
       <c r="X221" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y221" s="0"/>
       <c r="AC221" s="0"/>
       <c r="AD221" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE221" s="1" t="n">
         <v>0.0425</v>
@@ -19044,19 +19042,19 @@
         <v>40</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F222" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="H222" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I222" s="0"/>
       <c r="J222" s="1" t="n">
@@ -19074,11 +19072,11 @@
       <c r="S222" s="0"/>
       <c r="V222" s="0"/>
       <c r="X222" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y222" s="0"/>
       <c r="AC222" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD222" s="1" t="s">
         <v>59</v>
@@ -19095,7 +19093,7 @@
         <v>200</v>
       </c>
       <c r="AL222" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AM222" s="1" t="n">
         <v>504</v>
@@ -19112,16 +19110,16 @@
         <v>40</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F223" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G223" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>53</v>
@@ -19148,11 +19146,11 @@
       </c>
       <c r="V223" s="0"/>
       <c r="X223" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y223" s="0"/>
       <c r="AC223" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD223" s="1" t="s">
         <v>59</v>
@@ -19182,16 +19180,16 @@
         <v>40</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F224" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>53</v>
@@ -19203,10 +19201,10 @@
       <c r="K224" s="0"/>
       <c r="L224" s="0"/>
       <c r="M224" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O224" s="0"/>
       <c r="Q224" s="0"/>
@@ -19218,11 +19216,11 @@
       </c>
       <c r="V224" s="0"/>
       <c r="X224" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y224" s="0"/>
       <c r="AC224" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD224" s="1" t="s">
         <v>59</v>
@@ -19256,10 +19254,10 @@
       </c>
       <c r="E225" s="0"/>
       <c r="F225" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>41</v>
@@ -19309,16 +19307,16 @@
         <v>41</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="G226" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="G226" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="H226" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I226" s="0"/>
       <c r="J226" s="1" t="n">
@@ -19330,10 +19328,10 @@
         <v>456</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O226" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q226" s="0"/>
       <c r="R226" s="0"/>
@@ -19342,12 +19340,12 @@
       </c>
       <c r="V226" s="0"/>
       <c r="X226" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y226" s="0"/>
       <c r="AC226" s="0"/>
       <c r="AD226" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE226" s="1" t="n">
         <v>0.04</v>
@@ -19380,10 +19378,10 @@
       </c>
       <c r="E227" s="0"/>
       <c r="F227" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>41</v>
@@ -19412,7 +19410,7 @@
         <v>310</v>
       </c>
       <c r="AL227" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM227" s="0"/>
     </row>
@@ -19431,10 +19429,10 @@
       </c>
       <c r="E228" s="0"/>
       <c r="F228" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G228" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>703</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>41</v>
@@ -19483,16 +19481,16 @@
         <v>41</v>
       </c>
       <c r="E229" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="G229" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="H229" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="I229" s="0"/>
       <c r="J229" s="0"/>
@@ -19502,23 +19500,23 @@
       <c r="N229" s="0"/>
       <c r="Q229" s="0"/>
       <c r="R229" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S229" s="0"/>
       <c r="V229" s="0"/>
       <c r="X229" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y229" s="0"/>
       <c r="AC229" s="0"/>
       <c r="AD229" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE229" s="1" t="n">
         <v>0.065</v>
       </c>
       <c r="AH229" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI229" s="0"/>
       <c r="AJ229" s="1" t="n">
@@ -19528,7 +19526,7 @@
         <v>204</v>
       </c>
       <c r="AL229" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AM229" s="1" t="n">
         <v>311</v>
@@ -19548,16 +19546,16 @@
         <v>41</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F230" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G230" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="H230" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>714</v>
       </c>
       <c r="I230" s="0"/>
       <c r="J230" s="1" t="n">
@@ -19571,16 +19569,16 @@
         <v>456</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q230" s="0"/>
       <c r="R230" s="0"/>
       <c r="S230" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V230" s="0"/>
       <c r="X230" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y230" s="0"/>
       <c r="AC230" s="0"/>
@@ -19615,16 +19613,16 @@
         <v>41</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F231" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="I231" s="0"/>
       <c r="J231" s="1" t="n">
@@ -19636,16 +19634,16 @@
         <v>456</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q231" s="0"/>
       <c r="R231" s="0"/>
       <c r="S231" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V231" s="0"/>
       <c r="X231" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Y231" s="0"/>
       <c r="AC231" s="0"/>
@@ -19681,10 +19679,10 @@
       </c>
       <c r="E232" s="0"/>
       <c r="F232" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>41</v>
@@ -19713,7 +19711,7 @@
         <v>312</v>
       </c>
       <c r="AL232" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AM232" s="1" t="n">
         <v>310</v>
@@ -19733,13 +19731,13 @@
         <v>41</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F233" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>461</v>
@@ -19755,13 +19753,13 @@
       <c r="Q233" s="0"/>
       <c r="R233" s="0"/>
       <c r="S233" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="V233" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>725</v>
-      </c>
       <c r="X233" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y233" s="0"/>
       <c r="AC233" s="0"/>
@@ -19772,10 +19770,10 @@
         <v>0.01625</v>
       </c>
       <c r="AH233" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI233" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ233" s="1" t="n">
         <v>2</v>
@@ -19802,16 +19800,16 @@
         <v>41</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F234" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="H234" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="I234" s="0"/>
       <c r="J234" s="1" t="n">
@@ -19827,15 +19825,15 @@
         <v>456</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q234" s="0"/>
       <c r="R234" s="0"/>
       <c r="S234" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="X234" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y234" s="0"/>
       <c r="AC234" s="0"/>
@@ -19846,10 +19844,10 @@
         <v>0.01625</v>
       </c>
       <c r="AH234" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI234" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ234" s="1" t="n">
         <v>2</v>
@@ -19876,13 +19874,13 @@
         <v>41</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F235" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G235" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>48</v>
@@ -19898,21 +19896,21 @@
       </c>
       <c r="S235" s="0"/>
       <c r="X235" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y235" s="0"/>
       <c r="AC235" s="0"/>
       <c r="AD235" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE235" s="1" t="n">
         <v>0.01625</v>
       </c>
       <c r="AH235" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI235" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ235" s="1" t="n">
         <v>2</v>
@@ -19921,7 +19919,7 @@
         <v>209</v>
       </c>
       <c r="AL235" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AM235" s="1" t="n">
         <v>312</v>
@@ -19942,13 +19940,13 @@
       </c>
       <c r="E236" s="0"/>
       <c r="F236" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G236" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G236" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="H236" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I236" s="0"/>
       <c r="J236" s="1" t="n">
@@ -19956,25 +19954,25 @@
       </c>
       <c r="K236" s="0"/>
       <c r="M236" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="N236" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="N236" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="Q236" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R236" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S236" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="X236" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y236" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="X236" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="Y236" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="AC236" s="0"/>
       <c r="AD236" s="1" t="s">
@@ -19982,10 +19980,10 @@
       </c>
       <c r="AE236" s="0"/>
       <c r="AH236" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI236" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ236" s="1" t="n">
         <v>3</v>
@@ -20013,13 +20011,13 @@
       </c>
       <c r="E237" s="0"/>
       <c r="F237" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="G237" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="H237" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I237" s="0"/>
       <c r="J237" s="1" t="n">
@@ -20027,25 +20025,25 @@
       </c>
       <c r="K237" s="0"/>
       <c r="M237" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="N237" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="N237" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="Q237" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R237" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S237" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="X237" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y237" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AC237" s="0"/>
       <c r="AD237" s="1" t="s">
@@ -20053,10 +20051,10 @@
       </c>
       <c r="AE237" s="0"/>
       <c r="AH237" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI237" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ237" s="1" t="n">
         <v>3</v>
@@ -20084,13 +20082,13 @@
       </c>
       <c r="E238" s="0"/>
       <c r="F238" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G238" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="G238" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="H238" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I238" s="0"/>
       <c r="J238" s="1" t="n">
@@ -20105,7 +20103,7 @@
       </c>
       <c r="S238" s="0"/>
       <c r="X238" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y238" s="0"/>
       <c r="AC238" s="0"/>
@@ -20114,10 +20112,10 @@
       </c>
       <c r="AE238" s="0"/>
       <c r="AH238" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI238" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ238" s="1" t="n">
         <v>3</v>
@@ -20126,7 +20124,7 @@
         <v>213</v>
       </c>
       <c r="AL238" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AM238" s="1" t="n">
         <v>209</v>
@@ -20147,10 +20145,10 @@
       </c>
       <c r="E239" s="0"/>
       <c r="F239" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G239" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>53</v>
@@ -20161,36 +20159,36 @@
       </c>
       <c r="K239" s="0"/>
       <c r="M239" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="N239" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="N239" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="Q239" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R239" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S239" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="X239" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y239" s="0"/>
       <c r="AC239" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD239" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AE239" s="0"/>
       <c r="AH239" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI239" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ239" s="1" t="n">
         <v>4</v>
@@ -20218,10 +20216,10 @@
       </c>
       <c r="E240" s="0"/>
       <c r="F240" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G240" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>748</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>53</v>
@@ -20232,36 +20230,36 @@
       </c>
       <c r="K240" s="0"/>
       <c r="M240" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="N240" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="N240" s="1" t="s">
-        <v>750</v>
-      </c>
       <c r="Q240" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R240" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S240" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="X240" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y240" s="0"/>
       <c r="AC240" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD240" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AE240" s="0"/>
       <c r="AH240" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI240" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ240" s="1" t="n">
         <v>4</v>
@@ -20289,13 +20287,13 @@
       </c>
       <c r="E241" s="0"/>
       <c r="F241" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G241" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="H241" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="I241" s="0"/>
       <c r="J241" s="1" t="n">
@@ -20306,16 +20304,16 @@
         <v>456</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S241" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="X241" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y241" s="0"/>
       <c r="AD241" s="1" t="s">
@@ -20323,10 +20321,10 @@
       </c>
       <c r="AE241" s="0"/>
       <c r="AH241" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI241" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ241" s="1" t="n">
         <v>3</v>
@@ -20353,43 +20351,43 @@
         <v>41</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F242" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G242" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="G242" s="1" t="s">
+      <c r="H242" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="I242" s="0"/>
       <c r="J242" s="0"/>
       <c r="K242" s="0"/>
       <c r="M242" s="0"/>
       <c r="N242" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R242" s="0"/>
       <c r="S242" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="X242" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y242" s="0"/>
       <c r="AD242" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE242" s="1" t="n">
         <v>0.01625</v>
       </c>
       <c r="AH242" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AI242" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AJ242" s="1" t="n">
         <v>2</v>
@@ -20413,19 +20411,19 @@
         <v>40</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F243" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G243" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="G243" s="1" t="s">
-        <v>758</v>
-      </c>
       <c r="H243" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I243" s="0"/>
       <c r="J243" s="1" t="n">
@@ -20439,11 +20437,11 @@
       </c>
       <c r="S243" s="0"/>
       <c r="X243" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Y243" s="0"/>
       <c r="AD243" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE243" s="1" t="n">
         <v>0.03</v>
@@ -20456,7 +20454,7 @@
         <v>218</v>
       </c>
       <c r="AL243" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AM243" s="1" t="n">
         <v>301</v>
@@ -20473,19 +20471,19 @@
         <v>40</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F244" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G244" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="H244" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="I244" s="0"/>
       <c r="J244" s="1" t="n">
@@ -20498,24 +20496,24 @@
         <v>456</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R244" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S244" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="X244" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Y244" s="0"/>
       <c r="AD244" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AE244" s="0"/>
       <c r="AH244" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AJ244" s="1" t="n">
         <v>3</v>
@@ -20543,10 +20541,10 @@
       </c>
       <c r="E245" s="0"/>
       <c r="F245" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>41</v>
@@ -20583,14 +20581,14 @@
         <v>40</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E246" s="0"/>
       <c r="F246" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="G246" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>48</v>
@@ -20614,7 +20612,7 @@
         <v>220</v>
       </c>
       <c r="AL246" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AM246" s="1" t="n">
         <v>400</v>
@@ -20631,19 +20629,19 @@
         <v>40</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E247" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="F247" s="1" t="s">
+      <c r="G247" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="H247" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="I247" s="0"/>
       <c r="J247" s="1" t="n">
@@ -20651,17 +20649,17 @@
       </c>
       <c r="M247" s="0"/>
       <c r="N247" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R247" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S247" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X247" s="0"/>
       <c r="Y247" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AD247" s="1" t="s">
         <v>59</v>
@@ -20691,19 +20689,19 @@
         <v>40</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F248" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>776</v>
-      </c>
       <c r="H248" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I248" s="0"/>
       <c r="J248" s="1" t="n">
@@ -20711,17 +20709,17 @@
       </c>
       <c r="M248" s="0"/>
       <c r="N248" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R248" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S248" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X248" s="0"/>
       <c r="Y248" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AD248" s="1" t="s">
         <v>59</v>
@@ -20751,19 +20749,19 @@
         <v>40</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F249" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="G249" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="H249" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I249" s="0"/>
       <c r="J249" s="1" t="n">
@@ -20771,17 +20769,17 @@
       </c>
       <c r="M249" s="0"/>
       <c r="N249" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R249" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S249" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X249" s="0"/>
       <c r="Y249" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AD249" s="1" t="s">
         <v>59</v>
@@ -20811,19 +20809,19 @@
         <v>40</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F250" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="G250" s="1" t="s">
-        <v>782</v>
-      </c>
       <c r="H250" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I250" s="0"/>
       <c r="J250" s="1" t="n">
@@ -20831,17 +20829,17 @@
       </c>
       <c r="M250" s="0"/>
       <c r="N250" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="R250" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S250" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X250" s="0"/>
       <c r="Y250" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD250" s="1" t="s">
         <v>59</v>
@@ -20871,34 +20869,34 @@
         <v>40</v>
       </c>
       <c r="D251" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E251" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="F251" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="G251" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="H251" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="H251" s="1" t="s">
+      <c r="I251" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="M251" s="0"/>
       <c r="N251" s="0"/>
       <c r="S251" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X251" s="0"/>
       <c r="AK251" s="1" t="n">
         <v>224</v>
       </c>
       <c r="AL251" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20912,34 +20910,34 @@
         <v>40</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E252" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F252" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="G252" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="G252" s="1" t="s">
-        <v>794</v>
-      </c>
       <c r="H252" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="I252" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="I252" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="M252" s="0"/>
       <c r="N252" s="0"/>
       <c r="S252" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X252" s="0"/>
       <c r="AK252" s="1" t="n">
         <v>225</v>
       </c>
       <c r="AL252" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20953,31 +20951,31 @@
         <v>40</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E253" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F253" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="G253" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="G253" s="1" t="s">
+      <c r="H253" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="H253" s="1" t="s">
+      <c r="I253" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="I253" s="1" t="s">
+      <c r="M253" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="M253" s="1" t="s">
+      <c r="N253" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="N253" s="6" t="s">
-        <v>802</v>
-      </c>
       <c r="S253" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X253" s="0"/>
       <c r="AK253" s="1" t="n">
@@ -20998,31 +20996,31 @@
         <v>40</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E254" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="G254" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="H254" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="H254" s="1" t="s">
+      <c r="I254" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="I254" s="1" t="s">
+      <c r="M254" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="M254" s="1" t="s">
-        <v>801</v>
-      </c>
       <c r="N254" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S254" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X254" s="0"/>
       <c r="AK254" s="1" t="n">
@@ -21043,31 +21041,31 @@
         <v>40</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F255" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="G255" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="H255" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="H255" s="1" t="s">
+      <c r="I255" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="I255" s="1" t="s">
+      <c r="M255" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="M255" s="1" t="s">
-        <v>801</v>
-      </c>
       <c r="N255" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S255" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X255" s="0"/>
       <c r="AK255" s="1" t="n">
@@ -21088,31 +21086,31 @@
         <v>40</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E256" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="F256" s="1" t="s">
+      <c r="G256" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="H256" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="H256" s="1" t="s">
+      <c r="I256" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="I256" s="1" t="s">
+      <c r="M256" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="M256" s="1" t="s">
-        <v>801</v>
-      </c>
       <c r="N256" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S256" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X256" s="0"/>
       <c r="AK256" s="1" t="n">
@@ -21133,34 +21131,34 @@
         <v>40</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E257" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="G257" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="G257" s="1" t="s">
+      <c r="H257" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="H257" s="1" t="s">
+      <c r="I257" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="I257" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="M257" s="0"/>
       <c r="N257" s="0"/>
       <c r="S257" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X257" s="0"/>
       <c r="AK257" s="1" t="n">
         <v>229</v>
       </c>
       <c r="AL257" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21174,27 +21172,27 @@
         <v>40</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E258" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="F258" s="1" t="s">
+      <c r="G258" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="H258" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>815</v>
-      </c>
       <c r="I258" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M258" s="0"/>
       <c r="N258" s="0"/>
       <c r="S258" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X258" s="0"/>
       <c r="AK258" s="1" t="n">
@@ -21215,32 +21213,32 @@
         <v>40</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E259" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F259" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="F259" s="1" t="s">
+      <c r="G259" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="H259" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H259" s="1" t="s">
-        <v>819</v>
-      </c>
       <c r="I259" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M259" s="0"/>
       <c r="N259" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="S259" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="S259" s="1" t="s">
-        <v>821</v>
-      </c>
       <c r="X259" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AK259" s="1" t="n">
         <v>231</v>
@@ -21258,32 +21256,32 @@
         <v>40</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E260" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F260" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="F260" s="1" t="s">
+      <c r="G260" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="H260" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="I260" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M260" s="0"/>
       <c r="N260" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="S260" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="X260" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="S260" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="X260" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="AK260" s="1" t="n">
         <v>232</v>
@@ -21301,31 +21299,31 @@
         <v>40</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E261" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F261" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="F261" s="1" t="s">
+      <c r="G261" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="H261" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M261" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="I261" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="M261" s="1" t="s">
+      <c r="N261" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="N261" s="6" t="s">
-        <v>832</v>
-      </c>
       <c r="S261" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AK261" s="1" t="n">
         <v>233</v>
@@ -21345,31 +21343,31 @@
         <v>40</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E262" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F262" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="F262" s="1" t="s">
+      <c r="G262" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="H262" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M262" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="H262" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="M262" s="1" t="s">
+      <c r="N262" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="N262" s="6" t="s">
-        <v>832</v>
-      </c>
       <c r="S262" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AK262" s="1" t="n">
         <v>234</v>
@@ -21389,31 +21387,31 @@
         <v>40</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F263" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="F263" s="1" t="s">
+      <c r="G263" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="H263" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M263" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="H263" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="I263" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="M263" s="1" t="s">
+      <c r="N263" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="N263" s="6" t="s">
-        <v>832</v>
-      </c>
       <c r="S263" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AK263" s="1" t="n">
         <v>235</v>
@@ -21433,31 +21431,31 @@
         <v>40</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E264" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F264" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="F264" s="1" t="s">
+      <c r="G264" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="G264" s="1" t="s">
+      <c r="H264" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M264" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="I264" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>831</v>
-      </c>
       <c r="N264" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="S264" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AK264" s="1" t="n">
         <v>236</v>
@@ -21477,37 +21475,37 @@
         <v>40</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E265" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F265" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="G265" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="G265" s="1" t="s">
+      <c r="H265" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M265" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="H265" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="I265" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>831</v>
-      </c>
       <c r="N265" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="S265" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AK265" s="1" t="n">
         <v>237</v>
       </c>
       <c r="AL265" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21521,37 +21519,37 @@
         <v>40</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E266" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F266" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="F266" s="1" t="s">
+      <c r="G266" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="G266" s="1" t="s">
+      <c r="H266" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M266" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="H266" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="I266" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="M266" s="1" t="s">
-        <v>831</v>
-      </c>
       <c r="N266" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="S266" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AK266" s="1" t="n">
         <v>238</v>
       </c>
       <c r="AL266" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21565,31 +21563,31 @@
         <v>40</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E267" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F267" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="F267" s="1" t="s">
+      <c r="G267" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="G267" s="1" t="s">
+      <c r="H267" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M267" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="H267" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="I267" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>831</v>
-      </c>
       <c r="N267" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="S267" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AK267" s="1" t="n">
         <v>239</v>
@@ -21609,22 +21607,22 @@
         <v>40</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F268" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G268" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="G268" s="1" t="s">
-        <v>840</v>
-      </c>
       <c r="H268" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I268" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="S268" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="S268" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="AK268" s="1" t="n">
         <v>521</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AM$268</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2816,12 +2817,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2858,7 +2865,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2881,6 +2888,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2910,51 +2921,51 @@
   </sheetPr>
   <dimension ref="A1:AM268"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="V147" activeCellId="0" sqref="V147"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="J175" activeCellId="0" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="86.336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="87.0890688259109"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="95.1214574898785"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="137.862348178138"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="167.534412955466"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="95.9797570850202"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="139.145748987854"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="169.032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -13942,8 +13953,8 @@
         <v>451</v>
       </c>
       <c r="I146" s="0"/>
-      <c r="J146" s="1" t="n">
-        <v>4</v>
+      <c r="J146" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="K146" s="0"/>
       <c r="L146" s="0"/>
@@ -20971,7 +20982,7 @@
       <c r="M253" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="N253" s="6" t="s">
+      <c r="N253" s="7" t="s">
         <v>801</v>
       </c>
       <c r="S253" s="1" t="s">
@@ -21016,7 +21027,7 @@
       <c r="M254" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="N254" s="6" t="s">
+      <c r="N254" s="7" t="s">
         <v>802</v>
       </c>
       <c r="S254" s="1" t="s">
@@ -21061,7 +21072,7 @@
       <c r="M255" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="N255" s="6" t="s">
+      <c r="N255" s="7" t="s">
         <v>803</v>
       </c>
       <c r="S255" s="1" t="s">
@@ -21106,7 +21117,7 @@
       <c r="M256" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="N256" s="6" t="s">
+      <c r="N256" s="7" t="s">
         <v>804</v>
       </c>
       <c r="S256" s="1" t="s">
@@ -21319,7 +21330,7 @@
       <c r="M261" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="N261" s="6" t="s">
+      <c r="N261" s="7" t="s">
         <v>831</v>
       </c>
       <c r="S261" s="1" t="s">
@@ -21363,7 +21374,7 @@
       <c r="M262" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="N262" s="6" t="s">
+      <c r="N262" s="7" t="s">
         <v>831</v>
       </c>
       <c r="S262" s="1" t="s">
@@ -21407,7 +21418,7 @@
       <c r="M263" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="N263" s="6" t="s">
+      <c r="N263" s="7" t="s">
         <v>831</v>
       </c>
       <c r="S263" s="1" t="s">
@@ -21451,7 +21462,7 @@
       <c r="M264" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="N264" s="6" t="s">
+      <c r="N264" s="7" t="s">
         <v>832</v>
       </c>
       <c r="S264" s="1" t="s">
@@ -21495,7 +21506,7 @@
       <c r="M265" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="N265" s="6" t="s">
+      <c r="N265" s="7" t="s">
         <v>833</v>
       </c>
       <c r="S265" s="1" t="s">
@@ -21539,7 +21550,7 @@
       <c r="M266" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="N266" s="6" t="s">
+      <c r="N266" s="7" t="s">
         <v>835</v>
       </c>
       <c r="S266" s="1" t="s">
@@ -21583,7 +21594,7 @@
       <c r="M267" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="N267" s="6" t="s">
+      <c r="N267" s="7" t="s">
         <v>837</v>
       </c>
       <c r="S267" s="1" t="s">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="850">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -390,7 +390,10 @@
     <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000044839</t>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 0.9/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000044839, 5449000280152</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Pear - 0.5L</t>
@@ -432,7 +435,10 @@
     <t xml:space="preserve">Швеппс Тоник - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000044808</t>
+    <t xml:space="preserve">Schweppes Tonic - 0.9/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000044808, 5449000280206</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
@@ -552,7 +558,10 @@
     <t xml:space="preserve">Швеппс Гранат - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000224385</t>
+    <t xml:space="preserve">Schweppes Pomegranate - 0.9/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000224385, 5449000280169</t>
   </si>
   <si>
     <t xml:space="preserve">Schweppes Mojito - 0.33L</t>
@@ -565,6 +574,12 @@
   </si>
   <si>
     <t xml:space="preserve">Швеппс Мохито - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Mojito - 0.9/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000109125, 5449000280183</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Citrus - 0.9L/1L</t>
@@ -2833,7 +2848,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2844,12 +2859,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -2894,7 +2903,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2935,11 +2944,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2960,66 +2973,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -3034,39 +2987,39 @@
   </sheetPr>
   <dimension ref="A1:AO267"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="P173" activeCellId="0" sqref="P173"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.7327935222672"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="59.1295546558704"/>
-    <col collapsed="false" hidden="false" max="32" min="17" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="80.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.1619433198381"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4817813765182"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.59919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="14.2834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="60.2145748987854"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="63.0728744939271"/>
+    <col collapsed="false" hidden="false" max="32" min="17" style="1" width="9.25506072874494"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.2834008097166"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.5951417004049"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="17.4817813765182"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="64.5587044534413"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="23.1943319838057"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.11336032388664"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.25506072874494"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="11.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.93927125506073"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4537,12 +4490,11 @@
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="1" t="str">
-        <f aca="false">F19</f>
-        <v>Schweppes Bitter Lemon - 1L</v>
-      </c>
-      <c r="P19" s="1" t="s">
+      <c r="O19" s="11" t="s">
         <v>106</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -4600,10 +4552,10 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>56</v>
@@ -4621,7 +4573,7 @@
         <v>Fanta Pear - 0.5L</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
@@ -4679,10 +4631,10 @@
         <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>56</v>
@@ -4696,7 +4648,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>5449000064110</v>
@@ -4757,10 +4709,10 @@
         <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>56</v>
@@ -4778,7 +4730,7 @@
         <v>Sprite - 0.5L</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
@@ -4836,10 +4788,10 @@
         <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>56</v>
@@ -4857,7 +4809,7 @@
         <v>Coca-Cola Zero Cherry - 0.5L</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
@@ -4915,10 +4867,10 @@
         <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>56</v>
@@ -4931,12 +4883,11 @@
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="1" t="str">
-        <f aca="false">F24</f>
-        <v>Schweppes Tonic - 1L</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>120</v>
+      <c r="O24" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
@@ -4994,10 +4945,10 @@
         <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>56</v>
@@ -5015,7 +4966,7 @@
         <v>Coca-Cola Zero - 0.33L</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
@@ -5073,10 +5024,10 @@
         <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>56</v>
@@ -5094,7 +5045,7 @@
         <v>Fanta Citrus - 1.5L</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
@@ -5152,10 +5103,10 @@
         <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>56</v>
@@ -5173,7 +5124,7 @@
         <v>Schweppes Bitter Lemon - 1.5L</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
@@ -5231,10 +5182,10 @@
         <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>56</v>
@@ -5248,7 +5199,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>42099697</v>
@@ -5309,10 +5260,10 @@
         <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>56</v>
@@ -5326,10 +5277,10 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
@@ -5387,10 +5338,10 @@
         <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>56</v>
@@ -5404,10 +5355,10 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
@@ -5465,10 +5416,10 @@
         <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>56</v>
@@ -5482,7 +5433,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>5449000098917</v>
@@ -5540,13 +5491,13 @@
         <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>56</v>
@@ -5560,7 +5511,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>5449000046390</v>
@@ -5621,10 +5572,10 @@
         <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>56</v>
@@ -5642,7 +5593,7 @@
         <v>Coca-Cola Zero Cherry - 1.5L</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
@@ -5700,10 +5651,10 @@
         <v>47</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>56</v>
@@ -5721,7 +5672,7 @@
         <v>Fanta Orange - 0.9L/1L</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -5779,10 +5730,10 @@
         <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>56</v>
@@ -5800,7 +5751,7 @@
         <v>Schweppes Tonic - 1.5L</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
@@ -5858,10 +5809,10 @@
         <v>47</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>56</v>
@@ -5875,7 +5826,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P36" s="1" t="n">
         <v>5449000030856</v>
@@ -5936,10 +5887,10 @@
         <v>47</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>56</v>
@@ -5957,7 +5908,7 @@
         <v>Sprite - 0.9L/1L</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -6015,10 +5966,10 @@
         <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>56</v>
@@ -6031,12 +5982,11 @@
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="1" t="str">
-        <f aca="false">F38</f>
-        <v>Schweppes Pomegranate - 1L</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>160</v>
+      <c r="O38" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
@@ -6094,10 +6044,10 @@
         <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>56</v>
@@ -6111,7 +6061,7 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P39" s="1" t="n">
         <v>5449000171351</v>
@@ -6172,10 +6122,10 @@
         <v>47</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>56</v>
@@ -6188,11 +6138,11 @@
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P40" s="1" t="n">
-        <v>5449000109125</v>
+      <c r="O40" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
@@ -6250,10 +6200,10 @@
         <v>47</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>56</v>
@@ -6271,7 +6221,7 @@
         <v>Fanta Citrus - 0.9L/1L</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
@@ -6329,10 +6279,10 @@
         <v>47</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>56</v>
@@ -6350,7 +6300,7 @@
         <v>Fanta Orange - 0.33L</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
@@ -6408,10 +6358,10 @@
         <v>47</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>56</v>
@@ -6429,7 +6379,7 @@
         <v>Sprite - 0.33L</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
@@ -6487,10 +6437,10 @@
         <v>47</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>56</v>
@@ -6508,7 +6458,7 @@
         <v>Fanta Citrus - 0.5L</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
@@ -6563,13 +6513,13 @@
         <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>50</v>
@@ -6578,7 +6528,7 @@
         <v>44</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
@@ -6611,7 +6561,7 @@
         <v>41</v>
       </c>
       <c r="AN45" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AO45" s="1" t="n">
         <v>300</v>
@@ -6631,13 +6581,13 @@
         <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>56</v>
@@ -6655,7 +6605,7 @@
         <v>BonAqua Still - 0.5L</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
@@ -6710,13 +6660,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>56</v>
@@ -6734,7 +6684,7 @@
         <v>BonAqua Still - 1L</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
@@ -6789,13 +6739,13 @@
         <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>56</v>
@@ -6813,7 +6763,7 @@
         <v>BonAqua Carb - 0.5L</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
@@ -6868,13 +6818,13 @@
         <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>56</v>
@@ -6892,7 +6842,7 @@
         <v>BonAqua Carb - 1L</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
@@ -6947,13 +6897,13 @@
         <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>56</v>
@@ -6971,7 +6921,7 @@
         <v>BonAqua Still - 2L</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
@@ -7026,13 +6976,13 @@
         <v>43</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>56</v>
@@ -7050,7 +7000,7 @@
         <v>BonAqua Viva - Lemon - 0.5L</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
@@ -7105,13 +7055,13 @@
         <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>56</v>
@@ -7129,7 +7079,7 @@
         <v>SmartWater Still - 0.6L</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
@@ -7184,13 +7134,13 @@
         <v>43</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>56</v>
@@ -7208,7 +7158,7 @@
         <v>SmartWater Still - 1.1L</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
@@ -7263,13 +7213,13 @@
         <v>43</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>56</v>
@@ -7342,13 +7292,13 @@
         <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>56</v>
@@ -7366,7 +7316,7 @@
         <v>BonAqua Carb - 2L</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
@@ -7421,13 +7371,13 @@
         <v>43</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>50</v>
@@ -7436,7 +7386,7 @@
         <v>44</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -7469,7 +7419,7 @@
         <v>52</v>
       </c>
       <c r="AN56" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AO56" s="1" t="n">
         <v>300</v>
@@ -7489,13 +7439,13 @@
         <v>43</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>56</v>
@@ -7513,7 +7463,7 @@
         <v>Burn Original - 0.5L</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
@@ -7568,13 +7518,13 @@
         <v>43</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>56</v>
@@ -7592,7 +7542,7 @@
         <v>Burn Apple Kiwi - 0.5L</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
@@ -7647,13 +7597,13 @@
         <v>43</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>56</v>
@@ -7671,7 +7621,7 @@
         <v>Monster Green - 0.5L</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
@@ -7726,13 +7676,13 @@
         <v>43</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>56</v>
@@ -7750,7 +7700,7 @@
         <v>Monster Rossi - 0.5L</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
@@ -7805,13 +7755,13 @@
         <v>43</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>56</v>
@@ -7829,7 +7779,7 @@
         <v>Burn Passion Punch - 0.5L</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
@@ -7884,13 +7834,13 @@
         <v>43</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>56</v>
@@ -7904,7 +7854,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>5060517888794</v>
@@ -7962,13 +7912,13 @@
         <v>43</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>56</v>
@@ -7986,7 +7936,7 @@
         <v>Burn Original - 0.33L</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
@@ -8041,13 +7991,13 @@
         <v>43</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>56</v>
@@ -8120,13 +8070,13 @@
         <v>43</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>50</v>
@@ -8135,7 +8085,7 @@
         <v>44</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -8168,7 +8118,7 @@
         <v>61</v>
       </c>
       <c r="AN65" s="9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AO65" s="1" t="n">
         <v>300</v>
@@ -8188,13 +8138,13 @@
         <v>43</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>56</v>
@@ -8212,7 +8162,7 @@
         <v>Fuze Mango-Camomile - 0.5L</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
@@ -8267,13 +8217,13 @@
         <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>56</v>
@@ -8291,7 +8241,7 @@
         <v>Fuze Lemon-Lemongrass - 1L</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
@@ -8346,13 +8296,13 @@
         <v>43</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>56</v>
@@ -8370,7 +8320,7 @@
         <v>Fuze Berry-Hibiscus - 0.5L</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
@@ -8425,13 +8375,13 @@
         <v>43</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>56</v>
@@ -8449,7 +8399,7 @@
         <v>Fuze Green Strawberry-Raspberry - 1L</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
@@ -8504,13 +8454,13 @@
         <v>43</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>56</v>
@@ -8528,7 +8478,7 @@
         <v>Fuze Peach-Rose - 0.5L</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
@@ -8583,13 +8533,13 @@
         <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>56</v>
@@ -8607,7 +8557,7 @@
         <v>Fuze Mango-Camomile - 1L</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
@@ -8662,13 +8612,13 @@
         <v>43</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>56</v>
@@ -8686,7 +8636,7 @@
         <v>Fuze Green Strawberry-Raspberry - 1.5L</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
@@ -8741,13 +8691,13 @@
         <v>43</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>56</v>
@@ -8765,7 +8715,7 @@
         <v>Fuze Peach-Rose - 1.5L</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
@@ -8820,13 +8770,13 @@
         <v>43</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>56</v>
@@ -8844,7 +8794,7 @@
         <v>Fuze Green Strawberry-Raspberry - 0.5L</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
@@ -8899,13 +8849,13 @@
         <v>43</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>56</v>
@@ -8923,7 +8873,7 @@
         <v>Fuze Berry-Hibiscus - 1L</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
@@ -8978,13 +8928,13 @@
         <v>43</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>50</v>
@@ -8993,7 +8943,7 @@
         <v>44</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -9026,7 +8976,7 @@
         <v>72</v>
       </c>
       <c r="AN76" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AO76" s="1" t="n">
         <v>300</v>
@@ -9046,13 +8996,13 @@
         <v>43</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>56</v>
@@ -9070,7 +9020,7 @@
         <v>Dobriy - Apple - 1L</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
@@ -9125,13 +9075,13 @@
         <v>43</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>56</v>
@@ -9149,7 +9099,7 @@
         <v>Dobriy - Multifruit - 1L</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
@@ -9204,13 +9154,13 @@
         <v>43</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>56</v>
@@ -9228,7 +9178,7 @@
         <v>Dobriy - Orange - 1L</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
@@ -9283,13 +9233,13 @@
         <v>43</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>56</v>
@@ -9307,7 +9257,7 @@
         <v>Dobriy - Peach-Apple - 1L</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
@@ -9362,13 +9312,13 @@
         <v>43</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>56</v>
@@ -9386,7 +9336,7 @@
         <v>Dobriy - Tomato - 1L</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
@@ -9441,13 +9391,13 @@
         <v>43</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>56</v>
@@ -9465,7 +9415,7 @@
         <v>Dobriy - Apple - 2L</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
@@ -9520,13 +9470,13 @@
         <v>43</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>56</v>
@@ -9544,7 +9494,7 @@
         <v>Dobriy - Multifruit - 2L</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
@@ -9599,13 +9549,13 @@
         <v>43</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>56</v>
@@ -9623,7 +9573,7 @@
         <v>Dobriy - Orange - 2L</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
@@ -9678,13 +9628,13 @@
         <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>56</v>
@@ -9702,7 +9652,7 @@
         <v>Dobriy - Tomato - 2L</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
@@ -9757,13 +9707,13 @@
         <v>43</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>56</v>
@@ -9781,7 +9731,7 @@
         <v>Pulpy - Orange - 0.45L</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
@@ -9836,13 +9786,13 @@
         <v>43</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>56</v>
@@ -9860,7 +9810,7 @@
         <v>Dobriy - Apple - 0.2L</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
@@ -9915,13 +9865,13 @@
         <v>43</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>56</v>
@@ -9939,7 +9889,7 @@
         <v>Dobriy - Multifruit - 0.2L</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
@@ -9994,13 +9944,13 @@
         <v>43</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>56</v>
@@ -10018,7 +9968,7 @@
         <v>Dobriy - Apple - 0.33L</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
@@ -10073,13 +10023,13 @@
         <v>43</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>56</v>
@@ -10097,7 +10047,7 @@
         <v>Dobriy - Multifruit - 0.33L</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
@@ -10152,13 +10102,13 @@
         <v>43</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>56</v>
@@ -10176,7 +10126,7 @@
         <v>Pulpy - Orange - 0.9L</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
@@ -10231,13 +10181,13 @@
         <v>43</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>56</v>
@@ -10255,7 +10205,7 @@
         <v>Rich - Orange - 1L</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
@@ -10310,13 +10260,13 @@
         <v>43</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>56</v>
@@ -10334,7 +10284,7 @@
         <v>Rich - Apple - 1L</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
@@ -10389,13 +10339,13 @@
         <v>43</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>56</v>
@@ -10413,7 +10363,7 @@
         <v>Rich - Cherry - 1L</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
@@ -10468,13 +10418,13 @@
         <v>43</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>56</v>
@@ -10492,7 +10442,7 @@
         <v>Rich - Mango-Orange - 1L</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
@@ -10547,13 +10497,13 @@
         <v>43</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>56</v>
@@ -10571,7 +10521,7 @@
         <v>Rich - Peach - 1L</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
@@ -10626,13 +10576,13 @@
         <v>43</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>56</v>
@@ -10650,7 +10600,7 @@
         <v>Rich - Tomato - 1L</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
@@ -10705,13 +10655,13 @@
         <v>43</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>56</v>
@@ -10729,7 +10679,7 @@
         <v>Dobriy - Peach-Apple - 2L</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
@@ -10784,13 +10734,13 @@
         <v>43</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>56</v>
@@ -10808,7 +10758,7 @@
         <v>Dobriy - Pomegranate-Grape - 1L</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
@@ -10863,13 +10813,13 @@
         <v>43</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>56</v>
@@ -10942,13 +10892,13 @@
         <v>43</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>56</v>
@@ -10966,7 +10916,7 @@
         <v>Pulpy - Mango Pineapple - 0.45L</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
@@ -11021,13 +10971,13 @@
         <v>43</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>56</v>
@@ -11041,7 +10991,7 @@
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
       <c r="O102" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P102" s="1" t="n">
         <v>4650075423257</v>
@@ -11099,13 +11049,13 @@
         <v>43</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>56</v>
@@ -11123,7 +11073,7 @@
         <v>Dobriy - Apple Cloudy - 1L</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
@@ -11178,13 +11128,13 @@
         <v>43</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>56</v>
@@ -11257,13 +11207,13 @@
         <v>43</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>56</v>
@@ -11277,7 +11227,7 @@
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
       <c r="O105" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P105" s="1" t="n">
         <v>4650075422809</v>
@@ -11335,13 +11285,13 @@
         <v>43</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>56</v>
@@ -11359,7 +11309,7 @@
         <v>Pulpy - Tropical - 0.9L</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
@@ -11414,13 +11364,13 @@
         <v>43</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>56</v>
@@ -11438,7 +11388,7 @@
         <v>Dobriy - Peach-Apple - 0.2L</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
@@ -11493,13 +11443,13 @@
         <v>43</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>56</v>
@@ -11572,13 +11522,13 @@
         <v>43</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>56</v>
@@ -11596,7 +11546,7 @@
         <v>Dobriy - Apple Blackashberry Cherry - 1L</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
@@ -11651,13 +11601,13 @@
         <v>43</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>56</v>
@@ -11675,7 +11625,7 @@
         <v>Dobriy - Mors Cloudberry-Cowberry - 1L</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
@@ -11730,13 +11680,13 @@
         <v>43</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>56</v>
@@ -11754,7 +11704,7 @@
         <v>Moya Semya - Berry Mix - 0.95L</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
@@ -11809,13 +11759,13 @@
         <v>43</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>56</v>
@@ -11833,7 +11783,7 @@
         <v>Moya Semya - Apple Mix - 0.95L</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
@@ -11888,13 +11838,13 @@
         <v>43</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>56</v>
@@ -11912,7 +11862,7 @@
         <v>Moya Semya - Pineapple-Mango - 0.95L</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
@@ -11967,13 +11917,13 @@
         <v>43</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>56</v>
@@ -11991,7 +11941,7 @@
         <v>Moya Semya - Apple-Strawberry - 0.95L</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
@@ -12046,13 +11996,13 @@
         <v>43</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>56</v>
@@ -12070,7 +12020,7 @@
         <v>Moya Semya - Cherry-Mint - 0.95L</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
@@ -12125,13 +12075,13 @@
         <v>43</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>56</v>
@@ -12149,7 +12099,7 @@
         <v>Pulpy - Tropical - 0.45L</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
@@ -12204,13 +12154,13 @@
         <v>43</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>56</v>
@@ -12224,7 +12174,7 @@
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
       <c r="O117" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P117" s="1" t="n">
         <v>4650075423233</v>
@@ -12282,13 +12232,13 @@
         <v>43</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>56</v>
@@ -12303,7 +12253,7 @@
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
@@ -12358,13 +12308,13 @@
         <v>43</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>56</v>
@@ -12379,7 +12329,7 @@
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
       <c r="P119" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
@@ -12434,13 +12384,13 @@
         <v>43</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>56</v>
@@ -12455,7 +12405,7 @@
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
       <c r="P120" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
@@ -12510,13 +12460,13 @@
         <v>43</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>56</v>
@@ -12531,7 +12481,7 @@
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
@@ -12586,13 +12536,13 @@
         <v>43</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>56</v>
@@ -12607,7 +12557,7 @@
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
@@ -12662,13 +12612,13 @@
         <v>43</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>56</v>
@@ -12683,7 +12633,7 @@
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
@@ -12738,13 +12688,13 @@
         <v>43</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>56</v>
@@ -12759,7 +12709,7 @@
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
@@ -12814,13 +12764,13 @@
         <v>43</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>56</v>
@@ -12835,7 +12785,7 @@
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
       <c r="P125" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
@@ -12890,13 +12840,13 @@
         <v>43</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>56</v>
@@ -12966,13 +12916,13 @@
         <v>43</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>56</v>
@@ -12987,7 +12937,7 @@
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
       <c r="P127" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
@@ -13042,13 +12992,13 @@
         <v>43</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>56</v>
@@ -13063,7 +13013,7 @@
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
@@ -13118,13 +13068,13 @@
         <v>43</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>56</v>
@@ -13139,7 +13089,7 @@
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
       <c r="P129" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
@@ -13194,13 +13144,13 @@
         <v>43</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>56</v>
@@ -13215,7 +13165,7 @@
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
       <c r="P130" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
@@ -13270,13 +13220,13 @@
         <v>43</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>56</v>
@@ -13291,7 +13241,7 @@
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
       <c r="P131" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
@@ -13346,13 +13296,13 @@
         <v>43</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>56</v>
@@ -13367,7 +13317,7 @@
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
       <c r="P132" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
@@ -13422,13 +13372,13 @@
         <v>43</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>56</v>
@@ -13442,10 +13392,10 @@
       <c r="M133" s="8"/>
       <c r="N133" s="8"/>
       <c r="O133" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
@@ -13500,13 +13450,13 @@
         <v>43</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>50</v>
@@ -13544,7 +13494,7 @@
         <v>608</v>
       </c>
       <c r="AN134" s="9" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AO134" s="1" t="n">
         <v>300</v>
@@ -13564,13 +13514,13 @@
         <v>43</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>56</v>
@@ -13584,7 +13534,7 @@
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
       <c r="O135" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P135" s="1" t="n">
         <v>5449000244239</v>
@@ -13642,13 +13592,13 @@
         <v>43</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>56</v>
@@ -13662,7 +13612,7 @@
       <c r="M136" s="8"/>
       <c r="N136" s="8"/>
       <c r="O136" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P136" s="1" t="n">
         <v>5449000244253</v>
@@ -13720,13 +13670,13 @@
         <v>43</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>56</v>
@@ -13740,7 +13690,7 @@
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
       <c r="O137" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P137" s="1" t="n">
         <v>5449000243720</v>
@@ -13798,13 +13748,13 @@
         <v>43</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>56</v>
@@ -13818,7 +13768,7 @@
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
       <c r="O138" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="P138" s="1" t="n">
         <v>54008212</v>
@@ -13876,13 +13826,13 @@
         <v>43</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>56</v>
@@ -13896,7 +13846,7 @@
       <c r="M139" s="8"/>
       <c r="N139" s="8"/>
       <c r="O139" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P139" s="1" t="n">
         <v>54008229</v>
@@ -13955,10 +13905,10 @@
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>43</v>
@@ -13992,7 +13942,7 @@
         <v>301</v>
       </c>
       <c r="AN140" s="9" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="AO140" s="8"/>
     </row>
@@ -14011,10 +13961,10 @@
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>43</v>
@@ -14048,7 +13998,7 @@
         <v>302</v>
       </c>
       <c r="AN141" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="AO141" s="1" t="n">
         <v>301</v>
@@ -14068,16 +14018,16 @@
         <v>43</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I142" s="0"/>
       <c r="J142" s="0"/>
@@ -14093,7 +14043,7 @@
       <c r="R142" s="8"/>
       <c r="S142" s="8"/>
       <c r="T142" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U142" s="8"/>
       <c r="X142" s="8"/>
@@ -14118,7 +14068,7 @@
         <v>131</v>
       </c>
       <c r="AN142" s="9" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AO142" s="1" t="n">
         <v>302</v>
@@ -14138,13 +14088,13 @@
         <v>43</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>56</v>
@@ -14158,7 +14108,7 @@
       <c r="M143" s="8"/>
       <c r="N143" s="8"/>
       <c r="O143" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P143" s="1" t="s">
         <v>51</v>
@@ -14172,7 +14122,7 @@
         <v>58</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X143" s="8"/>
       <c r="Z143" s="8"/>
@@ -14212,16 +14162,16 @@
         <v>43</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I144" s="0"/>
       <c r="J144" s="0"/>
@@ -14240,10 +14190,10 @@
         <v>58</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="X144" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Z144" s="8"/>
       <c r="AA144" s="8"/>
@@ -14282,16 +14232,16 @@
         <v>43</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I145" s="0"/>
       <c r="J145" s="0"/>
@@ -14300,7 +14250,7 @@
       <c r="M145" s="8"/>
       <c r="N145" s="8"/>
       <c r="O145" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>68</v>
@@ -14351,17 +14301,17 @@
         <v>42</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I146" s="0"/>
       <c r="J146" s="0"/>
@@ -14377,7 +14327,7 @@
       <c r="R146" s="8"/>
       <c r="S146" s="8"/>
       <c r="T146" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U146" s="8"/>
       <c r="X146" s="8"/>
@@ -14394,10 +14344,10 @@
         <v>0.01</v>
       </c>
       <c r="AJ146" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AK146" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AL146" s="1" t="n">
         <v>2</v>
@@ -14406,7 +14356,7 @@
         <v>135</v>
       </c>
       <c r="AN146" s="9" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AO146" s="1" t="n">
         <v>302</v>
@@ -14423,16 +14373,16 @@
         <v>42</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>56</v>
@@ -14446,7 +14396,7 @@
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
       <c r="O147" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="P147" s="1" t="s">
         <v>68</v>
@@ -14495,16 +14445,16 @@
         <v>42</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>56</v>
@@ -14518,7 +14468,7 @@
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
       <c r="O148" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>86</v>
@@ -14570,16 +14520,16 @@
         <v>43</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I149" s="0"/>
       <c r="J149" s="0"/>
@@ -14595,7 +14545,7 @@
       <c r="R149" s="8"/>
       <c r="S149" s="8"/>
       <c r="T149" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U149" s="8"/>
       <c r="X149" s="8"/>
@@ -14620,7 +14570,7 @@
         <v>151</v>
       </c>
       <c r="AN149" s="9" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AO149" s="1" t="n">
         <v>302</v>
@@ -14640,13 +14590,13 @@
         <v>43</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>56</v>
@@ -14660,7 +14610,7 @@
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
       <c r="O150" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P150" s="1" t="s">
         <v>51</v>
@@ -14674,7 +14624,7 @@
         <v>58</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X150" s="8"/>
       <c r="Z150" s="8"/>
@@ -14714,16 +14664,16 @@
         <v>43</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I151" s="0"/>
       <c r="J151" s="0"/>
@@ -14742,10 +14692,10 @@
         <v>58</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="X151" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Z151" s="8"/>
       <c r="AA151" s="8"/>
@@ -14784,16 +14734,16 @@
         <v>43</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="I152" s="0"/>
       <c r="J152" s="0"/>
@@ -14832,7 +14782,7 @@
         <v>616</v>
       </c>
       <c r="AN152" s="9" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AO152" s="1" t="n">
         <v>151</v>
@@ -14852,16 +14802,16 @@
         <v>43</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I153" s="0"/>
       <c r="J153" s="0"/>
@@ -14924,16 +14874,16 @@
         <v>43</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I154" s="0"/>
       <c r="J154" s="0"/>
@@ -14942,7 +14892,7 @@
       <c r="M154" s="8"/>
       <c r="N154" s="8"/>
       <c r="O154" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="P154" s="1" t="n">
         <v>54491472</v>
@@ -14996,16 +14946,16 @@
         <v>43</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I155" s="0"/>
       <c r="J155" s="0"/>
@@ -15021,7 +14971,7 @@
       <c r="R155" s="8"/>
       <c r="S155" s="8"/>
       <c r="T155" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U155" s="8"/>
       <c r="X155" s="8"/>
@@ -15046,7 +14996,7 @@
         <v>162</v>
       </c>
       <c r="AN155" s="9" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="AO155" s="1" t="n">
         <v>302</v>
@@ -15066,13 +15016,13 @@
         <v>43</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>56</v>
@@ -15086,7 +15036,7 @@
       <c r="M156" s="8"/>
       <c r="N156" s="8"/>
       <c r="O156" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>51</v>
@@ -15100,7 +15050,7 @@
         <v>58</v>
       </c>
       <c r="U156" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X156" s="8"/>
       <c r="Z156" s="8"/>
@@ -15140,16 +15090,16 @@
         <v>43</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I157" s="0"/>
       <c r="J157" s="0"/>
@@ -15168,10 +15118,10 @@
         <v>58</v>
       </c>
       <c r="U157" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="X157" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="Z157" s="8"/>
       <c r="AA157" s="8"/>
@@ -15210,16 +15160,16 @@
         <v>43</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="I158" s="0"/>
       <c r="J158" s="0"/>
@@ -15258,7 +15208,7 @@
         <v>165</v>
       </c>
       <c r="AN158" s="9" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="AO158" s="1" t="n">
         <v>162</v>
@@ -15278,16 +15228,16 @@
         <v>43</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I159" s="0"/>
       <c r="J159" s="0"/>
@@ -15296,7 +15246,7 @@
       <c r="M159" s="8"/>
       <c r="N159" s="8"/>
       <c r="O159" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P159" s="1" t="n">
         <v>5449000064110</v>
@@ -15350,16 +15300,16 @@
         <v>43</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I160" s="0"/>
       <c r="J160" s="0"/>
@@ -15367,11 +15317,11 @@
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
       <c r="N160" s="8"/>
-      <c r="O160" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="P160" s="1" t="n">
-        <v>5449000044839</v>
+      <c r="O160" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="P160" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="Q160" s="1" t="s">
         <v>51</v>
@@ -15422,16 +15372,16 @@
         <v>43</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I161" s="0"/>
       <c r="J161" s="0"/>
@@ -15447,12 +15397,12 @@
       <c r="R161" s="8"/>
       <c r="S161" s="8"/>
       <c r="T161" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U161" s="8"/>
       <c r="X161" s="8"/>
       <c r="Z161" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AA161" s="8"/>
       <c r="AC161" s="8"/>
@@ -15472,7 +15422,7 @@
         <v>625</v>
       </c>
       <c r="AN161" s="9" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AO161" s="1" t="n">
         <v>302</v>
@@ -15492,13 +15442,13 @@
         <v>43</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>56</v>
@@ -15512,13 +15462,13 @@
       <c r="M162" s="8"/>
       <c r="N162" s="8"/>
       <c r="O162" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="R162" s="8"/>
       <c r="S162" s="8"/>
@@ -15526,11 +15476,11 @@
         <v>58</v>
       </c>
       <c r="U162" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X162" s="8"/>
       <c r="Z162" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AA162" s="8"/>
       <c r="AC162" s="8"/>
@@ -15566,16 +15516,16 @@
         <v>43</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I163" s="0"/>
       <c r="J163" s="0"/>
@@ -15594,13 +15544,13 @@
         <v>58</v>
       </c>
       <c r="U163" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="X163" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="Z163" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AA163" s="8"/>
       <c r="AC163" s="8"/>
@@ -15636,16 +15586,16 @@
         <v>43</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="I164" s="0"/>
       <c r="J164" s="0"/>
@@ -15666,7 +15616,7 @@
       <c r="U164" s="8"/>
       <c r="X164" s="8"/>
       <c r="Z164" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AA164" s="8"/>
       <c r="AC164" s="8"/>
@@ -15684,7 +15634,7 @@
         <v>628</v>
       </c>
       <c r="AN164" s="9" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AO164" s="1" t="n">
         <v>625</v>
@@ -15704,16 +15654,16 @@
         <v>43</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I165" s="0"/>
       <c r="J165" s="0"/>
@@ -15736,7 +15686,7 @@
       <c r="U165" s="8"/>
       <c r="X165" s="8"/>
       <c r="Z165" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AA165" s="8"/>
       <c r="AC165" s="8"/>
@@ -15772,16 +15722,16 @@
         <v>43</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I166" s="0"/>
       <c r="J166" s="0"/>
@@ -15790,7 +15740,7 @@
       <c r="M166" s="8"/>
       <c r="N166" s="8"/>
       <c r="O166" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P166" s="1" t="n">
         <v>5449000064110</v>
@@ -15804,7 +15754,7 @@
       <c r="U166" s="8"/>
       <c r="X166" s="8"/>
       <c r="Z166" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AA166" s="8"/>
       <c r="AC166" s="8"/>
@@ -15840,16 +15790,16 @@
         <v>43</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I167" s="0"/>
       <c r="J167" s="0"/>
@@ -15858,7 +15808,7 @@
       <c r="M167" s="8"/>
       <c r="N167" s="8"/>
       <c r="O167" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P167" s="1" t="n">
         <v>4607042439155</v>
@@ -15872,7 +15822,7 @@
       <c r="U167" s="8"/>
       <c r="X167" s="8"/>
       <c r="Z167" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AA167" s="8"/>
       <c r="AC167" s="8"/>
@@ -15909,10 +15859,10 @@
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>43</v>
@@ -15946,7 +15896,7 @@
         <v>303</v>
       </c>
       <c r="AN168" s="9" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="AO168" s="1" t="n">
         <v>301</v>
@@ -15966,16 +15916,16 @@
         <v>43</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I169" s="0"/>
       <c r="J169" s="0"/>
@@ -15991,7 +15941,7 @@
       <c r="R169" s="8"/>
       <c r="S169" s="8"/>
       <c r="T169" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U169" s="8"/>
       <c r="X169" s="8"/>
@@ -16016,7 +15966,7 @@
         <v>140</v>
       </c>
       <c r="AN169" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="AO169" s="1" t="n">
         <v>303</v>
@@ -16036,13 +15986,13 @@
         <v>43</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>56</v>
@@ -16056,13 +16006,13 @@
       <c r="M170" s="8"/>
       <c r="N170" s="8"/>
       <c r="O170" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R170" s="8"/>
       <c r="S170" s="8"/>
@@ -16070,7 +16020,7 @@
         <v>58</v>
       </c>
       <c r="U170" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X170" s="8"/>
       <c r="Z170" s="8"/>
@@ -16110,16 +16060,16 @@
         <v>43</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I171" s="0"/>
       <c r="J171" s="0"/>
@@ -16138,10 +16088,10 @@
         <v>58</v>
       </c>
       <c r="U171" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="X171" s="1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="Z171" s="8"/>
       <c r="AA171" s="8"/>
@@ -16180,16 +16130,16 @@
         <v>43</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="I172" s="0"/>
       <c r="J172" s="0"/>
@@ -16228,7 +16178,7 @@
         <v>143</v>
       </c>
       <c r="AN172" s="9" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="AO172" s="1" t="n">
         <v>140</v>
@@ -16248,16 +16198,16 @@
         <v>43</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I173" s="0"/>
       <c r="J173" s="0"/>
@@ -16265,11 +16215,11 @@
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
       <c r="N173" s="8"/>
-      <c r="O173" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="P173" s="11" t="s">
-        <v>559</v>
+      <c r="O173" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
@@ -16292,7 +16242,7 @@
       </c>
       <c r="AG173" s="8"/>
       <c r="AJ173" s="1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AK173" s="8"/>
       <c r="AL173" s="1" t="n">
@@ -16320,16 +16270,16 @@
         <v>43</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I174" s="0"/>
       <c r="J174" s="0"/>
@@ -16338,7 +16288,7 @@
       <c r="M174" s="8"/>
       <c r="N174" s="8"/>
       <c r="O174" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P174" s="1" t="n">
         <v>4607042434891</v>
@@ -16364,7 +16314,7 @@
       </c>
       <c r="AG174" s="8"/>
       <c r="AJ174" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AK174" s="8"/>
       <c r="AL174" s="1" t="n">
@@ -16389,19 +16339,19 @@
         <v>42</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I175" s="0"/>
       <c r="J175" s="0"/>
@@ -16417,7 +16367,7 @@
       <c r="R175" s="8"/>
       <c r="S175" s="8"/>
       <c r="T175" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U175" s="8"/>
       <c r="X175" s="8"/>
@@ -16434,10 +16384,10 @@
         <v>0.01</v>
       </c>
       <c r="AJ175" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AK175" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="AL175" s="1" t="n">
         <v>2</v>
@@ -16446,7 +16396,7 @@
         <v>146</v>
       </c>
       <c r="AN175" s="9" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AO175" s="1" t="n">
         <v>303</v>
@@ -16463,16 +16413,16 @@
         <v>42</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>56</v>
@@ -16486,7 +16436,7 @@
       <c r="M176" s="8"/>
       <c r="N176" s="8"/>
       <c r="O176" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P176" s="1" t="n">
         <v>4607042434877</v>
@@ -16535,16 +16485,16 @@
         <v>42</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>56</v>
@@ -16558,7 +16508,7 @@
       <c r="M177" s="8"/>
       <c r="N177" s="8"/>
       <c r="O177" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P177" s="1" t="n">
         <v>4607042434891</v>
@@ -16607,16 +16557,16 @@
         <v>42</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>56</v>
@@ -16630,7 +16580,7 @@
       <c r="M178" s="8"/>
       <c r="N178" s="8"/>
       <c r="O178" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P178" s="1" t="n">
         <v>4607042438738</v>
@@ -16679,16 +16629,16 @@
         <v>42</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>56</v>
@@ -16702,7 +16652,7 @@
       <c r="M179" s="8"/>
       <c r="N179" s="8"/>
       <c r="O179" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P179" s="1" t="n">
         <v>4607042438950</v>
@@ -16755,10 +16705,10 @@
       </c>
       <c r="E180" s="8"/>
       <c r="F180" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>43</v>
@@ -16790,7 +16740,7 @@
       <c r="AM180" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="AN180" s="12" t="n">
+      <c r="AN180" s="13" t="n">
         <v>155</v>
       </c>
       <c r="AO180" s="1" t="n">
@@ -16811,16 +16761,16 @@
         <v>43</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I181" s="0"/>
       <c r="J181" s="0"/>
@@ -16836,12 +16786,12 @@
       <c r="R181" s="8"/>
       <c r="S181" s="8"/>
       <c r="T181" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U181" s="8"/>
       <c r="X181" s="8"/>
       <c r="Z181" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AA181" s="8"/>
       <c r="AE181" s="8"/>
@@ -16860,7 +16810,7 @@
         <v>155</v>
       </c>
       <c r="AN181" s="9" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="AO181" s="1" t="n">
         <v>320</v>
@@ -16880,13 +16830,13 @@
         <v>43</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>56</v>
@@ -16900,27 +16850,27 @@
       <c r="M182" s="8"/>
       <c r="N182" s="8"/>
       <c r="O182" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="R182" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="S182" s="8"/>
       <c r="T182" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U182" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="X182" s="8"/>
       <c r="Z182" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AA182" s="8"/>
       <c r="AE182" s="8"/>
@@ -16955,16 +16905,16 @@
         <v>43</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I183" s="0"/>
       <c r="J183" s="0"/>
@@ -16982,13 +16932,13 @@
         <v>58</v>
       </c>
       <c r="U183" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="X183" s="1" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="Z183" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AA183" s="8"/>
       <c r="AE183" s="8"/>
@@ -17023,16 +16973,16 @@
         <v>43</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="I184" s="0"/>
       <c r="J184" s="0"/>
@@ -17052,7 +17002,7 @@
       <c r="U184" s="8"/>
       <c r="X184" s="8"/>
       <c r="Z184" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AA184" s="8"/>
       <c r="AE184" s="8"/>
@@ -17069,7 +17019,7 @@
         <v>158</v>
       </c>
       <c r="AN184" s="9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AO184" s="1" t="n">
         <v>155</v>
@@ -17089,16 +17039,16 @@
         <v>43</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I185" s="0"/>
       <c r="J185" s="0"/>
@@ -17107,10 +17057,10 @@
       <c r="M185" s="8"/>
       <c r="N185" s="8"/>
       <c r="O185" s="1" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="Q185" s="8"/>
       <c r="S185" s="8"/>
@@ -17122,7 +17072,7 @@
       </c>
       <c r="X185" s="8"/>
       <c r="Z185" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AA185" s="8"/>
       <c r="AE185" s="8"/>
@@ -17157,16 +17107,16 @@
         <v>43</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I186" s="0"/>
       <c r="J186" s="0"/>
@@ -17175,10 +17125,10 @@
       <c r="M186" s="8"/>
       <c r="N186" s="8"/>
       <c r="O186" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q186" s="8"/>
       <c r="S186" s="8"/>
@@ -17190,7 +17140,7 @@
       </c>
       <c r="X186" s="8"/>
       <c r="Z186" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AA186" s="8"/>
       <c r="AE186" s="8"/>
@@ -17226,10 +17176,10 @@
       </c>
       <c r="E187" s="8"/>
       <c r="F187" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>43</v>
@@ -17260,7 +17210,7 @@
       <c r="AM187" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="AN187" s="12" t="n">
+      <c r="AN187" s="13" t="n">
         <v>171</v>
       </c>
       <c r="AO187" s="1" t="n">
@@ -17281,16 +17231,16 @@
         <v>43</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I188" s="0"/>
       <c r="J188" s="0"/>
@@ -17305,12 +17255,12 @@
       <c r="Q188" s="8"/>
       <c r="S188" s="8"/>
       <c r="T188" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U188" s="8"/>
       <c r="X188" s="8"/>
       <c r="Z188" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AA188" s="8"/>
       <c r="AE188" s="8"/>
@@ -17329,7 +17279,7 @@
         <v>171</v>
       </c>
       <c r="AN188" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AO188" s="1" t="n">
         <v>321</v>
@@ -17349,13 +17299,13 @@
         <v>43</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>56</v>
@@ -17369,24 +17319,24 @@
       <c r="M189" s="8"/>
       <c r="N189" s="8"/>
       <c r="O189" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="S189" s="8"/>
       <c r="T189" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U189" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X189" s="8"/>
       <c r="Z189" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AA189" s="8"/>
       <c r="AE189" s="8"/>
@@ -17421,16 +17371,16 @@
         <v>43</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I190" s="0"/>
       <c r="J190" s="0"/>
@@ -17448,13 +17398,13 @@
         <v>58</v>
       </c>
       <c r="U190" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="X190" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="Z190" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AA190" s="8"/>
       <c r="AE190" s="8"/>
@@ -17489,16 +17439,16 @@
         <v>43</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="I191" s="0"/>
       <c r="J191" s="0"/>
@@ -17518,7 +17468,7 @@
       <c r="U191" s="8"/>
       <c r="X191" s="8"/>
       <c r="Z191" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AA191" s="8"/>
       <c r="AE191" s="8"/>
@@ -17535,7 +17485,7 @@
         <v>174</v>
       </c>
       <c r="AN191" s="9" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AO191" s="1" t="n">
         <v>171</v>
@@ -17555,16 +17505,16 @@
         <v>43</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I192" s="0"/>
       <c r="J192" s="0"/>
@@ -17573,7 +17523,7 @@
       <c r="M192" s="8"/>
       <c r="N192" s="8"/>
       <c r="O192" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P192" s="1" t="n">
         <v>5060466510869</v>
@@ -17588,7 +17538,7 @@
       </c>
       <c r="X192" s="8"/>
       <c r="Z192" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AA192" s="8"/>
       <c r="AE192" s="8"/>
@@ -17597,7 +17547,7 @@
       </c>
       <c r="AG192" s="8"/>
       <c r="AJ192" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AK192" s="8"/>
       <c r="AL192" s="1" t="n">
@@ -17625,16 +17575,16 @@
         <v>43</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I193" s="0"/>
       <c r="J193" s="0"/>
@@ -17643,7 +17593,7 @@
       <c r="M193" s="8"/>
       <c r="N193" s="8"/>
       <c r="O193" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P193" s="1" t="n">
         <v>5060517884710</v>
@@ -17658,7 +17608,7 @@
       </c>
       <c r="X193" s="8"/>
       <c r="Z193" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AA193" s="8"/>
       <c r="AE193" s="8"/>
@@ -17667,7 +17617,7 @@
       </c>
       <c r="AG193" s="8"/>
       <c r="AJ193" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AK193" s="8"/>
       <c r="AL193" s="1" t="n">
@@ -17695,16 +17645,16 @@
         <v>43</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I194" s="0"/>
       <c r="J194" s="0"/>
@@ -17713,7 +17663,7 @@
       <c r="M194" s="8"/>
       <c r="N194" s="8"/>
       <c r="O194" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P194" s="1" t="n">
         <v>5449000131768</v>
@@ -17728,7 +17678,7 @@
       </c>
       <c r="X194" s="8"/>
       <c r="Z194" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AA194" s="8"/>
       <c r="AE194" s="8"/>
@@ -17737,7 +17687,7 @@
       </c>
       <c r="AG194" s="8"/>
       <c r="AJ194" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AK194" s="8"/>
       <c r="AL194" s="1" t="n">
@@ -17765,16 +17715,16 @@
         <v>43</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I195" s="0"/>
       <c r="J195" s="0"/>
@@ -17783,7 +17733,7 @@
       <c r="M195" s="8"/>
       <c r="N195" s="8"/>
       <c r="O195" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P195" s="1" t="n">
         <v>5060335632906</v>
@@ -17798,7 +17748,7 @@
       </c>
       <c r="X195" s="8"/>
       <c r="Z195" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AA195" s="8"/>
       <c r="AE195" s="8"/>
@@ -17807,7 +17757,7 @@
       </c>
       <c r="AG195" s="8"/>
       <c r="AJ195" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AK195" s="8"/>
       <c r="AL195" s="1" t="n">
@@ -17836,10 +17786,10 @@
       </c>
       <c r="E196" s="8"/>
       <c r="F196" s="1" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>43</v>
@@ -17871,7 +17821,7 @@
         <v>520</v>
       </c>
       <c r="AN196" s="9" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AO196" s="8"/>
     </row>
@@ -17890,10 +17840,10 @@
       </c>
       <c r="E197" s="8"/>
       <c r="F197" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>43</v>
@@ -17925,7 +17875,7 @@
         <v>501</v>
       </c>
       <c r="AN197" s="9" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AO197" s="1" t="n">
         <v>520</v>
@@ -17942,22 +17892,22 @@
         <v>42</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="J198" s="10" t="s">
         <v>51</v>
@@ -17969,7 +17919,7 @@
       <c r="M198" s="8"/>
       <c r="N198" s="8"/>
       <c r="O198" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P198" s="1" t="s">
         <v>51</v>
@@ -17980,16 +17930,16 @@
       <c r="S198" s="8"/>
       <c r="T198" s="8"/>
       <c r="U198" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X198" s="8"/>
       <c r="Z198" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA198" s="8"/>
       <c r="AE198" s="8"/>
       <c r="AF198" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG198" s="1" t="n">
         <v>0.0725</v>
@@ -18018,19 +17968,19 @@
         <v>42</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="I199" s="0"/>
       <c r="J199" s="0"/>
@@ -18045,16 +17995,16 @@
       <c r="Q199" s="8"/>
       <c r="S199" s="8"/>
       <c r="T199" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U199" s="8"/>
       <c r="X199" s="8"/>
       <c r="Z199" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA199" s="8"/>
       <c r="AE199" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF199" s="1" t="s">
         <v>62</v>
@@ -18071,7 +18021,7 @@
         <v>180</v>
       </c>
       <c r="AN199" s="9" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AO199" s="1" t="n">
         <v>501</v>
@@ -18088,16 +18038,16 @@
         <v>42</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>56</v>
@@ -18126,11 +18076,11 @@
       </c>
       <c r="X200" s="8"/>
       <c r="Z200" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA200" s="8"/>
       <c r="AE200" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF200" s="1" t="s">
         <v>62</v>
@@ -18160,16 +18110,16 @@
         <v>42</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>56</v>
@@ -18183,7 +18133,7 @@
       <c r="M201" s="8"/>
       <c r="N201" s="8"/>
       <c r="O201" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P201" s="1" t="s">
         <v>68</v>
@@ -18198,11 +18148,11 @@
       </c>
       <c r="X201" s="8"/>
       <c r="Z201" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA201" s="8"/>
       <c r="AE201" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF201" s="1" t="s">
         <v>62</v>
@@ -18232,16 +18182,16 @@
         <v>42</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>56</v>
@@ -18270,11 +18220,11 @@
       </c>
       <c r="X202" s="8"/>
       <c r="Z202" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA202" s="8"/>
       <c r="AE202" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF202" s="1" t="s">
         <v>62</v>
@@ -18304,16 +18254,16 @@
         <v>42</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>56</v>
@@ -18327,7 +18277,7 @@
       <c r="M203" s="8"/>
       <c r="N203" s="8"/>
       <c r="O203" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P203" s="1" t="n">
         <v>54491069</v>
@@ -18342,11 +18292,11 @@
       </c>
       <c r="X203" s="8"/>
       <c r="Z203" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA203" s="8"/>
       <c r="AE203" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF203" s="1" t="s">
         <v>62</v>
@@ -18376,16 +18326,16 @@
         <v>42</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>56</v>
@@ -18414,11 +18364,11 @@
       </c>
       <c r="X204" s="8"/>
       <c r="Z204" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA204" s="8"/>
       <c r="AE204" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF204" s="1" t="s">
         <v>62</v>
@@ -18448,16 +18398,16 @@
         <v>42</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>56</v>
@@ -18471,10 +18421,10 @@
       <c r="M205" s="8"/>
       <c r="N205" s="8"/>
       <c r="O205" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q205" s="8"/>
       <c r="S205" s="8"/>
@@ -18486,11 +18436,11 @@
       </c>
       <c r="X205" s="8"/>
       <c r="Z205" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA205" s="8"/>
       <c r="AE205" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF205" s="1" t="s">
         <v>62</v>
@@ -18520,16 +18470,16 @@
         <v>42</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>56</v>
@@ -18543,7 +18493,7 @@
       <c r="M206" s="8"/>
       <c r="N206" s="8"/>
       <c r="O206" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="P206" s="1" t="n">
         <v>5449000064110</v>
@@ -18558,11 +18508,11 @@
       </c>
       <c r="X206" s="8"/>
       <c r="Z206" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA206" s="8"/>
       <c r="AE206" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF206" s="1" t="s">
         <v>62</v>
@@ -18596,10 +18546,10 @@
       </c>
       <c r="E207" s="8"/>
       <c r="F207" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>43</v>
@@ -18631,7 +18581,7 @@
         <v>502</v>
       </c>
       <c r="AN207" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AO207" s="1" t="n">
         <v>520</v>
@@ -18651,22 +18601,22 @@
         <v>43</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="J208" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K208" s="8"/>
       <c r="L208" s="1" t="n">
@@ -18675,27 +18625,27 @@
       <c r="M208" s="8"/>
       <c r="N208" s="8"/>
       <c r="O208" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q208" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="S208" s="8"/>
       <c r="T208" s="8"/>
       <c r="U208" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X208" s="8"/>
       <c r="Z208" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA208" s="8"/>
       <c r="AE208" s="8"/>
       <c r="AF208" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG208" s="1" t="n">
         <v>0.0625</v>
@@ -18724,19 +18674,19 @@
         <v>42</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="I209" s="0"/>
       <c r="J209" s="0"/>
@@ -18751,16 +18701,16 @@
       <c r="Q209" s="8"/>
       <c r="S209" s="8"/>
       <c r="T209" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U209" s="8"/>
       <c r="X209" s="8"/>
       <c r="Z209" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA209" s="8"/>
       <c r="AE209" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF209" s="1" t="s">
         <v>62</v>
@@ -18777,7 +18727,7 @@
         <v>190</v>
       </c>
       <c r="AN209" s="9" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AO209" s="1" t="n">
         <v>502</v>
@@ -18794,16 +18744,16 @@
         <v>42</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>56</v>
@@ -18817,7 +18767,7 @@
       <c r="M210" s="8"/>
       <c r="N210" s="8"/>
       <c r="O210" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P210" s="1" t="n">
         <v>4607042434877</v>
@@ -18832,11 +18782,11 @@
       </c>
       <c r="X210" s="8"/>
       <c r="Z210" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA210" s="8"/>
       <c r="AE210" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF210" s="1" t="s">
         <v>62</v>
@@ -18866,16 +18816,16 @@
         <v>42</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>56</v>
@@ -18889,7 +18839,7 @@
       <c r="M211" s="8"/>
       <c r="N211" s="8"/>
       <c r="O211" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P211" s="1" t="n">
         <v>4607042434891</v>
@@ -18904,11 +18854,11 @@
       </c>
       <c r="X211" s="8"/>
       <c r="Z211" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA211" s="8"/>
       <c r="AE211" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF211" s="1" t="s">
         <v>62</v>
@@ -18938,16 +18888,16 @@
         <v>42</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>56</v>
@@ -18961,7 +18911,7 @@
       <c r="M212" s="8"/>
       <c r="N212" s="8"/>
       <c r="O212" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P212" s="1" t="n">
         <v>4607042438738</v>
@@ -18976,11 +18926,11 @@
       </c>
       <c r="X212" s="8"/>
       <c r="Z212" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA212" s="8"/>
       <c r="AE212" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF212" s="1" t="s">
         <v>62</v>
@@ -19010,16 +18960,16 @@
         <v>42</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>56</v>
@@ -19033,7 +18983,7 @@
       <c r="M213" s="8"/>
       <c r="N213" s="8"/>
       <c r="O213" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P213" s="1" t="n">
         <v>4607042439155</v>
@@ -19048,11 +18998,11 @@
       </c>
       <c r="X213" s="8"/>
       <c r="Z213" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA213" s="8"/>
       <c r="AE213" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF213" s="1" t="s">
         <v>62</v>
@@ -19082,16 +19032,16 @@
         <v>42</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>56</v>
@@ -19105,7 +19055,7 @@
       <c r="M214" s="8"/>
       <c r="N214" s="8"/>
       <c r="O214" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P214" s="1" t="n">
         <v>4607042439216</v>
@@ -19120,11 +19070,11 @@
       </c>
       <c r="X214" s="8"/>
       <c r="Z214" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA214" s="8"/>
       <c r="AE214" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF214" s="1" t="s">
         <v>62</v>
@@ -19158,10 +19108,10 @@
       </c>
       <c r="E215" s="8"/>
       <c r="F215" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>43</v>
@@ -19193,7 +19143,7 @@
         <v>503</v>
       </c>
       <c r="AN215" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="AO215" s="1" t="n">
         <v>520</v>
@@ -19213,22 +19163,22 @@
         <v>43</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="J216" s="10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K216" s="8"/>
       <c r="L216" s="1" t="n">
@@ -19237,27 +19187,27 @@
       <c r="M216" s="8"/>
       <c r="N216" s="8"/>
       <c r="O216" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="S216" s="8"/>
       <c r="T216" s="8"/>
       <c r="U216" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X216" s="8"/>
       <c r="Z216" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA216" s="8"/>
       <c r="AE216" s="8"/>
       <c r="AF216" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG216" s="1" t="n">
         <v>0.0225</v>
@@ -19286,19 +19236,19 @@
         <v>42</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="I217" s="0"/>
       <c r="J217" s="0"/>
@@ -19313,16 +19263,16 @@
       <c r="Q217" s="8"/>
       <c r="S217" s="8"/>
       <c r="T217" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U217" s="8"/>
       <c r="X217" s="8"/>
       <c r="Z217" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA217" s="8"/>
       <c r="AE217" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF217" s="1" t="s">
         <v>62</v>
@@ -19338,8 +19288,8 @@
       <c r="AM217" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="AN217" s="12" t="s">
-        <v>681</v>
+      <c r="AN217" s="13" t="s">
+        <v>686</v>
       </c>
       <c r="AO217" s="1" t="n">
         <v>503</v>
@@ -19356,16 +19306,16 @@
         <v>42</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>56</v>
@@ -19379,7 +19329,7 @@
       <c r="M218" s="8"/>
       <c r="N218" s="8"/>
       <c r="O218" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P218" s="1" t="n">
         <v>5449000005489</v>
@@ -19394,11 +19344,11 @@
       </c>
       <c r="X218" s="8"/>
       <c r="Z218" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA218" s="8"/>
       <c r="AE218" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF218" s="1" t="s">
         <v>62</v>
@@ -19432,10 +19382,10 @@
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>43</v>
@@ -19466,7 +19416,7 @@
       <c r="AM219" s="1" t="n">
         <v>504</v>
       </c>
-      <c r="AN219" s="12" t="n">
+      <c r="AN219" s="13" t="n">
         <v>199</v>
       </c>
       <c r="AO219" s="1" t="n">
@@ -19487,22 +19437,22 @@
         <v>43</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="J220" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K220" s="8"/>
       <c r="L220" s="1" t="n">
@@ -19511,27 +19461,27 @@
       <c r="M220" s="8"/>
       <c r="N220" s="8"/>
       <c r="O220" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q220" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S220" s="8"/>
       <c r="T220" s="8"/>
       <c r="U220" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X220" s="8"/>
       <c r="Z220" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA220" s="8"/>
       <c r="AE220" s="8"/>
       <c r="AF220" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG220" s="1" t="n">
         <v>0.0425</v>
@@ -19560,19 +19510,19 @@
         <v>42</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="I221" s="0"/>
       <c r="J221" s="0"/>
@@ -19587,16 +19537,16 @@
       <c r="Q221" s="8"/>
       <c r="S221" s="8"/>
       <c r="T221" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U221" s="8"/>
       <c r="X221" s="8"/>
       <c r="Z221" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA221" s="8"/>
       <c r="AE221" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF221" s="1" t="s">
         <v>62</v>
@@ -19613,7 +19563,7 @@
         <v>200</v>
       </c>
       <c r="AN221" s="9" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AO221" s="1" t="n">
         <v>504</v>
@@ -19630,16 +19580,16 @@
         <v>42</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>56</v>
@@ -19653,10 +19603,10 @@
       <c r="M222" s="8"/>
       <c r="N222" s="8"/>
       <c r="O222" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q222" s="8"/>
       <c r="S222" s="8"/>
@@ -19668,11 +19618,11 @@
       </c>
       <c r="X222" s="8"/>
       <c r="Z222" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA222" s="8"/>
       <c r="AE222" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF222" s="1" t="s">
         <v>62</v>
@@ -19702,16 +19652,16 @@
         <v>42</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>56</v>
@@ -19725,10 +19675,10 @@
       <c r="M223" s="8"/>
       <c r="N223" s="8"/>
       <c r="O223" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="Q223" s="8"/>
       <c r="S223" s="8"/>
@@ -19740,11 +19690,11 @@
       </c>
       <c r="X223" s="8"/>
       <c r="Z223" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA223" s="8"/>
       <c r="AE223" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AF223" s="1" t="s">
         <v>62</v>
@@ -19778,10 +19728,10 @@
       </c>
       <c r="E224" s="8"/>
       <c r="F224" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>43</v>
@@ -19812,7 +19762,7 @@
       <c r="AM224" s="1" t="n">
         <v>505</v>
       </c>
-      <c r="AN224" s="12" t="n">
+      <c r="AN224" s="13" t="n">
         <v>203</v>
       </c>
       <c r="AO224" s="1" t="n">
@@ -19833,22 +19783,22 @@
         <v>43</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I225" s="10" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="J225" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K225" s="8"/>
       <c r="L225" s="1" t="n">
@@ -19857,27 +19807,27 @@
       <c r="M225" s="8"/>
       <c r="N225" s="8"/>
       <c r="O225" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q225" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="S225" s="8"/>
       <c r="T225" s="8"/>
       <c r="U225" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X225" s="8"/>
       <c r="Z225" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AA225" s="8"/>
       <c r="AE225" s="8"/>
       <c r="AF225" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG225" s="1" t="n">
         <v>0.04</v>
@@ -19910,10 +19860,10 @@
       </c>
       <c r="E226" s="8"/>
       <c r="F226" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>43</v>
@@ -19942,7 +19892,7 @@
         <v>310</v>
       </c>
       <c r="AN226" s="9" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="AO226" s="8"/>
     </row>
@@ -19961,10 +19911,10 @@
       </c>
       <c r="E227" s="8"/>
       <c r="F227" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>43</v>
@@ -19992,7 +19942,7 @@
       <c r="AM227" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="AN227" s="12" t="n">
+      <c r="AN227" s="13" t="n">
         <v>204</v>
       </c>
       <c r="AO227" s="1" t="n">
@@ -20013,16 +19963,16 @@
         <v>43</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -20032,23 +19982,23 @@
       <c r="P228" s="8"/>
       <c r="S228" s="8"/>
       <c r="T228" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="U228" s="8"/>
       <c r="X228" s="8"/>
       <c r="Z228" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA228" s="8"/>
       <c r="AE228" s="8"/>
       <c r="AF228" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG228" s="1" t="n">
         <v>0.065</v>
       </c>
       <c r="AJ228" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="AK228" s="8"/>
       <c r="AL228" s="1" t="n">
@@ -20058,7 +20008,7 @@
         <v>204</v>
       </c>
       <c r="AN228" s="9" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="AO228" s="1" t="n">
         <v>311</v>
@@ -20078,16 +20028,16 @@
         <v>43</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="K229" s="8"/>
       <c r="L229" s="1" t="n">
@@ -20098,19 +20048,19 @@
       </c>
       <c r="N229" s="8"/>
       <c r="O229" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="S229" s="8"/>
       <c r="T229" s="8"/>
       <c r="U229" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="X229" s="8"/>
       <c r="Z229" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA229" s="8"/>
       <c r="AE229" s="8"/>
@@ -20145,16 +20095,16 @@
         <v>43</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="K230" s="8"/>
       <c r="L230" s="1" t="n">
@@ -20163,19 +20113,19 @@
       <c r="M230" s="8"/>
       <c r="N230" s="8"/>
       <c r="O230" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="S230" s="8"/>
       <c r="T230" s="8"/>
       <c r="U230" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="X230" s="8"/>
       <c r="Z230" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="AA230" s="8"/>
       <c r="AE230" s="8"/>
@@ -20211,10 +20161,10 @@
       </c>
       <c r="E231" s="8"/>
       <c r="F231" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>43</v>
@@ -20243,7 +20193,7 @@
         <v>312</v>
       </c>
       <c r="AN231" s="9" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="AO231" s="1" t="n">
         <v>310</v>
@@ -20263,16 +20213,16 @@
         <v>43</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K232" s="8"/>
       <c r="L232" s="1" t="n">
@@ -20285,13 +20235,13 @@
       <c r="S232" s="8"/>
       <c r="T232" s="8"/>
       <c r="U232" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="X232" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="Z232" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA232" s="8"/>
       <c r="AE232" s="8"/>
@@ -20302,10 +20252,10 @@
         <v>0.01625</v>
       </c>
       <c r="AJ232" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK232" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL232" s="1" t="n">
         <v>2</v>
@@ -20332,16 +20282,16 @@
         <v>43</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="K233" s="8"/>
       <c r="L233" s="1" t="n">
@@ -20354,18 +20304,18 @@
         <v>15</v>
       </c>
       <c r="O233" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P233" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="S233" s="8"/>
       <c r="T233" s="8"/>
       <c r="U233" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Z233" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA233" s="8"/>
       <c r="AE233" s="8"/>
@@ -20376,10 +20326,10 @@
         <v>0.01625</v>
       </c>
       <c r="AJ233" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK233" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL233" s="1" t="n">
         <v>2</v>
@@ -20406,13 +20356,13 @@
         <v>43</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>50</v>
@@ -20424,25 +20374,25 @@
       <c r="P234" s="8"/>
       <c r="S234" s="8"/>
       <c r="T234" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U234" s="8"/>
       <c r="Z234" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA234" s="8"/>
       <c r="AE234" s="8"/>
       <c r="AF234" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG234" s="1" t="n">
         <v>0.01625</v>
       </c>
       <c r="AJ234" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK234" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL234" s="1" t="n">
         <v>2</v>
@@ -20451,7 +20401,7 @@
         <v>209</v>
       </c>
       <c r="AN234" s="9" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="AO234" s="1" t="n">
         <v>312</v>
@@ -20472,13 +20422,13 @@
       </c>
       <c r="E235" s="8"/>
       <c r="F235" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K235" s="8"/>
       <c r="L235" s="1" t="n">
@@ -20486,25 +20436,25 @@
       </c>
       <c r="M235" s="8"/>
       <c r="O235" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="S235" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="T235" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U235" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="Z235" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA235" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="AE235" s="8"/>
       <c r="AF235" s="1" t="s">
@@ -20512,10 +20462,10 @@
       </c>
       <c r="AG235" s="8"/>
       <c r="AJ235" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK235" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL235" s="1" t="n">
         <v>3</v>
@@ -20543,13 +20493,13 @@
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K236" s="8"/>
       <c r="L236" s="1" t="n">
@@ -20557,25 +20507,25 @@
       </c>
       <c r="M236" s="8"/>
       <c r="O236" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="S236" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="T236" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U236" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="Z236" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA236" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="AE236" s="8"/>
       <c r="AF236" s="1" t="s">
@@ -20583,10 +20533,10 @@
       </c>
       <c r="AG236" s="8"/>
       <c r="AJ236" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK236" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL236" s="1" t="n">
         <v>3</v>
@@ -20614,13 +20564,13 @@
       </c>
       <c r="E237" s="8"/>
       <c r="F237" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="K237" s="8"/>
       <c r="L237" s="1" t="n">
@@ -20631,11 +20581,11 @@
       <c r="P237" s="8"/>
       <c r="S237" s="8"/>
       <c r="T237" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="U237" s="8"/>
       <c r="Z237" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA237" s="8"/>
       <c r="AE237" s="8"/>
@@ -20644,10 +20594,10 @@
       </c>
       <c r="AG237" s="8"/>
       <c r="AJ237" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK237" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL237" s="1" t="n">
         <v>3</v>
@@ -20656,7 +20606,7 @@
         <v>213</v>
       </c>
       <c r="AN237" s="9" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="AO237" s="1" t="n">
         <v>209</v>
@@ -20677,10 +20627,10 @@
       </c>
       <c r="E238" s="8"/>
       <c r="F238" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>56</v>
@@ -20691,36 +20641,36 @@
       </c>
       <c r="M238" s="8"/>
       <c r="O238" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="S238" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="T238" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U238" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="Z238" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA238" s="8"/>
       <c r="AE238" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AG238" s="8"/>
       <c r="AJ238" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK238" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL238" s="1" t="n">
         <v>4</v>
@@ -20748,10 +20698,10 @@
       </c>
       <c r="E239" s="8"/>
       <c r="F239" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>56</v>
@@ -20762,36 +20712,36 @@
       </c>
       <c r="M239" s="8"/>
       <c r="O239" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="S239" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="T239" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U239" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="Z239" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA239" s="8"/>
       <c r="AE239" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AG239" s="8"/>
       <c r="AJ239" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK239" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL239" s="1" t="n">
         <v>4</v>
@@ -20819,13 +20769,13 @@
       </c>
       <c r="E240" s="8"/>
       <c r="F240" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="K240" s="8"/>
       <c r="L240" s="1" t="n">
@@ -20833,19 +20783,19 @@
       </c>
       <c r="M240" s="8"/>
       <c r="O240" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="T240" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U240" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Z240" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA240" s="8"/>
       <c r="AF240" s="1" t="s">
@@ -20853,10 +20803,10 @@
       </c>
       <c r="AG240" s="8"/>
       <c r="AJ240" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK240" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL240" s="1" t="n">
         <v>3</v>
@@ -20883,43 +20833,43 @@
         <v>43</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="K241" s="8"/>
       <c r="L241" s="8"/>
       <c r="M241" s="8"/>
       <c r="O241" s="8"/>
       <c r="P241" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="T241" s="8"/>
       <c r="U241" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Z241" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AA241" s="8"/>
       <c r="AF241" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG241" s="1" t="n">
         <v>0.01625</v>
       </c>
       <c r="AJ241" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="AK241" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AL241" s="1" t="n">
         <v>2</v>
@@ -20943,19 +20893,19 @@
         <v>42</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="K242" s="8"/>
       <c r="L242" s="1" t="n">
@@ -20969,11 +20919,11 @@
       </c>
       <c r="U242" s="8"/>
       <c r="Z242" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="AA242" s="8"/>
       <c r="AF242" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AG242" s="1" t="n">
         <v>0.03</v>
@@ -20985,8 +20935,8 @@
       <c r="AM242" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="AN242" s="12" t="s">
-        <v>763</v>
+      <c r="AN242" s="13" t="s">
+        <v>768</v>
       </c>
       <c r="AO242" s="1" t="n">
         <v>301</v>
@@ -21003,19 +20953,19 @@
         <v>42</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="K243" s="8"/>
       <c r="L243" s="1" t="n">
@@ -21025,27 +20975,27 @@
         <v>8</v>
       </c>
       <c r="O243" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="T243" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U243" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Z243" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="AA243" s="8"/>
       <c r="AF243" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="AG243" s="8"/>
       <c r="AJ243" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="AL243" s="1" t="n">
         <v>3</v>
@@ -21073,10 +21023,10 @@
       </c>
       <c r="E244" s="8"/>
       <c r="F244" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>43</v>
@@ -21097,7 +21047,7 @@
       <c r="AM244" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="AN244" s="12" t="n">
+      <c r="AN244" s="13" t="n">
         <v>220</v>
       </c>
       <c r="AO244" s="8"/>
@@ -21113,14 +21063,14 @@
         <v>42</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E245" s="8"/>
       <c r="F245" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>50</v>
@@ -21144,7 +21094,7 @@
         <v>220</v>
       </c>
       <c r="AN245" s="9" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="AO245" s="1" t="n">
         <v>400</v>
@@ -21161,19 +21111,19 @@
         <v>42</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="K246" s="8"/>
       <c r="L246" s="1" t="n">
@@ -21181,17 +21131,17 @@
       </c>
       <c r="O246" s="8"/>
       <c r="P246" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="T246" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U246" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="Z246" s="8"/>
       <c r="AA246" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>62</v>
@@ -21221,19 +21171,19 @@
         <v>42</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="K247" s="8"/>
       <c r="L247" s="1" t="n">
@@ -21241,17 +21191,17 @@
       </c>
       <c r="O247" s="8"/>
       <c r="P247" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="T247" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U247" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="Z247" s="8"/>
       <c r="AA247" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>62</v>
@@ -21281,19 +21231,19 @@
         <v>42</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="F248" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H248" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="K248" s="8"/>
       <c r="L248" s="1" t="n">
@@ -21301,17 +21251,17 @@
       </c>
       <c r="O248" s="8"/>
       <c r="P248" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="T248" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U248" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="Z248" s="8"/>
       <c r="AA248" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>62</v>
@@ -21341,19 +21291,19 @@
         <v>42</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="K249" s="8"/>
       <c r="L249" s="1" t="n">
@@ -21361,17 +21311,17 @@
       </c>
       <c r="O249" s="8"/>
       <c r="P249" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="T249" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U249" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="Z249" s="8"/>
       <c r="AA249" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>62</v>
@@ -21401,34 +21351,34 @@
         <v>42</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="O250" s="8"/>
       <c r="P250" s="8"/>
       <c r="U250" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="Z250" s="8"/>
       <c r="AM250" s="1" t="n">
         <v>224</v>
       </c>
       <c r="AN250" s="9" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21442,34 +21392,34 @@
         <v>42</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="F251" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H251" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="K251" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="H251" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="K251" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="O251" s="8"/>
       <c r="P251" s="8"/>
       <c r="U251" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="Z251" s="8"/>
       <c r="AM251" s="1" t="n">
         <v>225</v>
       </c>
       <c r="AN251" s="9" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21483,37 +21433,37 @@
         <v>42</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O252" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="P252" s="13" t="s">
-        <v>806</v>
+        <v>810</v>
+      </c>
+      <c r="P252" s="14" t="s">
+        <v>811</v>
       </c>
       <c r="U252" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="Z252" s="8"/>
       <c r="AM252" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="AN252" s="12" t="n">
+      <c r="AN252" s="13" t="n">
         <v>623</v>
       </c>
     </row>
@@ -21528,37 +21478,37 @@
         <v>42</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O253" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="P253" s="13" t="s">
-        <v>807</v>
+        <v>810</v>
+      </c>
+      <c r="P253" s="14" t="s">
+        <v>812</v>
       </c>
       <c r="U253" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="Z253" s="8"/>
       <c r="AM253" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="AN253" s="12" t="n">
+      <c r="AN253" s="13" t="n">
         <v>621</v>
       </c>
     </row>
@@ -21573,37 +21523,37 @@
         <v>42</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O254" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="P254" s="13" t="s">
-        <v>808</v>
+        <v>810</v>
+      </c>
+      <c r="P254" s="14" t="s">
+        <v>813</v>
       </c>
       <c r="U254" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="Z254" s="8"/>
       <c r="AM254" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="AN254" s="12" t="n">
+      <c r="AN254" s="13" t="n">
         <v>622</v>
       </c>
     </row>
@@ -21618,37 +21568,37 @@
         <v>42</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O255" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="P255" s="13" t="s">
-        <v>809</v>
+        <v>810</v>
+      </c>
+      <c r="P255" s="14" t="s">
+        <v>814</v>
       </c>
       <c r="U255" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="Z255" s="8"/>
       <c r="AM255" s="1" t="n">
         <v>624</v>
       </c>
-      <c r="AN255" s="12" t="n">
+      <c r="AN255" s="13" t="n">
         <v>620</v>
       </c>
     </row>
@@ -21663,34 +21613,34 @@
         <v>42</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="O256" s="8"/>
       <c r="P256" s="8"/>
       <c r="U256" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="Z256" s="8"/>
       <c r="AM256" s="1" t="n">
         <v>229</v>
       </c>
       <c r="AN256" s="9" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21704,33 +21654,33 @@
         <v>42</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="H257" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="K257" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="O257" s="8"/>
       <c r="P257" s="8"/>
       <c r="U257" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="Z257" s="8"/>
       <c r="AM257" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="AN257" s="12" t="n">
+      <c r="AN257" s="13" t="n">
         <v>218</v>
       </c>
     </row>
@@ -21745,32 +21695,32 @@
         <v>42</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="O258" s="8"/>
       <c r="P258" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="U258" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="Z258" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AM258" s="1" t="n">
         <v>231</v>
@@ -21788,32 +21738,32 @@
         <v>42</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O259" s="8"/>
       <c r="P259" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="U259" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="U259" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="Z259" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="AM259" s="1" t="n">
         <v>232</v>
@@ -21831,36 +21781,36 @@
         <v>42</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O260" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="P260" s="13" t="s">
-        <v>836</v>
+        <v>840</v>
+      </c>
+      <c r="P260" s="14" t="s">
+        <v>841</v>
       </c>
       <c r="U260" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AM260" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="AN260" s="12" t="n">
+      <c r="AN260" s="13" t="n">
         <v>131</v>
       </c>
     </row>
@@ -21875,36 +21825,36 @@
         <v>42</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O261" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="P261" s="13" t="s">
-        <v>836</v>
+        <v>840</v>
+      </c>
+      <c r="P261" s="14" t="s">
+        <v>841</v>
       </c>
       <c r="U261" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AM261" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="AN261" s="12" t="n">
+      <c r="AN261" s="13" t="n">
         <v>140</v>
       </c>
     </row>
@@ -21919,36 +21869,36 @@
         <v>42</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O262" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="P262" s="13" t="s">
-        <v>836</v>
+        <v>840</v>
+      </c>
+      <c r="P262" s="14" t="s">
+        <v>841</v>
       </c>
       <c r="U262" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AM262" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="AN262" s="12" t="n">
+      <c r="AN262" s="13" t="n">
         <v>151</v>
       </c>
     </row>
@@ -21963,36 +21913,36 @@
         <v>42</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="P263" s="13" t="s">
-        <v>837</v>
+        <v>840</v>
+      </c>
+      <c r="P263" s="14" t="s">
+        <v>842</v>
       </c>
       <c r="U263" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AM263" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="AN263" s="12" t="n">
+      <c r="AN263" s="13" t="n">
         <v>155</v>
       </c>
     </row>
@@ -22007,37 +21957,37 @@
         <v>42</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O264" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="P264" s="13" t="s">
-        <v>838</v>
+        <v>840</v>
+      </c>
+      <c r="P264" s="14" t="s">
+        <v>843</v>
       </c>
       <c r="U264" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AM264" s="1" t="n">
         <v>237</v>
       </c>
       <c r="AN264" s="9" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22051,37 +22001,37 @@
         <v>42</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O265" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="P265" s="13" t="s">
         <v>840</v>
       </c>
+      <c r="P265" s="14" t="s">
+        <v>845</v>
+      </c>
       <c r="U265" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AM265" s="1" t="n">
         <v>238</v>
       </c>
       <c r="AN265" s="9" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22095,36 +22045,36 @@
         <v>42</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="O266" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="P266" s="13" t="s">
-        <v>842</v>
+        <v>840</v>
+      </c>
+      <c r="P266" s="14" t="s">
+        <v>847</v>
       </c>
       <c r="U266" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AM266" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="AN266" s="12" t="n">
+      <c r="AN266" s="13" t="n">
         <v>171</v>
       </c>
     </row>
@@ -22139,22 +22089,22 @@
         <v>42</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="U267" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AM267" s="1" t="n">
         <v>521</v>
@@ -22164,7 +22114,7 @@
   <autoFilter ref="A1:AO267"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
